--- a/BackTest/2019-10-19 BackTest XVG.xlsx
+++ b/BackTest/2019-10-19 BackTest XVG.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.4299999999999997</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>20.0000000000001</v>
+      </c>
       <c r="L12" t="n">
         <v>4.064</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.4400000000000004</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>3.22580645161283</v>
+      </c>
       <c r="L13" t="n">
         <v>4.07</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.4800000000000004</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-3.030303030303226</v>
+      </c>
       <c r="L14" t="n">
         <v>4.067</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.4900000000000011</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>17.24137931034502</v>
+      </c>
       <c r="L15" t="n">
         <v>4.067</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.4900000000000011</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>4.000000000000256</v>
+      </c>
       <c r="L16" t="n">
         <v>4.072</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.4900000000000011</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>8.333333333333487</v>
+      </c>
       <c r="L17" t="n">
         <v>4.073</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.4900000000000011</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>4.34782608695679</v>
+      </c>
       <c r="L18" t="n">
         <v>4.075</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.4900000000000011</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-15.78947368421008</v>
+      </c>
       <c r="L19" t="n">
         <v>4.076</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.5000000000000018</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>14.28571428571374</v>
+      </c>
       <c r="L20" t="n">
         <v>4.072</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.5100000000000025</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-49.99999999999834</v>
+      </c>
       <c r="L21" t="n">
         <v>4.075</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.5400000000000018</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>4.074</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.5400000000000018</v>
       </c>
       <c r="K23" t="n">
-        <v>13.04347826086943</v>
+        <v>66.66666666666518</v>
       </c>
       <c r="L23" t="n">
         <v>4.074</v>
@@ -1466,7 +1488,7 @@
         <v>0.5800000000000018</v>
       </c>
       <c r="K24" t="n">
-        <v>-6.666666666666693</v>
+        <v>-11.11111111111177</v>
       </c>
       <c r="L24" t="n">
         <v>4.074</v>
@@ -1515,7 +1537,7 @@
         <v>0.5800000000000018</v>
       </c>
       <c r="K25" t="n">
-        <v>-2.325581395348981</v>
+        <v>-11.11111111111177</v>
       </c>
       <c r="L25" t="n">
         <v>4.073</v>
@@ -1564,7 +1586,7 @@
         <v>0.6200000000000019</v>
       </c>
       <c r="K26" t="n">
-        <v>19.04761904761899</v>
+        <v>23.07692307692244</v>
       </c>
       <c r="L26" t="n">
         <v>4.076000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>0.6400000000000015</v>
       </c>
       <c r="K27" t="n">
-        <v>5.0000000000001</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L27" t="n">
         <v>4.077</v>
@@ -1662,7 +1684,7 @@
         <v>0.6400000000000015</v>
       </c>
       <c r="K28" t="n">
-        <v>7.692307692307727</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L28" t="n">
         <v>4.078</v>
@@ -1711,7 +1733,7 @@
         <v>0.6400000000000015</v>
       </c>
       <c r="K29" t="n">
-        <v>5.26315789473694</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="L29" t="n">
         <v>4.079</v>
@@ -1760,7 +1782,7 @@
         <v>0.6600000000000019</v>
       </c>
       <c r="K30" t="n">
-        <v>-11.11111111111106</v>
+        <v>-6.666666666667139</v>
       </c>
       <c r="L30" t="n">
         <v>4.079</v>
@@ -1809,7 +1831,7 @@
         <v>0.6600000000000019</v>
       </c>
       <c r="K31" t="n">
-        <v>6.66666666666647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L31" t="n">
         <v>4.078</v>
@@ -1860,7 +1882,7 @@
         <v>0.6800000000000024</v>
       </c>
       <c r="K32" t="n">
-        <v>-11.99999999999997</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L32" t="n">
         <v>4.076</v>
@@ -1911,7 +1933,7 @@
         <v>0.7000000000000028</v>
       </c>
       <c r="K33" t="n">
-        <v>-15.38461538461525</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>4.072</v>
@@ -1962,7 +1984,7 @@
         <v>0.7100000000000026</v>
       </c>
       <c r="K34" t="n">
-        <v>-4.347826086956387</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L34" t="n">
         <v>4.071</v>
@@ -2013,7 +2035,7 @@
         <v>0.7400000000000029</v>
       </c>
       <c r="K35" t="n">
-        <v>3.999999999999886</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L35" t="n">
         <v>4.072999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>0.7500000000000027</v>
       </c>
       <c r="K36" t="n">
-        <v>7.692307692307482</v>
+        <v>9.090909090908797</v>
       </c>
       <c r="L36" t="n">
         <v>4.071999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>0.7800000000000029</v>
       </c>
       <c r="K37" t="n">
-        <v>-3.448275862069176</v>
+        <v>-14.28571428571447</v>
       </c>
       <c r="L37" t="n">
         <v>4.069999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>0.7900000000000027</v>
       </c>
       <c r="K38" t="n">
-        <v>-6.666666666666784</v>
+        <v>-20</v>
       </c>
       <c r="L38" t="n">
         <v>4.066999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>0.8000000000000025</v>
       </c>
       <c r="K39" t="n">
-        <v>-9.677419354838747</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L39" t="n">
         <v>4.063</v>
@@ -2319,7 +2341,7 @@
         <v>0.8300000000000018</v>
       </c>
       <c r="K41" t="n">
-        <v>-6.250000000000157</v>
+        <v>-20.00000000000024</v>
       </c>
       <c r="L41" t="n">
         <v>4.061999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>0.8500000000000014</v>
       </c>
       <c r="K42" t="n">
-        <v>-22.58064516129016</v>
+        <v>-19.99999999999976</v>
       </c>
       <c r="L42" t="n">
         <v>4.056999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>0.870000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>-15.15151515151513</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>4.055999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>0.870000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>-3.448275862068902</v>
+        <v>-23.0769230769236</v>
       </c>
       <c r="L44" t="n">
         <v>4.055999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>0.870000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>-3.448275862068902</v>
+        <v>-33.33333333333383</v>
       </c>
       <c r="L45" t="n">
         <v>4.052999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>0.8800000000000008</v>
       </c>
       <c r="K46" t="n">
-        <v>-23.07692307692303</v>
+        <v>-20</v>
       </c>
       <c r="L46" t="n">
         <v>4.047999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>0.8800000000000008</v>
       </c>
       <c r="K47" t="n">
-        <v>-16.66666666666673</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L47" t="n">
         <v>4.045999999999998</v>
@@ -2676,7 +2698,7 @@
         <v>0.8800000000000008</v>
       </c>
       <c r="K48" t="n">
-        <v>-16.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>4.044999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>0.8800000000000008</v>
       </c>
       <c r="K49" t="n">
-        <v>-16.66666666666673</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L49" t="n">
         <v>4.044999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>0.8800000000000008</v>
       </c>
       <c r="K50" t="n">
-        <v>-9.090909090908944</v>
+        <v>-20</v>
       </c>
       <c r="L50" t="n">
         <v>4.042999999999998</v>
@@ -2829,7 +2851,7 @@
         <v>0.8900000000000006</v>
       </c>
       <c r="K51" t="n">
-        <v>-13.04347826086937</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>4.040999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="K52" t="n">
-        <v>-8.333333333333611</v>
+        <v>20</v>
       </c>
       <c r="L52" t="n">
         <v>4.043999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>0.9299999999999997</v>
       </c>
       <c r="K53" t="n">
-        <v>-4.347826086956489</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>4.043999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>0.9399999999999995</v>
       </c>
       <c r="K54" t="n">
-        <v>-4.347826086956489</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L54" t="n">
         <v>4.042999999999999</v>
@@ -3037,7 +3059,7 @@
         <v>0.9499999999999993</v>
       </c>
       <c r="K55" t="n">
-        <v>-14.28571428571465</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L55" t="n">
         <v>4.042999999999999</v>
@@ -3096,7 +3118,7 @@
         <v>0.9499999999999993</v>
       </c>
       <c r="K56" t="n">
-        <v>-20.00000000000036</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L56" t="n">
         <v>4.043999999999999</v>
@@ -3153,7 +3175,7 @@
         <v>0.9499999999999993</v>
       </c>
       <c r="K57" t="n">
-        <v>-5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L57" t="n">
         <v>4.044999999999999</v>
@@ -3210,7 +3232,7 @@
         <v>0.9499999999999993</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L58" t="n">
         <v>4.045999999999998</v>
@@ -3269,7 +3291,7 @@
         <v>0.9499999999999993</v>
       </c>
       <c r="K59" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L59" t="n">
         <v>4.046999999999999</v>
@@ -3326,7 +3348,7 @@
         <v>0.9899999999999993</v>
       </c>
       <c r="K60" t="n">
-        <v>17.64705882352984</v>
+        <v>60.00000000000036</v>
       </c>
       <c r="L60" t="n">
         <v>4.051999999999999</v>
@@ -3383,7 +3405,7 @@
         <v>0.9899999999999993</v>
       </c>
       <c r="K61" t="n">
-        <v>25.00000000000042</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L61" t="n">
         <v>4.057999999999998</v>
@@ -3440,7 +3462,7 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="K62" t="n">
-        <v>46.66666666666698</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L62" t="n">
         <v>4.061999999999999</v>
@@ -3499,7 +3521,7 @@
         <v>1.039999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>5.88235294117641</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L63" t="n">
         <v>4.062999999999999</v>
@@ -3558,7 +3580,7 @@
         <v>1.05</v>
       </c>
       <c r="K64" t="n">
-        <v>11.11111111111144</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L64" t="n">
         <v>4.065999999999999</v>
@@ -3613,7 +3635,7 @@
         <v>1.069999999999999</v>
       </c>
       <c r="K65" t="n">
-        <v>20.00000000000018</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L65" t="n">
         <v>4.069999999999999</v>
@@ -3672,7 +3694,7 @@
         <v>1.089999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>14.28571428571453</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="L66" t="n">
         <v>4.071999999999999</v>
@@ -3731,7 +3753,7 @@
         <v>1.099999999999999</v>
       </c>
       <c r="K67" t="n">
-        <v>18.18181818181836</v>
+        <v>20.00000000000024</v>
       </c>
       <c r="L67" t="n">
         <v>4.074999999999999</v>
@@ -3790,7 +3812,7 @@
         <v>1.109999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>21.73913043478274</v>
+        <v>25.00000000000014</v>
       </c>
       <c r="L68" t="n">
         <v>4.078999999999999</v>
@@ -3847,7 +3869,7 @@
         <v>1.119999999999998</v>
       </c>
       <c r="K69" t="n">
-        <v>16.66666666666685</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L69" t="n">
         <v>4.081999999999999</v>
@@ -3904,7 +3926,7 @@
         <v>1.129999999999998</v>
       </c>
       <c r="K70" t="n">
-        <v>12.00000000000023</v>
+        <v>-14.28571428571411</v>
       </c>
       <c r="L70" t="n">
         <v>4.08</v>
@@ -3961,7 +3983,7 @@
         <v>1.149999999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>7.692307692307587</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>4.075999999999999</v>
@@ -4016,7 +4038,7 @@
         <v>1.159999999999998</v>
       </c>
       <c r="K72" t="n">
-        <v>-8.33333333333321</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L72" t="n">
         <v>4.069999999999999</v>
@@ -4073,7 +4095,7 @@
         <v>1.169999999999998</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>-16.66666666666729</v>
       </c>
       <c r="L73" t="n">
         <v>4.068999999999998</v>
@@ -4130,7 +4152,7 @@
         <v>1.169999999999998</v>
       </c>
       <c r="K74" t="n">
-        <v>4.347826086956454</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L74" t="n">
         <v>4.066999999999998</v>
@@ -4187,7 +4209,7 @@
         <v>1.179999999999998</v>
       </c>
       <c r="K75" t="n">
-        <v>-4.347826086956454</v>
+        <v>-33.33333333333399</v>
       </c>
       <c r="L75" t="n">
         <v>4.061999999999998</v>
@@ -4244,7 +4266,7 @@
         <v>1.179999999999998</v>
       </c>
       <c r="K76" t="n">
-        <v>-4.347826086956454</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L76" t="n">
         <v>4.058999999999997</v>
@@ -4301,7 +4323,7 @@
         <v>1.219999999999998</v>
       </c>
       <c r="K77" t="n">
-        <v>11.11111111111126</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L77" t="n">
         <v>4.058999999999997</v>
@@ -4358,7 +4380,7 @@
         <v>1.269999999999998</v>
       </c>
       <c r="K78" t="n">
-        <v>-6.249999999999896</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>4.052999999999997</v>
@@ -4415,7 +4437,7 @@
         <v>1.269999999999998</v>
       </c>
       <c r="K79" t="n">
-        <v>-6.249999999999896</v>
+        <v>-28.57142857142867</v>
       </c>
       <c r="L79" t="n">
         <v>4.047999999999997</v>
@@ -4472,7 +4494,7 @@
         <v>1.329999999999997</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>22.22222222222239</v>
       </c>
       <c r="L80" t="n">
         <v>4.049999999999998</v>
@@ -4529,7 +4551,7 @@
         <v>1.339999999999997</v>
       </c>
       <c r="K81" t="n">
-        <v>2.857142857142814</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L81" t="n">
         <v>4.054999999999998</v>
@@ -4586,7 +4608,7 @@
         <v>1.349999999999997</v>
       </c>
       <c r="K82" t="n">
-        <v>-2.857142857142814</v>
+        <v>22.22222222222239</v>
       </c>
       <c r="L82" t="n">
         <v>4.059999999999999</v>
@@ -4643,7 +4665,7 @@
         <v>1.379999999999997</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L83" t="n">
         <v>4.060999999999999</v>
@@ -4700,7 +4722,7 @@
         <v>1.379999999999997</v>
       </c>
       <c r="K84" t="n">
-        <v>-3.030303030303259</v>
+        <v>9.999999999999822</v>
       </c>
       <c r="L84" t="n">
         <v>4.061999999999999</v>
@@ -4757,7 +4779,7 @@
         <v>1.389999999999997</v>
       </c>
       <c r="K85" t="n">
-        <v>-12.5000000000001</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L85" t="n">
         <v>4.063</v>
@@ -4814,7 +4836,7 @@
         <v>1.389999999999997</v>
       </c>
       <c r="K86" t="n">
-        <v>-6.666666666666863</v>
+        <v>-17.64705882352966</v>
       </c>
       <c r="L86" t="n">
         <v>4.063999999999999</v>
@@ -4871,7 +4893,7 @@
         <v>1.429999999999997</v>
       </c>
       <c r="K87" t="n">
-        <v>3.030303030302981</v>
+        <v>37.49999999999993</v>
       </c>
       <c r="L87" t="n">
         <v>4.065</v>
@@ -4928,7 +4950,7 @@
         <v>1.449999999999998</v>
       </c>
       <c r="K88" t="n">
-        <v>5.882352941176625</v>
+        <v>44.44444444444456</v>
       </c>
       <c r="L88" t="n">
         <v>4.072999999999999</v>
@@ -4985,7 +5007,7 @@
         <v>1.449999999999998</v>
       </c>
       <c r="K89" t="n">
-        <v>9.090909090909188</v>
+        <v>16.66666666666704</v>
       </c>
       <c r="L89" t="n">
         <v>4.080999999999999</v>
@@ -5042,7 +5064,7 @@
         <v>1.449999999999998</v>
       </c>
       <c r="K90" t="n">
-        <v>12.50000000000004</v>
+        <v>9.090909090909678</v>
       </c>
       <c r="L90" t="n">
         <v>4.082999999999998</v>
@@ -5093,7 +5115,7 @@
         <v>1.449999999999998</v>
       </c>
       <c r="K91" t="n">
-        <v>20.00000000000024</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L91" t="n">
         <v>4.083999999999998</v>
@@ -5144,7 +5166,7 @@
         <v>1.449999999999998</v>
       </c>
       <c r="K92" t="n">
-        <v>24.13793103448293</v>
+        <v>71.42857142857216</v>
       </c>
       <c r="L92" t="n">
         <v>4.085999999999999</v>
@@ -5195,7 +5217,7 @@
         <v>1.449999999999998</v>
       </c>
       <c r="K93" t="n">
-        <v>21.42857142857165</v>
+        <v>71.42857142857216</v>
       </c>
       <c r="L93" t="n">
         <v>4.090999999999998</v>
@@ -5246,7 +5268,7 @@
         <v>1.459999999999998</v>
       </c>
       <c r="K94" t="n">
-        <v>17.24137931034477</v>
+        <v>71.42857142856998</v>
       </c>
       <c r="L94" t="n">
         <v>4.094999999999998</v>
@@ -5297,7 +5319,7 @@
         <v>1.489999999999998</v>
       </c>
       <c r="K95" t="n">
-        <v>9.677419354838802</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L95" t="n">
         <v>4.096999999999999</v>
@@ -5348,7 +5370,7 @@
         <v>1.489999999999998</v>
       </c>
       <c r="K96" t="n">
-        <v>9.677419354838802</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L96" t="n">
         <v>4.098999999999998</v>
@@ -5399,7 +5421,7 @@
         <v>1.509999999999998</v>
       </c>
       <c r="K97" t="n">
-        <v>-10.34482758620698</v>
+        <v>-100</v>
       </c>
       <c r="L97" t="n">
         <v>4.094999999999999</v>
@@ -5450,7 +5472,7 @@
         <v>1.559999999999998</v>
       </c>
       <c r="K98" t="n">
-        <v>24.13793103448255</v>
+        <v>-9.090909090909678</v>
       </c>
       <c r="L98" t="n">
         <v>4.093999999999999</v>
@@ -5501,7 +5523,7 @@
         <v>1.579999999999997</v>
       </c>
       <c r="K99" t="n">
-        <v>16.12903225806448</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L99" t="n">
         <v>4.090999999999999</v>
@@ -5552,7 +5574,7 @@
         <v>1.579999999999997</v>
       </c>
       <c r="K100" t="n">
-        <v>-3.999999999999915</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L100" t="n">
         <v>4.087999999999999</v>
@@ -5603,7 +5625,7 @@
         <v>1.599999999999997</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>-6.666666666667139</v>
       </c>
       <c r="L101" t="n">
         <v>4.086999999999999</v>
@@ -5654,7 +5676,7 @@
         <v>1.629999999999996</v>
       </c>
       <c r="K102" t="n">
-        <v>-7.142857142857006</v>
+        <v>-22.22222222222239</v>
       </c>
       <c r="L102" t="n">
         <v>4.082999999999999</v>
@@ -5705,7 +5727,7 @@
         <v>1.639999999999997</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>-22.22222222222239</v>
       </c>
       <c r="L103" t="n">
         <v>4.077999999999999</v>
@@ -5756,7 +5778,7 @@
         <v>1.639999999999997</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>-6.666666666667139</v>
       </c>
       <c r="L104" t="n">
         <v>4.074</v>
@@ -5807,7 +5829,7 @@
         <v>1.639999999999997</v>
       </c>
       <c r="K105" t="n">
-        <v>3.999999999999915</v>
+        <v>-6.666666666667139</v>
       </c>
       <c r="L105" t="n">
         <v>4.073</v>
@@ -5858,7 +5880,7 @@
         <v>1.659999999999997</v>
       </c>
       <c r="K106" t="n">
-        <v>-3.70370370370363</v>
+        <v>-6.666666666666588</v>
       </c>
       <c r="L106" t="n">
         <v>4.069999999999999</v>
@@ -5909,7 +5931,7 @@
         <v>1.679999999999997</v>
       </c>
       <c r="K107" t="n">
-        <v>-28.00000000000011</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L107" t="n">
         <v>4.067</v>
@@ -5960,7 +5982,7 @@
         <v>1.739999999999998</v>
       </c>
       <c r="K108" t="n">
-        <v>-10.34482758620698</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>4.065</v>
@@ -6011,7 +6033,7 @@
         <v>1.739999999999998</v>
       </c>
       <c r="K109" t="n">
-        <v>-10.34482758620698</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>4.065</v>
@@ -6062,7 +6084,7 @@
         <v>1.739999999999998</v>
       </c>
       <c r="K110" t="n">
-        <v>-10.34482758620698</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L110" t="n">
         <v>4.065</v>
@@ -6113,7 +6135,7 @@
         <v>1.749999999999997</v>
       </c>
       <c r="K111" t="n">
-        <v>-13.33333333333335</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>4.061999999999999</v>
@@ -6164,7 +6186,7 @@
         <v>1.749999999999997</v>
       </c>
       <c r="K112" t="n">
-        <v>-13.33333333333335</v>
+        <v>9.090909090909678</v>
       </c>
       <c r="L112" t="n">
         <v>4.061999999999999</v>
@@ -6215,7 +6237,7 @@
         <v>1.749999999999997</v>
       </c>
       <c r="K113" t="n">
-        <v>-13.33333333333335</v>
+        <v>9.090909090909678</v>
       </c>
       <c r="L113" t="n">
         <v>4.063</v>
@@ -6266,7 +6288,7 @@
         <v>1.769999999999998</v>
       </c>
       <c r="K114" t="n">
-        <v>-16.12903225806448</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L114" t="n">
         <v>4.061999999999999</v>
@@ -6317,7 +6339,7 @@
         <v>1.779999999999998</v>
       </c>
       <c r="K115" t="n">
-        <v>-10.34482758620698</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>4.059999999999999</v>
@@ -6368,7 +6390,7 @@
         <v>1.809999999999998</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>38.46153846153877</v>
       </c>
       <c r="L116" t="n">
         <v>4.062999999999999</v>
@@ -6419,7 +6441,7 @@
         <v>1.809999999999998</v>
       </c>
       <c r="K117" t="n">
-        <v>6.666666666666825</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L117" t="n">
         <v>4.068</v>
@@ -6470,7 +6492,7 @@
         <v>1.809999999999998</v>
       </c>
       <c r="K118" t="n">
-        <v>-11.99999999999974</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L118" t="n">
         <v>4.066999999999999</v>
@@ -6521,7 +6543,7 @@
         <v>1.839999999999998</v>
       </c>
       <c r="K119" t="n">
-        <v>-15.38461538461536</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L119" t="n">
         <v>4.063</v>
@@ -6572,7 +6594,7 @@
         <v>1.869999999999998</v>
       </c>
       <c r="K120" t="n">
-        <v>-3.448275862068881</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>4.061999999999999</v>
@@ -6623,7 +6645,7 @@
         <v>1.869999999999998</v>
       </c>
       <c r="K121" t="n">
-        <v>-11.11111111111082</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>4.061999999999999</v>
@@ -6674,7 +6696,7 @@
         <v>1.909999999999998</v>
       </c>
       <c r="K122" t="n">
-        <v>-14.2857142857142</v>
+        <v>-24.99999999999986</v>
       </c>
       <c r="L122" t="n">
         <v>4.058</v>
@@ -6725,7 +6747,7 @@
         <v>1.949999999999998</v>
       </c>
       <c r="K123" t="n">
-        <v>3.225806451613106</v>
+        <v>11.11111111111133</v>
       </c>
       <c r="L123" t="n">
         <v>4.058</v>
@@ -6776,7 +6798,7 @@
         <v>1.949999999999998</v>
       </c>
       <c r="K124" t="n">
-        <v>3.225806451613106</v>
+        <v>17.64705882352947</v>
       </c>
       <c r="L124" t="n">
         <v>4.06</v>
@@ -6827,7 +6849,7 @@
         <v>1.959999999999999</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>-6.666666666667062</v>
       </c>
       <c r="L125" t="n">
         <v>4.062</v>
@@ -6878,7 +6900,7 @@
         <v>1.969999999999999</v>
       </c>
       <c r="K126" t="n">
-        <v>3.225806451612811</v>
+        <v>-12.50000000000021</v>
       </c>
       <c r="L126" t="n">
         <v>4.06</v>
@@ -6929,7 +6951,7 @@
         <v>1.979999999999999</v>
       </c>
       <c r="K127" t="n">
-        <v>6.666666666666784</v>
+        <v>-17.64705882352947</v>
       </c>
       <c r="L127" t="n">
         <v>4.057</v>

--- a/BackTest/2019-10-19 BackTest XVG.xlsx
+++ b/BackTest/2019-10-19 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S127"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.08000000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1299999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.1499999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1000000000000005</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.2000000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.2400000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.2599999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.02000000000000046</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.2999999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.3599999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>4.065</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.4299999999999997</v>
-      </c>
-      <c r="K12" t="n">
-        <v>20.0000000000001</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.064</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.02000000000000046</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.4400000000000004</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.22580645161283</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.4800000000000004</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-3.030303030303226</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.067</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.4900000000000011</v>
-      </c>
-      <c r="K15" t="n">
-        <v>17.24137931034502</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.067</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.4900000000000011</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.000000000000256</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.072</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.4900000000000011</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8.333333333333487</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.073</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.4900000000000011</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.34782608695679</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.075</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.4900000000000011</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-15.78947368421008</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.076</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5000000000000018</v>
-      </c>
-      <c r="K20" t="n">
-        <v>14.28571428571374</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.072</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5100000000000025</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-49.99999999999834</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.075</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>4.069999999999999</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.02000000000000046</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5400000000000018</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4.074</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>4.068999999999998</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.02000000000000046</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5400000000000018</v>
-      </c>
-      <c r="K23" t="n">
-        <v>66.66666666666518</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.074</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>4.071999999999997</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5800000000000018</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-11.11111111111177</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.074</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>4.070499999999997</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5800000000000018</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-11.11111111111177</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.073</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>4.069999999999998</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.02000000000000046</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6200000000000019</v>
-      </c>
-      <c r="K26" t="n">
-        <v>23.07692307692244</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.076000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>4.073999999999997</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6400000000000015</v>
-      </c>
-      <c r="K27" t="n">
-        <v>6.666666666666508</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.077</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>4.074999999999998</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6400000000000015</v>
-      </c>
-      <c r="K28" t="n">
-        <v>6.666666666666508</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4.078</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>4.076499999999998</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6400000000000015</v>
-      </c>
-      <c r="K29" t="n">
-        <v>14.28571428571465</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>4.077499999999997</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6600000000000019</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-6.666666666667139</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>4.075499999999997</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6600000000000019</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.078</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>4.076499999999998</v>
-      </c>
-      <c r="N31" t="n">
-        <v>4.072666666666666</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6800000000000024</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-14.28571428571392</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>4.074999999999998</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4.071333333333332</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>4.072999999999998</v>
-      </c>
-      <c r="N33" t="n">
-        <v>4.071999999999998</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.7100000000000026</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-7.692307692307482</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4.071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>4.072499999999997</v>
-      </c>
-      <c r="N34" t="n">
-        <v>4.070666666666665</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.7400000000000029</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-16.66666666666617</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.072999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>4.072999999999998</v>
-      </c>
-      <c r="N35" t="n">
-        <v>4.070999999999998</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.7500000000000027</v>
-      </c>
-      <c r="K36" t="n">
-        <v>9.090909090908797</v>
-      </c>
-      <c r="L36" t="n">
-        <v>4.071999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>4.073999999999998</v>
-      </c>
-      <c r="N36" t="n">
-        <v>4.073333333333331</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.7800000000000029</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-14.28571428571447</v>
-      </c>
-      <c r="L37" t="n">
-        <v>4.069999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>4.073499999999998</v>
-      </c>
-      <c r="N37" t="n">
-        <v>4.073333333333331</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7900000000000027</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4.066999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>4.072499999999998</v>
-      </c>
-      <c r="N38" t="n">
-        <v>4.073333333333331</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.8000000000000025</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-14.28571428571392</v>
-      </c>
-      <c r="L39" t="n">
-        <v>4.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>4.070999999999998</v>
-      </c>
-      <c r="N39" t="n">
-        <v>4.072666666666665</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.8200000000000021</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>4.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>4.070999999999998</v>
-      </c>
-      <c r="N40" t="n">
-        <v>4.071333333333332</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.8300000000000018</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-20.00000000000024</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4.061999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>4.069999999999998</v>
-      </c>
-      <c r="N41" t="n">
-        <v>4.071666666666665</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.8500000000000014</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-19.99999999999976</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.056999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>4.066499999999998</v>
-      </c>
-      <c r="N42" t="n">
-        <v>4.068999999999998</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.870000000000001</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.055999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>4.063999999999998</v>
-      </c>
-      <c r="N43" t="n">
-        <v>4.067333333333332</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.870000000000001</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-23.0769230769236</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.055999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>4.063499999999998</v>
-      </c>
-      <c r="N44" t="n">
-        <v>4.066999999999998</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.870000000000001</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-33.33333333333383</v>
-      </c>
-      <c r="L45" t="n">
-        <v>4.052999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>4.062999999999997</v>
-      </c>
-      <c r="N45" t="n">
-        <v>4.066333333333332</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.8800000000000008</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L46" t="n">
-        <v>4.047999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>4.059999999999998</v>
-      </c>
-      <c r="N46" t="n">
-        <v>4.065333333333331</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.8800000000000008</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L47" t="n">
-        <v>4.045999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>4.057999999999998</v>
-      </c>
-      <c r="N47" t="n">
-        <v>4.064333333333332</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2689,31 +2061,19 @@
         <v>4.069999999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.08000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.8800000000000008</v>
+        <v>4.04</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>4.044999999999999</v>
-      </c>
+        <v>4.04</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>4.055999999999999</v>
-      </c>
-      <c r="N48" t="n">
-        <v>4.063333333333332</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,31 +2100,23 @@
         <v>4.068999999999998</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.08000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.8800000000000008</v>
+        <v>4.04</v>
       </c>
       <c r="K49" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L49" t="n">
-        <v>4.044999999999999</v>
+        <v>4.04</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>4.053999999999999</v>
-      </c>
-      <c r="N49" t="n">
-        <v>4.062333333333331</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2791,31 +2143,23 @@
         <v>4.067499999999998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.08000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8800000000000008</v>
+        <v>4.04</v>
       </c>
       <c r="K50" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.042999999999998</v>
+        <v>4.04</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>4.052999999999999</v>
-      </c>
-      <c r="N50" t="n">
-        <v>4.061666666666665</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2842,31 +2186,19 @@
         <v>4.065833333333332</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.08999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.8900000000000006</v>
+        <v>4.03</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>4.040999999999999</v>
-      </c>
+        <v>4.03</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>4.051499999999999</v>
-      </c>
-      <c r="N51" t="n">
-        <v>4.060333333333332</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2893,31 +2225,23 @@
         <v>4.064999999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.0600000000000005</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9199999999999999</v>
+        <v>4.05</v>
       </c>
       <c r="K52" t="n">
-        <v>20</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4.043999999999999</v>
+        <v>4.03</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>4.0505</v>
-      </c>
-      <c r="N52" t="n">
-        <v>4.058999999999998</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,31 +2268,23 @@
         <v>4.063833333333331</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.07000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9299999999999997</v>
+        <v>4.05</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.043999999999999</v>
+        <v>4.03</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>4.049999999999999</v>
-      </c>
-      <c r="N53" t="n">
-        <v>4.057333333333331</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,32 +2314,16 @@
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.08000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9399999999999995</v>
+        <v>4.04</v>
       </c>
       <c r="K54" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L54" t="n">
-        <v>4.042999999999999</v>
-      </c>
+        <v>4.04</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>4.0495</v>
-      </c>
-      <c r="N54" t="n">
-        <v>4.056666666666666</v>
-      </c>
-      <c r="O54" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3053,36 +2353,20 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.07000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9499999999999993</v>
+        <v>4.05</v>
       </c>
       <c r="K55" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4.042999999999999</v>
+        <v>4.04</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>4.048</v>
-      </c>
-      <c r="N55" t="n">
-        <v>4.056333333333332</v>
-      </c>
-      <c r="O55" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q55" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3109,37 +2393,23 @@
         <v>4.061833333333332</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.07000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9499999999999993</v>
+        <v>4.05</v>
       </c>
       <c r="K56" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4.043999999999999</v>
+        <v>4.04</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>4.045999999999999</v>
-      </c>
-      <c r="N56" t="n">
-        <v>4.054666666666665</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q56" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3166,37 +2436,19 @@
         <v>4.061666666666666</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.07000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9499999999999993</v>
+        <v>4.05</v>
       </c>
       <c r="K57" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.044999999999999</v>
-      </c>
+        <v>4.05</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>4.045499999999999</v>
-      </c>
-      <c r="N57" t="n">
-        <v>4.053666666666666</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q57" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3226,36 +2478,20 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.07000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9499999999999993</v>
+        <v>4.05</v>
       </c>
       <c r="K58" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4.045999999999998</v>
+        <v>4.05</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>4.045499999999999</v>
-      </c>
-      <c r="N58" t="n">
-        <v>4.052666666666665</v>
-      </c>
-      <c r="O58" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q58" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3282,37 +2518,23 @@
         <v>4.061499999999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.07000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9499999999999993</v>
+        <v>4.05</v>
       </c>
       <c r="K59" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.046999999999999</v>
+        <v>4.05</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>4.045999999999998</v>
-      </c>
-      <c r="N59" t="n">
-        <v>4.051666666666665</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q59" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3339,37 +2561,23 @@
         <v>4.062499999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.03000000000000025</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9899999999999993</v>
+        <v>4.06</v>
       </c>
       <c r="K60" t="n">
-        <v>60.00000000000036</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4.051999999999999</v>
+        <v>4.05</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>4.047499999999999</v>
-      </c>
-      <c r="N60" t="n">
-        <v>4.052666666666665</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q60" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3396,37 +2604,23 @@
         <v>4.063166666666666</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.03000000000000025</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9899999999999993</v>
+        <v>4.09</v>
       </c>
       <c r="K61" t="n">
-        <v>42.85714285714358</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.057999999999998</v>
+        <v>4.05</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>4.049499999999999</v>
-      </c>
-      <c r="N61" t="n">
-        <v>4.053666666666666</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q61" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3453,39 +2647,21 @@
         <v>4.062833333333332</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.02000000000000046</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.9999999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>71.4285714285718</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4.061999999999999</v>
+        <v>4.05</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>4.052999999999999</v>
-      </c>
-      <c r="N62" t="n">
-        <v>4.054333333333331</v>
-      </c>
-      <c r="O62" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q62" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3512,39 +2688,21 @@
         <v>4.063166666666666</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1.039999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>19.99999999999964</v>
-      </c>
-      <c r="L63" t="n">
-        <v>4.062999999999999</v>
+        <v>4.05</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>4.053499999999999</v>
-      </c>
-      <c r="N63" t="n">
-        <v>4.054333333333331</v>
-      </c>
-      <c r="O63" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q63" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3571,35 +2729,21 @@
         <v>4.062833333333332</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>20.00000000000036</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.065999999999999</v>
+        <v>4.05</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>4.054499999999999</v>
-      </c>
-      <c r="N64" t="n">
-        <v>4.054999999999999</v>
-      </c>
-      <c r="O64" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3626,39 +2770,21 @@
         <v>4.063166666666666</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1.069999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.069999999999999</v>
+        <v>4.05</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>4.0565</v>
-      </c>
-      <c r="N65" t="n">
-        <v>4.055333333333333</v>
-      </c>
-      <c r="O65" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q65" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3685,39 +2811,21 @@
         <v>4.063999999999998</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1.089999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>14.28571428571465</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4.071999999999999</v>
+        <v>4.05</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>4.057999999999999</v>
-      </c>
-      <c r="N66" t="n">
-        <v>4.054666666666665</v>
-      </c>
-      <c r="O66" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q66" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,39 +2852,21 @@
         <v>4.064333333333332</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1.099999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>20.00000000000024</v>
-      </c>
-      <c r="L67" t="n">
-        <v>4.074999999999999</v>
+        <v>4.05</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>4.059999999999999</v>
-      </c>
-      <c r="N67" t="n">
-        <v>4.055333333333332</v>
-      </c>
-      <c r="O67" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q67" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3806,34 +2896,18 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1.109999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>25.00000000000014</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4.078999999999999</v>
+        <v>4.05</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>4.062499999999998</v>
-      </c>
-      <c r="N68" t="n">
-        <v>4.056666666666666</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q68" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3863,34 +2937,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1.119999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>-7.692307692307587</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4.081999999999999</v>
+        <v>4.05</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>4.064499999999998</v>
-      </c>
-      <c r="N69" t="n">
-        <v>4.057999999999998</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q69" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3920,34 +2978,18 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1.129999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>-14.28571428571411</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>4.065999999999997</v>
-      </c>
-      <c r="N70" t="n">
-        <v>4.058333333333332</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q70" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3977,32 +3019,18 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1.149999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L71" t="n">
-        <v>4.075999999999999</v>
+        <v>4.05</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>4.066999999999998</v>
-      </c>
-      <c r="N71" t="n">
-        <v>4.058333333333332</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="n">
-        <v>4.201</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4032,34 +3060,18 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1.159999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>-16.66666666666642</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4.069999999999999</v>
+        <v>4.05</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>4.065999999999997</v>
-      </c>
-      <c r="N72" t="n">
-        <v>4.058666666666665</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,34 +3101,18 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1.169999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>-16.66666666666729</v>
-      </c>
-      <c r="L73" t="n">
-        <v>4.068999999999998</v>
+        <v>4.05</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>4.065999999999997</v>
-      </c>
-      <c r="N73" t="n">
-        <v>4.058666666666665</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4146,34 +3142,18 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1.169999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>-40.00000000000053</v>
-      </c>
-      <c r="L74" t="n">
-        <v>4.066999999999998</v>
+        <v>4.05</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>4.066499999999997</v>
-      </c>
-      <c r="N74" t="n">
-        <v>4.058666666666665</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4203,34 +3183,18 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1.179999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>-33.33333333333399</v>
-      </c>
-      <c r="L75" t="n">
-        <v>4.061999999999998</v>
+        <v>4.05</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>4.065999999999997</v>
-      </c>
-      <c r="N75" t="n">
-        <v>4.058333333333332</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4260,34 +3224,18 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1.179999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>-50.00000000000055</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4.058999999999997</v>
+        <v>4.05</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>4.065499999999998</v>
-      </c>
-      <c r="N76" t="n">
-        <v>4.058333333333332</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,37 +3262,23 @@
         <v>4.061999999999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.219999999999998</v>
+        <v>4.08</v>
       </c>
       <c r="K77" t="n">
-        <v>-9.090909090908944</v>
-      </c>
-      <c r="L77" t="n">
-        <v>4.058999999999997</v>
+        <v>4.05</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>4.066999999999998</v>
-      </c>
-      <c r="N77" t="n">
-        <v>4.059666666666665</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4371,37 +3305,23 @@
         <v>4.061333333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.08999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.269999999999998</v>
+        <v>4.03</v>
       </c>
       <c r="K78" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.052999999999997</v>
+        <v>4.05</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>4.065999999999998</v>
-      </c>
-      <c r="N78" t="n">
-        <v>4.059333333333331</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4431,34 +3351,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1.269999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>-28.57142857142867</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.047999999999997</v>
+        <v>4.05</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>4.064999999999999</v>
-      </c>
-      <c r="N79" t="n">
-        <v>4.058999999999998</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4485,37 +3389,23 @@
         <v>4.061166666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.03000000000000025</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1.329999999999997</v>
+        <v>4.09</v>
       </c>
       <c r="K80" t="n">
-        <v>22.22222222222239</v>
-      </c>
-      <c r="L80" t="n">
-        <v>4.049999999999998</v>
+        <v>4.05</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>4.064999999999999</v>
-      </c>
-      <c r="N80" t="n">
-        <v>4.060666666666664</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,37 +3432,23 @@
         <v>4.061666666666667</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.02000000000000046</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1.339999999999997</v>
+        <v>4.1</v>
       </c>
       <c r="K81" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L81" t="n">
-        <v>4.054999999999998</v>
+        <v>4.05</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>4.065499999999998</v>
-      </c>
-      <c r="N81" t="n">
-        <v>4.062999999999998</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4602,34 +3478,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1.349999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>22.22222222222239</v>
-      </c>
-      <c r="L82" t="n">
-        <v>4.059999999999999</v>
+        <v>4.05</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>4.064999999999999</v>
-      </c>
-      <c r="N82" t="n">
-        <v>4.063999999999997</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4659,34 +3519,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1.379999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>4.761904761904681</v>
-      </c>
-      <c r="L83" t="n">
-        <v>4.060999999999999</v>
+        <v>4.05</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>4.064999999999999</v>
-      </c>
-      <c r="N83" t="n">
-        <v>4.064333333333331</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4716,35 +3560,19 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1.379999999999997</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>9.999999999999822</v>
-      </c>
-      <c r="L84" t="n">
-        <v>4.061999999999999</v>
+        <v>4.05</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>4.064499999999998</v>
-      </c>
-      <c r="N84" t="n">
-        <v>4.064999999999998</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S84" t="n">
-        <v>1</v>
+        <v>0.9974691358024691</v>
       </c>
     </row>
     <row r="85">
@@ -4773,34 +3601,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1.389999999999997</v>
-      </c>
-      <c r="K85" t="n">
-        <v>4.761904761904681</v>
-      </c>
-      <c r="L85" t="n">
-        <v>4.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>4.062499999999998</v>
-      </c>
-      <c r="N85" t="n">
-        <v>4.064999999999998</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4830,34 +3636,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1.389999999999997</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-17.64705882352966</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4.063999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>4.061499999999998</v>
-      </c>
-      <c r="N86" t="n">
-        <v>4.064999999999998</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4887,34 +3671,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1.429999999999997</v>
-      </c>
-      <c r="K87" t="n">
-        <v>37.49999999999993</v>
-      </c>
-      <c r="L87" t="n">
-        <v>4.065</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>4.061999999999999</v>
-      </c>
-      <c r="N87" t="n">
-        <v>4.066333333333331</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,34 +3706,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1.449999999999998</v>
-      </c>
-      <c r="K88" t="n">
-        <v>44.44444444444456</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.072999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>4.062999999999998</v>
-      </c>
-      <c r="N88" t="n">
-        <v>4.068333333333332</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5001,35 +3741,13 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1.449999999999998</v>
-      </c>
-      <c r="K89" t="n">
-        <v>16.66666666666704</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4.080999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>4.064499999999998</v>
-      </c>
-      <c r="N89" t="n">
-        <v>4.070333333333331</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="n">
-        <v>4.059</v>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="S89" t="n">
-        <v>0.9903190440995319</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -5058,28 +3776,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1.449999999999998</v>
-      </c>
-      <c r="K90" t="n">
-        <v>9.090909090909678</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.082999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>4.066499999999998</v>
-      </c>
-      <c r="N90" t="n">
-        <v>4.070999999999998</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5109,28 +3811,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1.449999999999998</v>
-      </c>
-      <c r="K91" t="n">
-        <v>20.00000000000036</v>
-      </c>
-      <c r="L91" t="n">
-        <v>4.083999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>4.069499999999998</v>
-      </c>
-      <c r="N91" t="n">
-        <v>4.071666666666665</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5160,28 +3846,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1.449999999999998</v>
-      </c>
-      <c r="K92" t="n">
-        <v>71.42857142857216</v>
-      </c>
-      <c r="L92" t="n">
-        <v>4.085999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>4.072999999999998</v>
-      </c>
-      <c r="N92" t="n">
-        <v>4.071999999999998</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5211,28 +3881,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.449999999999998</v>
-      </c>
-      <c r="K93" t="n">
-        <v>71.42857142857216</v>
-      </c>
-      <c r="L93" t="n">
-        <v>4.090999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>4.075999999999998</v>
-      </c>
-      <c r="N93" t="n">
-        <v>4.073666666666664</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5262,28 +3916,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.02000000000000046</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1.459999999999998</v>
-      </c>
-      <c r="K94" t="n">
-        <v>71.42857142856998</v>
-      </c>
-      <c r="L94" t="n">
-        <v>4.094999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>4.078499999999997</v>
-      </c>
-      <c r="N94" t="n">
-        <v>4.074666666666664</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,28 +3951,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1.489999999999998</v>
-      </c>
-      <c r="K95" t="n">
-        <v>20.00000000000036</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.096999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>4.079999999999997</v>
-      </c>
-      <c r="N95" t="n">
-        <v>4.073999999999997</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,28 +3986,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1.489999999999998</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-33.33333333333235</v>
-      </c>
-      <c r="L96" t="n">
-        <v>4.098999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>4.081499999999997</v>
-      </c>
-      <c r="N96" t="n">
-        <v>4.073999999999997</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5415,28 +4021,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1.509999999999998</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.094999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>4.079999999999997</v>
-      </c>
-      <c r="N97" t="n">
-        <v>4.072999999999997</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5466,28 +4056,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.02000000000000046</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1.559999999999998</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-9.090909090909678</v>
-      </c>
-      <c r="L98" t="n">
-        <v>4.093999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>4.083499999999997</v>
-      </c>
-      <c r="N98" t="n">
-        <v>4.07333333333333</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5517,28 +4091,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1.579999999999997</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-23.07692307692329</v>
-      </c>
-      <c r="L99" t="n">
-        <v>4.090999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>4.085999999999997</v>
-      </c>
-      <c r="N99" t="n">
-        <v>4.07333333333333</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5568,28 +4126,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1.579999999999997</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-23.07692307692329</v>
-      </c>
-      <c r="L100" t="n">
-        <v>4.087999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>4.085499999999997</v>
-      </c>
-      <c r="N100" t="n">
-        <v>4.073666666666663</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5619,28 +4161,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.02000000000000046</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1.599999999999997</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-6.666666666667139</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.086999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>4.085499999999997</v>
-      </c>
-      <c r="N101" t="n">
-        <v>4.075333333333329</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5670,28 +4196,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1.629999999999996</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-22.22222222222239</v>
-      </c>
-      <c r="L102" t="n">
-        <v>4.082999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>4.084499999999997</v>
-      </c>
-      <c r="N102" t="n">
-        <v>4.07633333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5721,28 +4231,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1.639999999999997</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-22.22222222222239</v>
-      </c>
-      <c r="L103" t="n">
-        <v>4.077999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>4.084499999999997</v>
-      </c>
-      <c r="N103" t="n">
-        <v>4.076666666666664</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5772,28 +4266,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1.639999999999997</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-6.666666666667139</v>
-      </c>
-      <c r="L104" t="n">
-        <v>4.074</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>4.084499999999997</v>
-      </c>
-      <c r="N104" t="n">
-        <v>4.076999999999996</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5823,28 +4301,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1.639999999999997</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-6.666666666667139</v>
-      </c>
-      <c r="L105" t="n">
-        <v>4.073</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>4.084999999999997</v>
-      </c>
-      <c r="N105" t="n">
-        <v>4.077666666666663</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5874,1099 +4336,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1.659999999999997</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-6.666666666666588</v>
-      </c>
-      <c r="L106" t="n">
-        <v>4.069999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>4.084499999999998</v>
-      </c>
-      <c r="N106" t="n">
-        <v>4.077666666666663</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C107" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="D107" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E107" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="F107" t="n">
-        <v>9760</v>
-      </c>
-      <c r="G107" t="n">
-        <v>4.067666666666667</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>-0.1000000000000005</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1.679999999999997</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-66.66666666666717</v>
-      </c>
-      <c r="L107" t="n">
-        <v>4.067</v>
-      </c>
-      <c r="M107" t="n">
-        <v>4.080999999999998</v>
-      </c>
-      <c r="N107" t="n">
-        <v>4.075666666666663</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C108" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D108" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E108" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F108" t="n">
-        <v>10</v>
-      </c>
-      <c r="G108" t="n">
-        <v>4.068333333333333</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1.739999999999998</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>4.065</v>
-      </c>
-      <c r="M108" t="n">
-        <v>4.079499999999998</v>
-      </c>
-      <c r="N108" t="n">
-        <v>4.07733333333333</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C109" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D109" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E109" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F109" t="n">
-        <v>28.4313</v>
-      </c>
-      <c r="G109" t="n">
-        <v>4.069000000000001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1.739999999999998</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>4.065</v>
-      </c>
-      <c r="M109" t="n">
-        <v>4.077999999999998</v>
-      </c>
-      <c r="N109" t="n">
-        <v>4.078999999999996</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C110" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D110" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E110" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F110" t="n">
-        <v>45</v>
-      </c>
-      <c r="G110" t="n">
-        <v>4.069666666666667</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1.739999999999998</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-14.28571428571392</v>
-      </c>
-      <c r="L110" t="n">
-        <v>4.065</v>
-      </c>
-      <c r="M110" t="n">
-        <v>4.076499999999998</v>
-      </c>
-      <c r="N110" t="n">
-        <v>4.078666666666662</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C111" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D111" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E111" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F111" t="n">
-        <v>4176.9041</v>
-      </c>
-      <c r="G111" t="n">
-        <v>4.070333333333334</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1.749999999999997</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>4.061999999999999</v>
-      </c>
-      <c r="M111" t="n">
-        <v>4.074499999999997</v>
-      </c>
-      <c r="N111" t="n">
-        <v>4.077666666666663</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C112" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D112" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E112" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F112" t="n">
-        <v>32596.5601</v>
-      </c>
-      <c r="G112" t="n">
-        <v>4.070500000000001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1.749999999999997</v>
-      </c>
-      <c r="K112" t="n">
-        <v>9.090909090909678</v>
-      </c>
-      <c r="L112" t="n">
-        <v>4.061999999999999</v>
-      </c>
-      <c r="M112" t="n">
-        <v>4.072499999999997</v>
-      </c>
-      <c r="N112" t="n">
-        <v>4.076999999999996</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C113" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D113" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E113" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F113" t="n">
-        <v>13179.6068</v>
-      </c>
-      <c r="G113" t="n">
-        <v>4.070833333333334</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1.749999999999997</v>
-      </c>
-      <c r="K113" t="n">
-        <v>9.090909090909678</v>
-      </c>
-      <c r="L113" t="n">
-        <v>4.063</v>
-      </c>
-      <c r="M113" t="n">
-        <v>4.070499999999997</v>
-      </c>
-      <c r="N113" t="n">
-        <v>4.077333333333329</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C114" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D114" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E114" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F114" t="n">
-        <v>219773.831</v>
-      </c>
-      <c r="G114" t="n">
-        <v>4.071000000000001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J114" t="n">
-        <v>1.769999999999998</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-7.692307692307482</v>
-      </c>
-      <c r="L114" t="n">
-        <v>4.061999999999999</v>
-      </c>
-      <c r="M114" t="n">
-        <v>4.067999999999998</v>
-      </c>
-      <c r="N114" t="n">
-        <v>4.076999999999996</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C115" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D115" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E115" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F115" t="n">
-        <v>172469.6123</v>
-      </c>
-      <c r="G115" t="n">
-        <v>4.070833333333334</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J115" t="n">
-        <v>1.779999999999998</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>4.059999999999999</v>
-      </c>
-      <c r="M115" t="n">
-        <v>4.066499999999998</v>
-      </c>
-      <c r="N115" t="n">
-        <v>4.076666666666663</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C116" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D116" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E116" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F116" t="n">
-        <v>20</v>
-      </c>
-      <c r="G116" t="n">
-        <v>4.071166666666667</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1.809999999999998</v>
-      </c>
-      <c r="K116" t="n">
-        <v>38.46153846153877</v>
-      </c>
-      <c r="L116" t="n">
-        <v>4.062999999999999</v>
-      </c>
-      <c r="M116" t="n">
-        <v>4.066499999999998</v>
-      </c>
-      <c r="N116" t="n">
-        <v>4.07733333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C117" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D117" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E117" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F117" t="n">
-        <v>80</v>
-      </c>
-      <c r="G117" t="n">
-        <v>4.071499999999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1.809999999999998</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-14.28571428571392</v>
-      </c>
-      <c r="L117" t="n">
-        <v>4.068</v>
-      </c>
-      <c r="M117" t="n">
-        <v>4.067499999999997</v>
-      </c>
-      <c r="N117" t="n">
-        <v>4.076666666666664</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C118" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D118" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E118" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F118" t="n">
-        <v>182.1965</v>
-      </c>
-      <c r="G118" t="n">
-        <v>4.071833333333333</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1.809999999999998</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-14.28571428571392</v>
-      </c>
-      <c r="L118" t="n">
-        <v>4.066999999999999</v>
-      </c>
-      <c r="M118" t="n">
-        <v>4.065999999999998</v>
-      </c>
-      <c r="N118" t="n">
-        <v>4.075333333333329</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C119" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D119" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E119" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F119" t="n">
-        <v>39966.5372</v>
-      </c>
-      <c r="G119" t="n">
-        <v>4.071666666666666</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1.839999999999998</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L119" t="n">
-        <v>4.063</v>
-      </c>
-      <c r="M119" t="n">
-        <v>4.063999999999998</v>
-      </c>
-      <c r="N119" t="n">
-        <v>4.072999999999997</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C120" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D120" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E120" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F120" t="n">
-        <v>10</v>
-      </c>
-      <c r="G120" t="n">
-        <v>4.071333333333333</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1.869999999999998</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>4.061999999999999</v>
-      </c>
-      <c r="M120" t="n">
-        <v>4.063499999999999</v>
-      </c>
-      <c r="N120" t="n">
-        <v>4.071666666666664</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C121" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D121" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E121" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1383.4285</v>
-      </c>
-      <c r="G121" t="n">
-        <v>4.070999999999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1.869999999999998</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>4.061999999999999</v>
-      </c>
-      <c r="M121" t="n">
-        <v>4.061999999999999</v>
-      </c>
-      <c r="N121" t="n">
-        <v>4.07033333333333</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="C122" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="D122" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="E122" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F122" t="n">
-        <v>6423.3785</v>
-      </c>
-      <c r="G122" t="n">
-        <v>4.069833333333333</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J122" t="n">
-        <v>1.909999999999998</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-24.99999999999986</v>
-      </c>
-      <c r="L122" t="n">
-        <v>4.058</v>
-      </c>
-      <c r="M122" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="N122" t="n">
-        <v>4.067666666666664</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C123" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D123" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E123" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F123" t="n">
-        <v>10</v>
-      </c>
-      <c r="G123" t="n">
-        <v>4.069999999999999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J123" t="n">
-        <v>1.949999999999998</v>
-      </c>
-      <c r="K123" t="n">
-        <v>11.11111111111133</v>
-      </c>
-      <c r="L123" t="n">
-        <v>4.058</v>
-      </c>
-      <c r="M123" t="n">
-        <v>4.060499999999999</v>
-      </c>
-      <c r="N123" t="n">
-        <v>4.06633333333333</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C124" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D124" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E124" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G124" t="n">
-        <v>4.069999999999999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1.949999999999998</v>
-      </c>
-      <c r="K124" t="n">
-        <v>17.64705882352947</v>
-      </c>
-      <c r="L124" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="M124" t="n">
-        <v>4.060999999999998</v>
-      </c>
-      <c r="N124" t="n">
-        <v>4.065333333333331</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C125" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D125" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E125" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F125" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G125" t="n">
-        <v>4.069499999999999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J125" t="n">
-        <v>1.959999999999999</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-6.666666666667062</v>
-      </c>
-      <c r="L125" t="n">
-        <v>4.062</v>
-      </c>
-      <c r="M125" t="n">
-        <v>4.060999999999998</v>
-      </c>
-      <c r="N125" t="n">
-        <v>4.064999999999998</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C126" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D126" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E126" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F126" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G126" t="n">
-        <v>4.069166666666666</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1.969999999999999</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-12.50000000000021</v>
-      </c>
-      <c r="L126" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="M126" t="n">
-        <v>4.061499999999998</v>
-      </c>
-      <c r="N126" t="n">
-        <v>4.064333333333331</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C127" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D127" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E127" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F127" t="n">
-        <v>108298.5815</v>
-      </c>
-      <c r="G127" t="n">
-        <v>4.068499999999998</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J127" t="n">
-        <v>1.979999999999999</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-17.64705882352947</v>
-      </c>
-      <c r="L127" t="n">
-        <v>4.057</v>
-      </c>
-      <c r="M127" t="n">
-        <v>4.062499999999998</v>
-      </c>
-      <c r="N127" t="n">
-        <v>4.063999999999997</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest XVG.xlsx
+++ b/BackTest/2019-10-19 BackTest XVG.xlsx
@@ -2061,17 +2061,13 @@
         <v>4.069999999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K48" t="n">
-        <v>4.04</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
@@ -2100,526 +2096,452 @@
         <v>4.068999999999998</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K49" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4.067499999999998</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F51" t="n">
+        <v>12723.4851</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4.065833333333332</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4.064999999999999</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4.063833333333331</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2547.2239</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4.062833333333332</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3051.358</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4.061999999999999</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1520.8073</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4.061833333333332</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F57" t="n">
+        <v>79.1927</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4.061666666666666</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9558.4884</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4.061499999999999</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F59" t="n">
+        <v>30041.5116</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4.061499999999999</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F60" t="n">
+        <v>66132.1118</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4.062499999999999</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K60" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C50" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D50" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E50" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F50" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G50" t="n">
-        <v>4.067499999999998</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F61" t="n">
+        <v>24061.5004</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4.063166666666666</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="C51" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="D51" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="E51" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F51" t="n">
-        <v>12723.4851</v>
-      </c>
-      <c r="G51" t="n">
-        <v>4.065833333333332</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="K51" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C52" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D52" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E52" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F52" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G52" t="n">
-        <v>4.064999999999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D53" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F53" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G53" t="n">
-        <v>4.063833333333331</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K53" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C54" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D54" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E54" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2547.2239</v>
-      </c>
-      <c r="G54" t="n">
-        <v>4.062833333333332</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K54" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3051.358</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4.061999999999999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1520.8073</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4.061833333333332</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F57" t="n">
-        <v>79.1927</v>
-      </c>
-      <c r="G57" t="n">
-        <v>4.061666666666666</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K57" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F58" t="n">
-        <v>9558.4884</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4.061499999999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C59" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D59" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E59" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F59" t="n">
-        <v>30041.5116</v>
-      </c>
-      <c r="G59" t="n">
-        <v>4.061499999999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F60" t="n">
-        <v>66132.1118</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4.062499999999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="D61" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="E61" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="F61" t="n">
-        <v>24061.5004</v>
-      </c>
-      <c r="G61" t="n">
-        <v>4.063166666666666</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="K61" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2653,14 +2575,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2694,14 +2610,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2735,14 +2645,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2776,14 +2680,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2817,14 +2715,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2858,14 +2750,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2899,14 +2785,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2940,14 +2820,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2981,14 +2855,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3022,14 +2890,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3063,14 +2925,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3104,14 +2960,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3145,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3186,14 +3030,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3227,14 +3065,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3262,22 +3094,14 @@
         <v>4.061999999999999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="K77" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3305,22 +3129,14 @@
         <v>4.061333333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="K78" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3354,14 +3170,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3389,22 +3199,14 @@
         <v>4.061166666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="K80" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3432,22 +3234,14 @@
         <v>4.061666666666667</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K81" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3481,14 +3275,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3519,17 +3307,11 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3560,19 +3342,13 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>0.9974691358024691</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3671,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3706,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3741,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3846,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest XVG.xlsx
+++ b/BackTest/2019-10-19 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="C2" t="n">
-        <v>4.12</v>
+        <v>4.05</v>
       </c>
       <c r="D2" t="n">
-        <v>4.12</v>
+        <v>4.08</v>
       </c>
       <c r="E2" t="n">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="F2" t="n">
-        <v>308548.184</v>
+        <v>101249.9753</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088333333333332</v>
+        <v>4.086999999999998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>4.04</v>
+        <v>4.12</v>
       </c>
       <c r="D3" t="n">
-        <v>4.04</v>
+        <v>4.12</v>
       </c>
       <c r="E3" t="n">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="F3" t="n">
-        <v>24.6295</v>
+        <v>308548.184</v>
       </c>
       <c r="G3" t="n">
-        <v>4.088499999999998</v>
+        <v>4.088333333333332</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="D4" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="E4" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="F4" t="n">
-        <v>4505.3545</v>
+        <v>24.6295</v>
       </c>
       <c r="G4" t="n">
         <v>4.088499999999998</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="C5" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="D5" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="E5" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="F5" t="n">
-        <v>82606</v>
+        <v>4505.3545</v>
       </c>
       <c r="G5" t="n">
-        <v>4.087999999999998</v>
+        <v>4.088499999999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="C6" t="n">
-        <v>4.02</v>
+        <v>4.07</v>
       </c>
       <c r="D6" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="E6" t="n">
-        <v>4.02</v>
+        <v>4.07</v>
       </c>
       <c r="F6" t="n">
-        <v>448792.6511</v>
+        <v>82606</v>
       </c>
       <c r="G6" t="n">
-        <v>4.086666666666665</v>
+        <v>4.087999999999998</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C7" t="n">
-        <v>4.06</v>
+        <v>4.02</v>
       </c>
       <c r="D7" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="E7" t="n">
-        <v>4.06</v>
+        <v>4.02</v>
       </c>
       <c r="F7" t="n">
-        <v>134967.5665</v>
+        <v>448792.6511</v>
       </c>
       <c r="G7" t="n">
-        <v>4.085999999999999</v>
+        <v>4.086666666666665</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="C8" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D8" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="E8" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F8" t="n">
-        <v>248.0726</v>
+        <v>134967.5665</v>
       </c>
       <c r="G8" t="n">
-        <v>4.084499999999999</v>
+        <v>4.085999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C9" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="D9" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="E9" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="F9" t="n">
-        <v>66328.8177</v>
+        <v>248.0726</v>
       </c>
       <c r="G9" t="n">
-        <v>4.083166666666666</v>
+        <v>4.084499999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C10" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="D10" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="E10" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="F10" t="n">
-        <v>5000</v>
+        <v>66328.8177</v>
       </c>
       <c r="G10" t="n">
-        <v>4.084166666666666</v>
+        <v>4.083166666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="C11" t="n">
-        <v>4.04</v>
+        <v>4.1</v>
       </c>
       <c r="D11" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="E11" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="F11" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G11" t="n">
-        <v>4.082999999999999</v>
+        <v>4.084166666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="C12" t="n">
-        <v>4.11</v>
+        <v>4.04</v>
       </c>
       <c r="D12" t="n">
-        <v>4.11</v>
+        <v>4.05</v>
       </c>
       <c r="E12" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="F12" t="n">
-        <v>17471.2255</v>
+        <v>10000</v>
       </c>
       <c r="G12" t="n">
         <v>4.082999999999999</v>
@@ -818,19 +818,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.1</v>
+        <v>4.03</v>
       </c>
       <c r="C13" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="D13" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="E13" t="n">
-        <v>4.1</v>
+        <v>4.03</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3087</v>
+        <v>17471.2255</v>
       </c>
       <c r="G13" t="n">
         <v>4.082999999999999</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="C14" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="D14" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="E14" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="F14" t="n">
-        <v>5000</v>
+        <v>0.3087</v>
       </c>
       <c r="G14" t="n">
-        <v>4.082166666666665</v>
+        <v>4.082999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="C15" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="D15" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="E15" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F15" t="n">
-        <v>72524</v>
+        <v>5000</v>
       </c>
       <c r="G15" t="n">
-        <v>4.081499999999998</v>
+        <v>4.082166666666665</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>4.07</v>
       </c>
       <c r="F16" t="n">
-        <v>132725.6314</v>
+        <v>72524</v>
       </c>
       <c r="G16" t="n">
-        <v>4.080833333333332</v>
+        <v>4.081499999999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>4.07</v>
       </c>
       <c r="F17" t="n">
-        <v>1434.1523</v>
+        <v>132725.6314</v>
       </c>
       <c r="G17" t="n">
-        <v>4.080166666666664</v>
+        <v>4.080833333333332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>4.07</v>
       </c>
       <c r="F18" t="n">
-        <v>8188</v>
+        <v>1434.1523</v>
       </c>
       <c r="G18" t="n">
-        <v>4.079666666666665</v>
+        <v>4.080166666666664</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>4.07</v>
       </c>
       <c r="F19" t="n">
-        <v>22992.1393</v>
+        <v>8188</v>
       </c>
       <c r="G19" t="n">
-        <v>4.079499999999998</v>
+        <v>4.079666666666665</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>4.07</v>
       </c>
       <c r="C20" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="D20" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="E20" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="F20" t="n">
-        <v>29602</v>
+        <v>22992.1393</v>
       </c>
       <c r="G20" t="n">
-        <v>4.079333333333331</v>
+        <v>4.079499999999998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>4.07</v>
       </c>
       <c r="C21" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="D21" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="E21" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F21" t="n">
-        <v>10000</v>
+        <v>29602</v>
       </c>
       <c r="G21" t="n">
-        <v>4.078999999999997</v>
+        <v>4.079333333333331</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="C22" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="D22" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="E22" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="F22" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="G22" t="n">
-        <v>4.079166666666664</v>
+        <v>4.078999999999997</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="C23" t="n">
         <v>4.1</v>
@@ -1177,13 +1177,13 @@
         <v>4.1</v>
       </c>
       <c r="E23" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="F23" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="G23" t="n">
-        <v>4.079666666666664</v>
+        <v>4.079166666666664</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,19 +1203,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="C24" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="D24" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="E24" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="F24" t="n">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="G24" t="n">
         <v>4.079666666666664</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="C25" t="n">
         <v>4.06</v>
       </c>
       <c r="D25" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="E25" t="n">
         <v>4.06</v>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="G25" t="n">
-        <v>4.079833333333331</v>
+        <v>4.079666666666664</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="C26" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="D26" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="E26" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="F26" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G26" t="n">
-        <v>4.080499999999997</v>
+        <v>4.079833333333331</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="C27" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="D27" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="E27" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="F27" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G27" t="n">
-        <v>4.080666666666664</v>
+        <v>4.080499999999997</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1349,16 +1349,16 @@
         <v>4.08</v>
       </c>
       <c r="D28" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="E28" t="n">
         <v>4.08</v>
       </c>
       <c r="F28" t="n">
-        <v>20010</v>
+        <v>3000</v>
       </c>
       <c r="G28" t="n">
-        <v>4.080499999999997</v>
+        <v>4.080666666666664</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>4.08</v>
       </c>
       <c r="D29" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="E29" t="n">
         <v>4.08</v>
       </c>
       <c r="F29" t="n">
-        <v>9290.4411</v>
+        <v>20010</v>
       </c>
       <c r="G29" t="n">
-        <v>4.080333333333331</v>
+        <v>4.080499999999997</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,19 +1413,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="C30" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="D30" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="E30" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="F30" t="n">
-        <v>7000</v>
+        <v>9290.4411</v>
       </c>
       <c r="G30" t="n">
         <v>4.080333333333331</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="C31" t="n">
         <v>4.06</v>
       </c>
       <c r="D31" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="E31" t="n">
         <v>4.06</v>
       </c>
       <c r="F31" t="n">
-        <v>3345.6621</v>
+        <v>7000</v>
       </c>
       <c r="G31" t="n">
-        <v>4.079833333333331</v>
+        <v>4.080333333333331</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C32" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="D32" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="E32" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>3345.6621</v>
       </c>
       <c r="G32" t="n">
-        <v>4.079499999999998</v>
+        <v>4.079833333333331</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="C33" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="D33" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="E33" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="F33" t="n">
-        <v>128071.2608</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="n">
-        <v>4.078499999999997</v>
+        <v>4.079499999999998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="C34" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D34" t="n">
         <v>4.07</v>
       </c>
       <c r="E34" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F34" t="n">
-        <v>20000</v>
+        <v>128071.2608</v>
       </c>
       <c r="G34" t="n">
-        <v>4.077999999999998</v>
+        <v>4.078499999999997</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C35" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="D35" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="E35" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="F35" t="n">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="G35" t="n">
-        <v>4.078166666666664</v>
+        <v>4.077999999999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>4.08</v>
       </c>
       <c r="C36" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="D36" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="E36" t="n">
         <v>4.08</v>
       </c>
       <c r="F36" t="n">
-        <v>35000</v>
+        <v>2500</v>
       </c>
       <c r="G36" t="n">
-        <v>4.078499999999998</v>
+        <v>4.078166666666664</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="C37" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="D37" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="E37" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="F37" t="n">
-        <v>2500</v>
+        <v>35000</v>
       </c>
       <c r="G37" t="n">
-        <v>4.078166666666664</v>
+        <v>4.078499999999998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="C38" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D38" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="E38" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F38" t="n">
-        <v>24.7518</v>
+        <v>2500</v>
       </c>
       <c r="G38" t="n">
-        <v>4.077333333333332</v>
+        <v>4.078166666666664</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>4.05</v>
       </c>
       <c r="C39" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D39" t="n">
         <v>4.05</v>
       </c>
       <c r="E39" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="F39" t="n">
-        <v>14975.2482</v>
+        <v>24.7518</v>
       </c>
       <c r="G39" t="n">
-        <v>4.076333333333332</v>
+        <v>4.077333333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C40" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="D40" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="E40" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>14975.2482</v>
       </c>
       <c r="G40" t="n">
-        <v>4.075999999999998</v>
+        <v>4.076333333333332</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="C41" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D41" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="E41" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F41" t="n">
-        <v>7819.95</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="n">
-        <v>4.075499999999998</v>
+        <v>4.075999999999998</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>4.05</v>
       </c>
       <c r="C42" t="n">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="D42" t="n">
         <v>4.05</v>
       </c>
       <c r="E42" t="n">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="F42" t="n">
-        <v>20000</v>
+        <v>7819.95</v>
       </c>
       <c r="G42" t="n">
-        <v>4.074999999999998</v>
+        <v>4.075499999999998</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>4.05</v>
       </c>
       <c r="C43" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="D43" t="n">
         <v>4.05</v>
       </c>
       <c r="E43" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="F43" t="n">
-        <v>208456.6917</v>
+        <v>20000</v>
       </c>
       <c r="G43" t="n">
-        <v>4.074333333333332</v>
+        <v>4.074999999999998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>4.05</v>
       </c>
       <c r="F44" t="n">
-        <v>9975</v>
+        <v>208456.6917</v>
       </c>
       <c r="G44" t="n">
-        <v>4.073666666666665</v>
+        <v>4.074333333333332</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>4.05</v>
       </c>
       <c r="F45" t="n">
-        <v>130213.019</v>
+        <v>9975</v>
       </c>
       <c r="G45" t="n">
-        <v>4.072833333333332</v>
+        <v>4.073666666666665</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="C46" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D46" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="E46" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="F46" t="n">
-        <v>190817.7092</v>
+        <v>130213.019</v>
       </c>
       <c r="G46" t="n">
-        <v>4.072499999999999</v>
+        <v>4.072833333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>4.04</v>
       </c>
       <c r="F47" t="n">
-        <v>3489</v>
+        <v>190817.7092</v>
       </c>
       <c r="G47" t="n">
-        <v>4.071499999999999</v>
+        <v>4.072499999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>4.04</v>
       </c>
       <c r="F48" t="n">
-        <v>247.5247</v>
+        <v>3489</v>
       </c>
       <c r="G48" t="n">
-        <v>4.069999999999999</v>
+        <v>4.071499999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>4.04</v>
       </c>
       <c r="F49" t="n">
-        <v>2500</v>
+        <v>247.5247</v>
       </c>
       <c r="G49" t="n">
-        <v>4.068999999999998</v>
+        <v>4.069999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>4.04</v>
       </c>
       <c r="F50" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G50" t="n">
-        <v>4.067499999999998</v>
+        <v>4.068999999999998</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="C51" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="D51" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="E51" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="F51" t="n">
-        <v>12723.4851</v>
+        <v>5000</v>
       </c>
       <c r="G51" t="n">
-        <v>4.065833333333332</v>
+        <v>4.067499999999998</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="C52" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="D52" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="E52" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="F52" t="n">
-        <v>10000</v>
+        <v>12723.4851</v>
       </c>
       <c r="G52" t="n">
-        <v>4.064999999999999</v>
+        <v>4.065833333333332</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>4.05</v>
       </c>
       <c r="C53" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D53" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="E53" t="n">
         <v>4.05</v>
       </c>
       <c r="F53" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G53" t="n">
-        <v>4.063833333333331</v>
+        <v>4.064999999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="C54" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D54" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="E54" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="F54" t="n">
-        <v>2547.2239</v>
+        <v>5000</v>
       </c>
       <c r="G54" t="n">
-        <v>4.062833333333332</v>
+        <v>4.063833333333331</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="C55" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="D55" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="E55" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="F55" t="n">
-        <v>3051.358</v>
+        <v>2547.2239</v>
       </c>
       <c r="G55" t="n">
-        <v>4.061999999999999</v>
+        <v>4.062833333333332</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>4.05</v>
       </c>
       <c r="F56" t="n">
-        <v>1520.8073</v>
+        <v>3051.358</v>
       </c>
       <c r="G56" t="n">
-        <v>4.061833333333332</v>
+        <v>4.061999999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>4.05</v>
       </c>
       <c r="F57" t="n">
-        <v>79.1927</v>
+        <v>1520.8073</v>
       </c>
       <c r="G57" t="n">
-        <v>4.061666666666666</v>
+        <v>4.061833333333332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>4.05</v>
       </c>
       <c r="F58" t="n">
-        <v>9558.4884</v>
+        <v>79.1927</v>
       </c>
       <c r="G58" t="n">
-        <v>4.061499999999999</v>
+        <v>4.061666666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,23 +2440,19 @@
         <v>4.05</v>
       </c>
       <c r="F59" t="n">
-        <v>30041.5116</v>
+        <v>9558.4884</v>
       </c>
       <c r="G59" t="n">
         <v>4.061499999999999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4.05</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
@@ -2467,40 +2463,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C60" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="D60" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="E60" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="F60" t="n">
-        <v>66132.1118</v>
+        <v>30041.5116</v>
       </c>
       <c r="G60" t="n">
-        <v>4.062499999999999</v>
+        <v>4.061499999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2510,7 +2498,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="C61" t="n">
         <v>4.09</v>
@@ -2519,13 +2507,13 @@
         <v>4.09</v>
       </c>
       <c r="E61" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="F61" t="n">
-        <v>24061.5004</v>
+        <v>66132.1118</v>
       </c>
       <c r="G61" t="n">
-        <v>4.063166666666666</v>
+        <v>4.062499999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2534,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2554,19 +2536,19 @@
         <v>4.09</v>
       </c>
       <c r="C62" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="D62" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="E62" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="F62" t="n">
-        <v>30424.6919</v>
+        <v>24061.5004</v>
       </c>
       <c r="G62" t="n">
-        <v>4.062833333333332</v>
+        <v>4.063166666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2586,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="C63" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="D63" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="E63" t="n">
         <v>4.06</v>
       </c>
       <c r="F63" t="n">
-        <v>1931.6959</v>
+        <v>30424.6919</v>
       </c>
       <c r="G63" t="n">
-        <v>4.063166666666666</v>
+        <v>4.062833333333332</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2621,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C64" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="D64" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="E64" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F64" t="n">
-        <v>57121.4911</v>
+        <v>1931.6959</v>
       </c>
       <c r="G64" t="n">
-        <v>4.062833333333332</v>
+        <v>4.063166666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2656,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="C65" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="D65" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="E65" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="F65" t="n">
-        <v>10029.8769</v>
+        <v>57121.4911</v>
       </c>
       <c r="G65" t="n">
-        <v>4.063166666666666</v>
+        <v>4.062833333333332</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2694,19 +2676,19 @@
         <v>4.09</v>
       </c>
       <c r="C66" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="D66" t="n">
         <v>4.09</v>
       </c>
       <c r="E66" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="F66" t="n">
-        <v>5009.9368</v>
+        <v>10029.8769</v>
       </c>
       <c r="G66" t="n">
-        <v>4.063999999999998</v>
+        <v>4.063166666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2726,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="C67" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="D67" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="E67" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="F67" t="n">
-        <v>643.4087</v>
+        <v>5009.9368</v>
       </c>
       <c r="G67" t="n">
-        <v>4.064333333333332</v>
+        <v>4.063999999999998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2761,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="C68" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="D68" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="E68" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="F68" t="n">
-        <v>20</v>
+        <v>643.4087</v>
       </c>
       <c r="G68" t="n">
-        <v>4.064999999999999</v>
+        <v>4.064333333333332</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2796,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="C69" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="D69" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="E69" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="F69" t="n">
-        <v>4356.5913</v>
+        <v>20</v>
       </c>
       <c r="G69" t="n">
-        <v>4.065333333333332</v>
+        <v>4.064999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2831,28 +2813,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="C70" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="D70" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="E70" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="F70" t="n">
-        <v>18977.3955</v>
+        <v>4356.5913</v>
       </c>
       <c r="G70" t="n">
-        <v>4.064833333333332</v>
+        <v>4.065333333333332</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2866,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="C71" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="D71" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="E71" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="F71" t="n">
-        <v>18006.1727</v>
+        <v>18977.3955</v>
       </c>
       <c r="G71" t="n">
-        <v>4.065</v>
+        <v>4.064833333333332</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2901,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="C72" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D72" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="E72" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="F72" t="n">
-        <v>8404.358200000001</v>
+        <v>18006.1727</v>
       </c>
       <c r="G72" t="n">
-        <v>4.063833333333332</v>
+        <v>4.065</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2936,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="C73" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="D73" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="E73" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="F73" t="n">
-        <v>19993.1956</v>
+        <v>8404.358200000001</v>
       </c>
       <c r="G73" t="n">
-        <v>4.062999999999999</v>
+        <v>4.063833333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2983,19 +2965,23 @@
         <v>4.05</v>
       </c>
       <c r="F74" t="n">
-        <v>10289.8765</v>
+        <v>19993.1956</v>
       </c>
       <c r="G74" t="n">
-        <v>4.062833333333333</v>
+        <v>4.062999999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K74" t="n">
+        <v>4.04</v>
+      </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
@@ -3006,22 +2992,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="C75" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D75" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="E75" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="F75" t="n">
-        <v>5440</v>
+        <v>10289.8765</v>
       </c>
       <c r="G75" t="n">
-        <v>4.062333333333332</v>
+        <v>4.062833333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3030,8 +3016,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3053,10 +3045,10 @@
         <v>4.04</v>
       </c>
       <c r="F76" t="n">
-        <v>57063.7554</v>
+        <v>5440</v>
       </c>
       <c r="G76" t="n">
-        <v>4.061833333333333</v>
+        <v>4.062333333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3065,8 +3057,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3076,22 +3074,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="C77" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="D77" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="E77" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="F77" t="n">
-        <v>7006.6176</v>
+        <v>57063.7554</v>
       </c>
       <c r="G77" t="n">
-        <v>4.061999999999999</v>
+        <v>4.061833333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3111,31 +3109,35 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="C78" t="n">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="D78" t="n">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="E78" t="n">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="F78" t="n">
-        <v>66002.1115</v>
+        <v>7006.6176</v>
       </c>
       <c r="G78" t="n">
-        <v>4.061333333333333</v>
+        <v>4.061999999999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K78" t="n">
+        <v>4.04</v>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
@@ -3158,10 +3160,10 @@
         <v>4.03</v>
       </c>
       <c r="F79" t="n">
-        <v>215613.1011</v>
+        <v>66002.1115</v>
       </c>
       <c r="G79" t="n">
-        <v>4.060666666666666</v>
+        <v>4.061333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3170,8 +3172,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3181,32 +3189,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="C80" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="D80" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="E80" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="F80" t="n">
-        <v>500</v>
+        <v>215613.1011</v>
       </c>
       <c r="G80" t="n">
-        <v>4.061166666666667</v>
+        <v>4.060666666666666</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="K80" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3216,22 +3232,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="C81" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="D81" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="E81" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="F81" t="n">
         <v>500</v>
       </c>
       <c r="G81" t="n">
-        <v>4.061666666666667</v>
+        <v>4.061166666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3251,22 +3267,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="C82" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="D82" t="n">
         <v>4.1</v>
       </c>
       <c r="E82" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="F82" t="n">
-        <v>77893.5845</v>
+        <v>500</v>
       </c>
       <c r="G82" t="n">
-        <v>4.0615</v>
+        <v>4.061666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3289,25 +3305,25 @@
         <v>4.09</v>
       </c>
       <c r="C83" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="D83" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E83" t="n">
         <v>4.09</v>
       </c>
-      <c r="E83" t="n">
-        <v>4.06</v>
-      </c>
       <c r="F83" t="n">
-        <v>39</v>
+        <v>77893.5845</v>
       </c>
       <c r="G83" t="n">
-        <v>4.060833333333333</v>
+        <v>4.0615</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3321,19 +3337,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="C84" t="n">
         <v>4.06</v>
       </c>
       <c r="D84" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="E84" t="n">
         <v>4.06</v>
       </c>
       <c r="F84" t="n">
-        <v>43641.4384</v>
+        <v>39</v>
       </c>
       <c r="G84" t="n">
         <v>4.060833333333333</v>
@@ -3356,22 +3372,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="C85" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D85" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="E85" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F85" t="n">
-        <v>36936.5646</v>
+        <v>43641.4384</v>
       </c>
       <c r="G85" t="n">
-        <v>4.060666666666667</v>
+        <v>4.060833333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3403,10 +3419,10 @@
         <v>4.05</v>
       </c>
       <c r="F86" t="n">
-        <v>47763</v>
+        <v>36936.5646</v>
       </c>
       <c r="G86" t="n">
-        <v>4.059833333333334</v>
+        <v>4.060666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3429,19 +3445,19 @@
         <v>4.05</v>
       </c>
       <c r="C87" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="D87" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="E87" t="n">
         <v>4.05</v>
       </c>
       <c r="F87" t="n">
-        <v>2000</v>
+        <v>47763</v>
       </c>
       <c r="G87" t="n">
-        <v>4.06</v>
+        <v>4.059833333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3461,32 +3477,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="C88" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="D88" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="E88" t="n">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="F88" t="n">
-        <v>2411968.4706</v>
+        <v>2000</v>
       </c>
       <c r="G88" t="n">
-        <v>4.0605</v>
+        <v>4.06</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>4.05</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3496,7 +3518,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="C89" t="n">
         <v>4.11</v>
@@ -3505,23 +3527,29 @@
         <v>4.11</v>
       </c>
       <c r="E89" t="n">
-        <v>4.04</v>
+        <v>4.02</v>
       </c>
       <c r="F89" t="n">
-        <v>82960.82919999999</v>
+        <v>2411968.4706</v>
       </c>
       <c r="G89" t="n">
-        <v>4.061000000000001</v>
+        <v>4.0605</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>4.09</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3531,7 +3559,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="C90" t="n">
         <v>4.11</v>
@@ -3540,13 +3568,13 @@
         <v>4.11</v>
       </c>
       <c r="E90" t="n">
-        <v>4.11</v>
+        <v>4.04</v>
       </c>
       <c r="F90" t="n">
-        <v>1000</v>
+        <v>82960.82919999999</v>
       </c>
       <c r="G90" t="n">
-        <v>4.061833333333334</v>
+        <v>4.061000000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3556,7 +3584,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3581,7 +3613,7 @@
         <v>1000</v>
       </c>
       <c r="G91" t="n">
-        <v>4.062666666666668</v>
+        <v>4.061833333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3591,7 +3623,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3613,10 +3649,10 @@
         <v>4.11</v>
       </c>
       <c r="F92" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G92" t="n">
-        <v>4.063166666666667</v>
+        <v>4.062666666666668</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3626,7 +3662,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3648,10 +3688,10 @@
         <v>4.11</v>
       </c>
       <c r="F93" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G93" t="n">
-        <v>4.064000000000001</v>
+        <v>4.063166666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3661,7 +3701,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3671,22 +3715,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="C94" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="D94" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="E94" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="F94" t="n">
-        <v>1399.756</v>
+        <v>1000</v>
       </c>
       <c r="G94" t="n">
-        <v>4.064833333333334</v>
+        <v>4.064000000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3696,7 +3740,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3706,22 +3754,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="C95" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="D95" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="E95" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="F95" t="n">
-        <v>13804.4226</v>
+        <v>1399.756</v>
       </c>
       <c r="G95" t="n">
-        <v>4.064666666666667</v>
+        <v>4.064833333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3731,7 +3779,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3741,22 +3793,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="C96" t="n">
         <v>4.07</v>
       </c>
       <c r="D96" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="E96" t="n">
         <v>4.07</v>
       </c>
       <c r="F96" t="n">
-        <v>9100</v>
+        <v>13804.4226</v>
       </c>
       <c r="G96" t="n">
-        <v>4.064333333333334</v>
+        <v>4.064666666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3766,7 +3818,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3776,22 +3832,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="C97" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="D97" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="E97" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="F97" t="n">
-        <v>205721.6109</v>
+        <v>9100</v>
       </c>
       <c r="G97" t="n">
-        <v>4.064166666666667</v>
+        <v>4.064333333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3801,7 +3857,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3811,22 +3871,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="C98" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="D98" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="E98" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="F98" t="n">
-        <v>34852.9332</v>
+        <v>205721.6109</v>
       </c>
       <c r="G98" t="n">
-        <v>4.065</v>
+        <v>4.064166666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3836,7 +3896,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3849,19 +3913,19 @@
         <v>4.1</v>
       </c>
       <c r="C99" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="D99" t="n">
         <v>4.1</v>
       </c>
       <c r="E99" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="F99" t="n">
-        <v>7657.3529</v>
+        <v>34852.9332</v>
       </c>
       <c r="G99" t="n">
-        <v>4.065666666666667</v>
+        <v>4.065</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3871,7 +3935,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3881,22 +3949,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="C100" t="n">
         <v>4.08</v>
       </c>
       <c r="D100" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="E100" t="n">
         <v>4.08</v>
       </c>
       <c r="F100" t="n">
-        <v>5147.0668</v>
+        <v>7657.3529</v>
       </c>
       <c r="G100" t="n">
-        <v>4.066000000000001</v>
+        <v>4.065666666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3906,7 +3974,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3916,22 +3988,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="C101" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="D101" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="E101" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="F101" t="n">
-        <v>6900</v>
+        <v>5147.0668</v>
       </c>
       <c r="G101" t="n">
-        <v>4.066833333333333</v>
+        <v>4.066000000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3941,7 +4013,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3951,22 +4027,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="C102" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="D102" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="E102" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="F102" t="n">
-        <v>5117.3218</v>
+        <v>6900</v>
       </c>
       <c r="G102" t="n">
-        <v>4.0675</v>
+        <v>4.066833333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3976,7 +4052,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3986,22 +4066,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="C103" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="D103" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="E103" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="F103" t="n">
-        <v>70</v>
+        <v>5117.3218</v>
       </c>
       <c r="G103" t="n">
-        <v>4.067666666666667</v>
+        <v>4.0675</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4011,7 +4091,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4027,16 +4111,16 @@
         <v>4.06</v>
       </c>
       <c r="D104" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="E104" t="n">
         <v>4.06</v>
       </c>
       <c r="F104" t="n">
-        <v>90500</v>
+        <v>70</v>
       </c>
       <c r="G104" t="n">
-        <v>4.067833333333334</v>
+        <v>4.067666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4046,7 +4130,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4062,16 +4150,16 @@
         <v>4.06</v>
       </c>
       <c r="D105" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="E105" t="n">
         <v>4.06</v>
       </c>
       <c r="F105" t="n">
-        <v>6950</v>
+        <v>90500</v>
       </c>
       <c r="G105" t="n">
-        <v>4.068</v>
+        <v>4.067833333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4081,7 +4169,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4094,16 +4186,16 @@
         <v>4.06</v>
       </c>
       <c r="C106" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="D106" t="n">
         <v>4.06</v>
       </c>
       <c r="E106" t="n">
-        <v>4.02</v>
+        <v>4.06</v>
       </c>
       <c r="F106" t="n">
-        <v>220</v>
+        <v>6950</v>
       </c>
       <c r="G106" t="n">
         <v>4.068</v>
@@ -4116,8 +4208,51 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E107" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="F107" t="n">
+        <v>220</v>
+      </c>
+      <c r="G107" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest XVG.xlsx
+++ b/BackTest/2019-10-19 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>101249.9753</v>
       </c>
       <c r="G2" t="n">
+        <v>4.08866666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>4.086999999999998</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>308548.184</v>
       </c>
       <c r="G3" t="n">
+        <v>4.089999999999995</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.088333333333332</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>24.6295</v>
       </c>
       <c r="G4" t="n">
+        <v>4.083999999999994</v>
+      </c>
+      <c r="H4" t="n">
         <v>4.088499999999998</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>4505.3545</v>
       </c>
       <c r="G5" t="n">
+        <v>4.083333333333327</v>
+      </c>
+      <c r="H5" t="n">
         <v>4.088499999999998</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>82606</v>
       </c>
       <c r="G6" t="n">
+        <v>4.079333333333327</v>
+      </c>
+      <c r="H6" t="n">
         <v>4.087999999999998</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>448792.6511</v>
       </c>
       <c r="G7" t="n">
+        <v>4.071999999999994</v>
+      </c>
+      <c r="H7" t="n">
         <v>4.086666666666665</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>134967.5665</v>
       </c>
       <c r="G8" t="n">
+        <v>4.06866666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>4.085999999999999</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>248.0726</v>
       </c>
       <c r="G9" t="n">
+        <v>4.063999999999994</v>
+      </c>
+      <c r="H9" t="n">
         <v>4.084499999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>66328.8177</v>
       </c>
       <c r="G10" t="n">
+        <v>4.061333333333327</v>
+      </c>
+      <c r="H10" t="n">
         <v>4.083166666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>5000</v>
       </c>
       <c r="G11" t="n">
+        <v>4.061333333333327</v>
+      </c>
+      <c r="H11" t="n">
         <v>4.084166666666666</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>10000</v>
       </c>
       <c r="G12" t="n">
+        <v>4.059999999999993</v>
+      </c>
+      <c r="H12" t="n">
         <v>4.082999999999999</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>17471.2255</v>
       </c>
       <c r="G13" t="n">
+        <v>4.063333333333326</v>
+      </c>
+      <c r="H13" t="n">
         <v>4.082999999999999</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>0.3087</v>
       </c>
       <c r="G14" t="n">
+        <v>4.065999999999992</v>
+      </c>
+      <c r="H14" t="n">
         <v>4.082999999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>5000</v>
       </c>
       <c r="G15" t="n">
+        <v>4.066666666666659</v>
+      </c>
+      <c r="H15" t="n">
         <v>4.082166666666665</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>72524</v>
       </c>
       <c r="G16" t="n">
+        <v>4.069333333333325</v>
+      </c>
+      <c r="H16" t="n">
         <v>4.081499999999998</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>132725.6314</v>
       </c>
       <c r="G17" t="n">
+        <v>4.070666666666658</v>
+      </c>
+      <c r="H17" t="n">
         <v>4.080833333333332</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1434.1523</v>
       </c>
       <c r="G18" t="n">
+        <v>4.067333333333326</v>
+      </c>
+      <c r="H18" t="n">
         <v>4.080166666666664</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>8188</v>
       </c>
       <c r="G19" t="n">
+        <v>4.069333333333326</v>
+      </c>
+      <c r="H19" t="n">
         <v>4.079666666666665</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>22992.1393</v>
       </c>
       <c r="G20" t="n">
+        <v>4.067999999999993</v>
+      </c>
+      <c r="H20" t="n">
         <v>4.079499999999998</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>29602</v>
       </c>
       <c r="G21" t="n">
+        <v>4.067333333333326</v>
+      </c>
+      <c r="H21" t="n">
         <v>4.079333333333331</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>10000</v>
       </c>
       <c r="G22" t="n">
+        <v>4.070666666666659</v>
+      </c>
+      <c r="H22" t="n">
         <v>4.078999999999997</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>6000</v>
       </c>
       <c r="G23" t="n">
+        <v>4.073333333333325</v>
+      </c>
+      <c r="H23" t="n">
         <v>4.079166666666664</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>1500</v>
       </c>
       <c r="G24" t="n">
+        <v>4.076666666666658</v>
+      </c>
+      <c r="H24" t="n">
         <v>4.079666666666664</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>7500</v>
       </c>
       <c r="G25" t="n">
+        <v>4.076666666666658</v>
+      </c>
+      <c r="H25" t="n">
         <v>4.079666666666664</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>5000</v>
       </c>
       <c r="G26" t="n">
+        <v>4.073999999999992</v>
+      </c>
+      <c r="H26" t="n">
         <v>4.079833333333331</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>500</v>
       </c>
       <c r="G27" t="n">
+        <v>4.077999999999992</v>
+      </c>
+      <c r="H27" t="n">
         <v>4.080499999999997</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>3000</v>
       </c>
       <c r="G28" t="n">
+        <v>4.075999999999993</v>
+      </c>
+      <c r="H28" t="n">
         <v>4.080666666666664</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>20010</v>
       </c>
       <c r="G29" t="n">
+        <v>4.074666666666659</v>
+      </c>
+      <c r="H29" t="n">
         <v>4.080499999999997</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>9290.4411</v>
       </c>
       <c r="G30" t="n">
+        <v>4.075999999999993</v>
+      </c>
+      <c r="H30" t="n">
         <v>4.080333333333331</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>7000</v>
       </c>
       <c r="G31" t="n">
+        <v>4.075333333333326</v>
+      </c>
+      <c r="H31" t="n">
         <v>4.080333333333331</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>3345.6621</v>
       </c>
       <c r="G32" t="n">
+        <v>4.074666666666659</v>
+      </c>
+      <c r="H32" t="n">
         <v>4.079833333333331</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>5000</v>
       </c>
       <c r="G33" t="n">
+        <v>4.075333333333326</v>
+      </c>
+      <c r="H33" t="n">
         <v>4.079499999999998</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>128071.2608</v>
       </c>
       <c r="G34" t="n">
+        <v>4.074666666666659</v>
+      </c>
+      <c r="H34" t="n">
         <v>4.078499999999997</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>20000</v>
       </c>
       <c r="G35" t="n">
+        <v>4.073333333333326</v>
+      </c>
+      <c r="H35" t="n">
         <v>4.077999999999998</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>2500</v>
       </c>
       <c r="G36" t="n">
+        <v>4.074666666666659</v>
+      </c>
+      <c r="H36" t="n">
         <v>4.078166666666664</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>35000</v>
       </c>
       <c r="G37" t="n">
+        <v>4.075999999999993</v>
+      </c>
+      <c r="H37" t="n">
         <v>4.078499999999998</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>2500</v>
       </c>
       <c r="G38" t="n">
+        <v>4.073333333333326</v>
+      </c>
+      <c r="H38" t="n">
         <v>4.078166666666664</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>24.7518</v>
       </c>
       <c r="G39" t="n">
+        <v>4.069999999999992</v>
+      </c>
+      <c r="H39" t="n">
         <v>4.077333333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>14975.2482</v>
       </c>
       <c r="G40" t="n">
+        <v>4.068666666666659</v>
+      </c>
+      <c r="H40" t="n">
         <v>4.076333333333332</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>5000</v>
       </c>
       <c r="G41" t="n">
+        <v>4.068666666666659</v>
+      </c>
+      <c r="H41" t="n">
         <v>4.075999999999998</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>7819.95</v>
       </c>
       <c r="G42" t="n">
+        <v>4.065333333333325</v>
+      </c>
+      <c r="H42" t="n">
         <v>4.075499999999998</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>20000</v>
       </c>
       <c r="G43" t="n">
+        <v>4.061999999999992</v>
+      </c>
+      <c r="H43" t="n">
         <v>4.074999999999998</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>208456.6917</v>
       </c>
       <c r="G44" t="n">
+        <v>4.059999999999992</v>
+      </c>
+      <c r="H44" t="n">
         <v>4.074333333333332</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>9975</v>
       </c>
       <c r="G45" t="n">
+        <v>4.057999999999992</v>
+      </c>
+      <c r="H45" t="n">
         <v>4.073666666666665</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>130213.019</v>
       </c>
       <c r="G46" t="n">
+        <v>4.057333333333324</v>
+      </c>
+      <c r="H46" t="n">
         <v>4.072833333333332</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>190817.7092</v>
       </c>
       <c r="G47" t="n">
+        <v>4.055999999999992</v>
+      </c>
+      <c r="H47" t="n">
         <v>4.072499999999999</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>3489</v>
       </c>
       <c r="G48" t="n">
+        <v>4.053333333333326</v>
+      </c>
+      <c r="H48" t="n">
         <v>4.071499999999999</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>247.5247</v>
       </c>
       <c r="G49" t="n">
+        <v>4.051999999999992</v>
+      </c>
+      <c r="H49" t="n">
         <v>4.069999999999999</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>2500</v>
       </c>
       <c r="G50" t="n">
+        <v>4.051333333333327</v>
+      </c>
+      <c r="H50" t="n">
         <v>4.068999999999998</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>5000</v>
       </c>
       <c r="G51" t="n">
+        <v>4.04866666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>4.067499999999998</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>12723.4851</v>
       </c>
       <c r="G52" t="n">
+        <v>4.04466666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>4.065833333333332</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>10000</v>
       </c>
       <c r="G53" t="n">
+        <v>4.04466666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>4.064999999999999</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>5000</v>
       </c>
       <c r="G54" t="n">
+        <v>4.04466666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>4.063833333333331</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>2547.2239</v>
       </c>
       <c r="G55" t="n">
+        <v>4.044666666666661</v>
+      </c>
+      <c r="H55" t="n">
         <v>4.062833333333332</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>3051.358</v>
       </c>
       <c r="G56" t="n">
+        <v>4.043999999999994</v>
+      </c>
+      <c r="H56" t="n">
         <v>4.061999999999999</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>1520.8073</v>
       </c>
       <c r="G57" t="n">
+        <v>4.043999999999994</v>
+      </c>
+      <c r="H57" t="n">
         <v>4.061833333333332</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>79.1927</v>
       </c>
       <c r="G58" t="n">
+        <v>4.045333333333327</v>
+      </c>
+      <c r="H58" t="n">
         <v>4.061666666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>9558.4884</v>
       </c>
       <c r="G59" t="n">
+        <v>4.045333333333327</v>
+      </c>
+      <c r="H59" t="n">
         <v>4.061499999999999</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>30041.5116</v>
       </c>
       <c r="G60" t="n">
+        <v>4.045333333333327</v>
+      </c>
+      <c r="H60" t="n">
         <v>4.061499999999999</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>66132.1118</v>
       </c>
       <c r="G61" t="n">
+        <v>4.047999999999994</v>
+      </c>
+      <c r="H61" t="n">
         <v>4.062499999999999</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>24061.5004</v>
       </c>
       <c r="G62" t="n">
+        <v>4.051333333333328</v>
+      </c>
+      <c r="H62" t="n">
         <v>4.063166666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>30424.6919</v>
       </c>
       <c r="G63" t="n">
+        <v>4.055333333333328</v>
+      </c>
+      <c r="H63" t="n">
         <v>4.062833333333332</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>1931.6959</v>
       </c>
       <c r="G64" t="n">
+        <v>4.056666666666661</v>
+      </c>
+      <c r="H64" t="n">
         <v>4.063166666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>57121.4911</v>
       </c>
       <c r="G65" t="n">
+        <v>4.058666666666661</v>
+      </c>
+      <c r="H65" t="n">
         <v>4.062833333333332</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>10029.8769</v>
       </c>
       <c r="G66" t="n">
+        <v>4.061999999999994</v>
+      </c>
+      <c r="H66" t="n">
         <v>4.063166666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>5009.9368</v>
       </c>
       <c r="G67" t="n">
+        <v>4.064666666666661</v>
+      </c>
+      <c r="H67" t="n">
         <v>4.063999999999998</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>643.4087</v>
       </c>
       <c r="G68" t="n">
+        <v>4.065999999999994</v>
+      </c>
+      <c r="H68" t="n">
         <v>4.064333333333332</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>20</v>
       </c>
       <c r="G69" t="n">
+        <v>4.068666666666661</v>
+      </c>
+      <c r="H69" t="n">
         <v>4.064999999999999</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>4356.5913</v>
       </c>
       <c r="G70" t="n">
+        <v>4.071333333333327</v>
+      </c>
+      <c r="H70" t="n">
         <v>4.065333333333332</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>18977.3955</v>
       </c>
       <c r="G71" t="n">
+        <v>4.072666666666661</v>
+      </c>
+      <c r="H71" t="n">
         <v>4.064833333333332</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>18006.1727</v>
       </c>
       <c r="G72" t="n">
+        <v>4.072666666666661</v>
+      </c>
+      <c r="H72" t="n">
         <v>4.065</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>8404.358200000001</v>
       </c>
       <c r="G73" t="n">
+        <v>4.071999999999995</v>
+      </c>
+      <c r="H73" t="n">
         <v>4.063833333333332</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,22 +3189,25 @@
         <v>19993.1956</v>
       </c>
       <c r="G74" t="n">
+        <v>4.071999999999995</v>
+      </c>
+      <c r="H74" t="n">
         <v>4.062999999999999</v>
       </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>4.04</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>4.04</v>
       </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3007,24 +3231,29 @@
         <v>10289.8765</v>
       </c>
       <c r="G75" t="n">
+        <v>4.071999999999995</v>
+      </c>
+      <c r="H75" t="n">
         <v>4.062833333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L75" t="inlineStr">
+        <v>4.05</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3048,24 +3277,29 @@
         <v>5440</v>
       </c>
       <c r="G76" t="n">
+        <v>4.068666666666662</v>
+      </c>
+      <c r="H76" t="n">
         <v>4.062333333333332</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L76" t="inlineStr">
+        <v>4.05</v>
+      </c>
+      <c r="L76" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3323,21 @@
         <v>57063.7554</v>
       </c>
       <c r="G77" t="n">
+        <v>4.065333333333329</v>
+      </c>
+      <c r="H77" t="n">
         <v>4.061833333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,22 +3361,25 @@
         <v>7006.6176</v>
       </c>
       <c r="G78" t="n">
+        <v>4.063999999999996</v>
+      </c>
+      <c r="H78" t="n">
         <v>4.061999999999999</v>
       </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>4.04</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>4.04</v>
       </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,24 +3403,27 @@
         <v>66002.1115</v>
       </c>
       <c r="G79" t="n">
+        <v>4.061999999999995</v>
+      </c>
+      <c r="H79" t="n">
         <v>4.061333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3204,26 +3447,27 @@
         <v>215613.1011</v>
       </c>
       <c r="G80" t="n">
+        <v>4.059333333333329</v>
+      </c>
+      <c r="H80" t="n">
         <v>4.060666666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="K80" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L80" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3247,18 +3491,21 @@
         <v>500</v>
       </c>
       <c r="G81" t="n">
+        <v>4.059333333333328</v>
+      </c>
+      <c r="H81" t="n">
         <v>4.061166666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3282,18 +3529,21 @@
         <v>500</v>
       </c>
       <c r="G82" t="n">
+        <v>4.061333333333327</v>
+      </c>
+      <c r="H82" t="n">
         <v>4.061666666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3317,18 +3567,21 @@
         <v>77893.5845</v>
       </c>
       <c r="G83" t="n">
+        <v>4.061999999999994</v>
+      </c>
+      <c r="H83" t="n">
         <v>4.0615</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,18 +3605,21 @@
         <v>39</v>
       </c>
       <c r="G84" t="n">
+        <v>4.059999999999993</v>
+      </c>
+      <c r="H84" t="n">
         <v>4.060833333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3387,18 +3643,21 @@
         <v>43641.4384</v>
       </c>
       <c r="G85" t="n">
+        <v>4.058666666666661</v>
+      </c>
+      <c r="H85" t="n">
         <v>4.060833333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3422,18 +3681,21 @@
         <v>36936.5646</v>
       </c>
       <c r="G86" t="n">
+        <v>4.057333333333327</v>
+      </c>
+      <c r="H86" t="n">
         <v>4.060666666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,18 +3719,21 @@
         <v>47763</v>
       </c>
       <c r="G87" t="n">
+        <v>4.057333333333328</v>
+      </c>
+      <c r="H87" t="n">
         <v>4.059833333333334</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3492,24 +3757,27 @@
         <v>2000</v>
       </c>
       <c r="G88" t="n">
-        <v>4.06</v>
+        <v>4.060666666666661</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>4.06</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3533,24 +3801,25 @@
         <v>2411968.4706</v>
       </c>
       <c r="G89" t="n">
+        <v>4.064666666666662</v>
+      </c>
+      <c r="H89" t="n">
         <v>4.0605</v>
       </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>4.09</v>
+        <v>0</v>
       </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3574,22 +3843,25 @@
         <v>82960.82919999999</v>
       </c>
       <c r="G90" t="n">
+        <v>4.068666666666662</v>
+      </c>
+      <c r="H90" t="n">
         <v>4.061000000000001</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3613,22 +3885,25 @@
         <v>1000</v>
       </c>
       <c r="G91" t="n">
+        <v>4.073333333333329</v>
+      </c>
+      <c r="H91" t="n">
         <v>4.061833333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3652,22 +3927,25 @@
         <v>1000</v>
       </c>
       <c r="G92" t="n">
+        <v>4.077999999999996</v>
+      </c>
+      <c r="H92" t="n">
         <v>4.062666666666668</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3691,22 +3969,25 @@
         <v>400</v>
       </c>
       <c r="G93" t="n">
+        <v>4.079999999999997</v>
+      </c>
+      <c r="H93" t="n">
         <v>4.063166666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3730,22 +4011,25 @@
         <v>1000</v>
       </c>
       <c r="G94" t="n">
+        <v>4.085333333333329</v>
+      </c>
+      <c r="H94" t="n">
         <v>4.064000000000001</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3769,22 +4053,25 @@
         <v>1399.756</v>
       </c>
       <c r="G95" t="n">
+        <v>4.089999999999995</v>
+      </c>
+      <c r="H95" t="n">
         <v>4.064833333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,22 +4095,25 @@
         <v>13804.4226</v>
       </c>
       <c r="G96" t="n">
+        <v>4.088666666666662</v>
+      </c>
+      <c r="H96" t="n">
         <v>4.064666666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3847,22 +4137,25 @@
         <v>9100</v>
       </c>
       <c r="G97" t="n">
+        <v>4.086666666666662</v>
+      </c>
+      <c r="H97" t="n">
         <v>4.064333333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3886,22 +4179,25 @@
         <v>205721.6109</v>
       </c>
       <c r="G98" t="n">
+        <v>4.083999999999994</v>
+      </c>
+      <c r="H98" t="n">
         <v>4.064166666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3925,22 +4221,25 @@
         <v>34852.9332</v>
       </c>
       <c r="G99" t="n">
+        <v>4.086666666666661</v>
+      </c>
+      <c r="H99" t="n">
         <v>4.065</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,22 +4263,25 @@
         <v>7657.3529</v>
       </c>
       <c r="G100" t="n">
+        <v>4.087999999999994</v>
+      </c>
+      <c r="H100" t="n">
         <v>4.065666666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,22 +4305,25 @@
         <v>5147.0668</v>
       </c>
       <c r="G101" t="n">
+        <v>4.089999999999994</v>
+      </c>
+      <c r="H101" t="n">
         <v>4.066000000000001</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4042,22 +4347,25 @@
         <v>6900</v>
       </c>
       <c r="G102" t="n">
+        <v>4.093333333333327</v>
+      </c>
+      <c r="H102" t="n">
         <v>4.066833333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4081,22 +4389,25 @@
         <v>5117.3218</v>
       </c>
       <c r="G103" t="n">
+        <v>4.091999999999994</v>
+      </c>
+      <c r="H103" t="n">
         <v>4.0675</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,22 +4431,25 @@
         <v>70</v>
       </c>
       <c r="G104" t="n">
+        <v>4.08866666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>4.067666666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4159,22 +4473,25 @@
         <v>90500</v>
       </c>
       <c r="G105" t="n">
+        <v>4.085333333333327</v>
+      </c>
+      <c r="H105" t="n">
         <v>4.067833333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4198,22 +4515,25 @@
         <v>6950</v>
       </c>
       <c r="G106" t="n">
+        <v>4.081999999999995</v>
+      </c>
+      <c r="H106" t="n">
         <v>4.068</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4237,22 +4557,445 @@
         <v>220</v>
       </c>
       <c r="G107" t="n">
+        <v>4.077333333333328</v>
+      </c>
+      <c r="H107" t="n">
         <v>4.068</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="F108" t="n">
+        <v>9760</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4.071333333333328</v>
+      </c>
+      <c r="H108" t="n">
+        <v>4.067666666666667</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F109" t="n">
+        <v>10</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4.069333333333328</v>
+      </c>
+      <c r="H109" t="n">
+        <v>4.068333333333333</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F110" t="n">
+        <v>28.4313</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4.067999999999994</v>
+      </c>
+      <c r="H110" t="n">
+        <v>4.069000000000001</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F111" t="n">
+        <v>45</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4.068666666666662</v>
+      </c>
+      <c r="H111" t="n">
+        <v>4.069666666666667</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F112" t="n">
+        <v>4176.9041</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4.068666666666662</v>
+      </c>
+      <c r="H112" t="n">
+        <v>4.070333333333334</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F113" t="n">
+        <v>32596.5601</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4.069999999999995</v>
+      </c>
+      <c r="H113" t="n">
+        <v>4.070500000000001</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F114" t="n">
+        <v>13179.6068</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4.067999999999994</v>
+      </c>
+      <c r="H114" t="n">
+        <v>4.070833333333334</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F115" t="n">
+        <v>219773.831</v>
+      </c>
+      <c r="G115" t="n">
+        <v>4.065999999999995</v>
+      </c>
+      <c r="H115" t="n">
+        <v>4.071000000000001</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F116" t="n">
+        <v>172469.6123</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4.063333333333329</v>
+      </c>
+      <c r="H116" t="n">
+        <v>4.070833333333334</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F117" t="n">
+        <v>20</v>
+      </c>
+      <c r="G117" t="n">
+        <v>4.061333333333328</v>
+      </c>
+      <c r="H117" t="n">
+        <v>4.071166666666667</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest XVG.xlsx
+++ b/BackTest/2019-10-19 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="D2" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="E2" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="F2" t="n">
-        <v>101249.9753</v>
+        <v>49695.2771</v>
       </c>
       <c r="G2" t="n">
-        <v>4.08866666666666</v>
+        <v>-6545.913899999992</v>
       </c>
       <c r="H2" t="n">
-        <v>4.086999999999998</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.03</v>
+        <v>4.11</v>
       </c>
       <c r="C3" t="n">
         <v>4.12</v>
@@ -485,27 +477,24 @@
         <v>4.12</v>
       </c>
       <c r="E3" t="n">
-        <v>4.03</v>
+        <v>4.11</v>
       </c>
       <c r="F3" t="n">
-        <v>308548.184</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="n">
-        <v>4.089999999999995</v>
+        <v>-5545.913899999992</v>
       </c>
       <c r="H3" t="n">
-        <v>4.088333333333332</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="C4" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="D4" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="E4" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="F4" t="n">
-        <v>24.6295</v>
+        <v>11071</v>
       </c>
       <c r="G4" t="n">
-        <v>4.083999999999994</v>
+        <v>-16616.91389999999</v>
       </c>
       <c r="H4" t="n">
-        <v>4.088499999999998</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="D5" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="E5" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="F5" t="n">
-        <v>4505.3545</v>
+        <v>460000</v>
       </c>
       <c r="G5" t="n">
-        <v>4.083333333333327</v>
+        <v>-476616.9139</v>
       </c>
       <c r="H5" t="n">
-        <v>4.088499999999998</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -602,24 +585,21 @@
         <v>4.07</v>
       </c>
       <c r="F6" t="n">
-        <v>82606</v>
+        <v>25394.4914</v>
       </c>
       <c r="G6" t="n">
-        <v>4.079333333333327</v>
+        <v>-476616.9139</v>
       </c>
       <c r="H6" t="n">
-        <v>4.087999999999998</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="C7" t="n">
-        <v>4.02</v>
+        <v>4.08</v>
       </c>
       <c r="D7" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="E7" t="n">
-        <v>4.02</v>
+        <v>4.08</v>
       </c>
       <c r="F7" t="n">
-        <v>448792.6511</v>
+        <v>5000</v>
       </c>
       <c r="G7" t="n">
-        <v>4.071999999999994</v>
+        <v>-471616.9139</v>
       </c>
       <c r="H7" t="n">
-        <v>4.086666666666665</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="C8" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="D8" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="E8" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="F8" t="n">
-        <v>134967.5665</v>
+        <v>160000</v>
       </c>
       <c r="G8" t="n">
-        <v>4.06866666666666</v>
+        <v>-311616.9139</v>
       </c>
       <c r="H8" t="n">
-        <v>4.085999999999999</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="C9" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="D9" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="E9" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="F9" t="n">
-        <v>248.0726</v>
+        <v>26459.9414</v>
       </c>
       <c r="G9" t="n">
-        <v>4.063999999999994</v>
+        <v>-311616.9139</v>
       </c>
       <c r="H9" t="n">
-        <v>4.084499999999999</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="C10" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="D10" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="E10" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="F10" t="n">
-        <v>66328.8177</v>
+        <v>2834.4151</v>
       </c>
       <c r="G10" t="n">
-        <v>4.061333333333327</v>
+        <v>-314451.329</v>
       </c>
       <c r="H10" t="n">
-        <v>4.083166666666666</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,33 +751,30 @@
         <v>4.08</v>
       </c>
       <c r="C11" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="D11" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="E11" t="n">
         <v>4.08</v>
       </c>
       <c r="F11" t="n">
-        <v>5000</v>
+        <v>41558.8827</v>
       </c>
       <c r="G11" t="n">
-        <v>4.061333333333327</v>
+        <v>-314451.329</v>
       </c>
       <c r="H11" t="n">
-        <v>4.084166666666666</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="C12" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="D12" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="E12" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="F12" t="n">
-        <v>10000</v>
+        <v>184599.4153</v>
       </c>
       <c r="G12" t="n">
-        <v>4.059999999999993</v>
+        <v>-499050.7443</v>
       </c>
       <c r="H12" t="n">
-        <v>4.082999999999999</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03</v>
+        <v>4.09</v>
       </c>
       <c r="C13" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="D13" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="E13" t="n">
-        <v>4.03</v>
+        <v>4.09</v>
       </c>
       <c r="F13" t="n">
-        <v>17471.2255</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>4.063333333333326</v>
+        <v>-499040.7443</v>
       </c>
       <c r="H13" t="n">
-        <v>4.082999999999999</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="C14" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="D14" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="E14" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3087</v>
+        <v>1000</v>
       </c>
       <c r="G14" t="n">
-        <v>4.065999999999992</v>
+        <v>-499040.7443</v>
       </c>
       <c r="H14" t="n">
-        <v>4.082999999999999</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="C15" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="D15" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="E15" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="F15" t="n">
-        <v>5000</v>
+        <v>105667.50363414</v>
       </c>
       <c r="G15" t="n">
-        <v>4.066666666666659</v>
+        <v>-393373.24066586</v>
       </c>
       <c r="H15" t="n">
-        <v>4.082166666666665</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="C16" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="D16" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="E16" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F16" t="n">
-        <v>72524</v>
+        <v>102909.5849</v>
       </c>
       <c r="G16" t="n">
-        <v>4.069333333333325</v>
+        <v>-496282.82556586</v>
       </c>
       <c r="H16" t="n">
-        <v>4.081499999999998</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="D17" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="E17" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="F17" t="n">
-        <v>132725.6314</v>
+        <v>2500</v>
       </c>
       <c r="G17" t="n">
-        <v>4.070666666666658</v>
+        <v>-493782.82556586</v>
       </c>
       <c r="H17" t="n">
-        <v>4.080833333333332</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.07</v>
+        <v>4.13</v>
       </c>
       <c r="C18" t="n">
-        <v>4.07</v>
+        <v>4.13</v>
       </c>
       <c r="D18" t="n">
-        <v>4.07</v>
+        <v>4.13</v>
       </c>
       <c r="E18" t="n">
-        <v>4.07</v>
+        <v>4.13</v>
       </c>
       <c r="F18" t="n">
-        <v>1434.1523</v>
+        <v>15</v>
       </c>
       <c r="G18" t="n">
-        <v>4.067333333333326</v>
+        <v>-493767.82556586</v>
       </c>
       <c r="H18" t="n">
-        <v>4.080166666666664</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="C19" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="D19" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="E19" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="F19" t="n">
-        <v>8188</v>
+        <v>10000</v>
       </c>
       <c r="G19" t="n">
-        <v>4.069333333333326</v>
+        <v>-503767.82556586</v>
       </c>
       <c r="H19" t="n">
-        <v>4.079666666666665</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.07</v>
+        <v>4.13</v>
       </c>
       <c r="C20" t="n">
-        <v>4.07</v>
+        <v>4.13</v>
       </c>
       <c r="D20" t="n">
-        <v>4.07</v>
+        <v>4.13</v>
       </c>
       <c r="E20" t="n">
-        <v>4.07</v>
+        <v>4.13</v>
       </c>
       <c r="F20" t="n">
-        <v>22992.1393</v>
+        <v>500</v>
       </c>
       <c r="G20" t="n">
-        <v>4.067999999999993</v>
+        <v>-503267.82556586</v>
       </c>
       <c r="H20" t="n">
-        <v>4.079499999999998</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.07</v>
+        <v>4.11</v>
       </c>
       <c r="C21" t="n">
-        <v>4.06</v>
+        <v>4.13</v>
       </c>
       <c r="D21" t="n">
-        <v>4.08</v>
+        <v>4.13</v>
       </c>
       <c r="E21" t="n">
-        <v>4.06</v>
+        <v>4.11</v>
       </c>
       <c r="F21" t="n">
-        <v>29602</v>
+        <v>34749.6349</v>
       </c>
       <c r="G21" t="n">
-        <v>4.067333333333326</v>
+        <v>-503267.82556586</v>
       </c>
       <c r="H21" t="n">
-        <v>4.079333333333331</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.07</v>
+        <v>4.12</v>
       </c>
       <c r="C22" t="n">
-        <v>4.07</v>
+        <v>4.11</v>
       </c>
       <c r="D22" t="n">
-        <v>4.07</v>
+        <v>4.12</v>
       </c>
       <c r="E22" t="n">
-        <v>4.07</v>
+        <v>4.11</v>
       </c>
       <c r="F22" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="G22" t="n">
-        <v>4.070666666666659</v>
+        <v>-506267.82556586</v>
       </c>
       <c r="H22" t="n">
-        <v>4.078999999999997</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.06</v>
+        <v>4.11</v>
       </c>
       <c r="C23" t="n">
-        <v>4.1</v>
+        <v>4.12</v>
       </c>
       <c r="D23" t="n">
-        <v>4.1</v>
+        <v>4.13</v>
       </c>
       <c r="E23" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="F23" t="n">
-        <v>6000</v>
+        <v>53000</v>
       </c>
       <c r="G23" t="n">
-        <v>4.073333333333325</v>
+        <v>-453267.82556586</v>
       </c>
       <c r="H23" t="n">
-        <v>4.079166666666664</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1286,24 +1215,21 @@
         <v>4.1</v>
       </c>
       <c r="F24" t="n">
-        <v>1500</v>
+        <v>3012.0975</v>
       </c>
       <c r="G24" t="n">
-        <v>4.076666666666658</v>
+        <v>-456279.9230658599</v>
       </c>
       <c r="H24" t="n">
-        <v>4.079666666666664</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="C25" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="D25" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="E25" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="F25" t="n">
-        <v>7500</v>
+        <v>500</v>
       </c>
       <c r="G25" t="n">
-        <v>4.076666666666658</v>
+        <v>-456279.9230658599</v>
       </c>
       <c r="H25" t="n">
-        <v>4.079666666666664</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="C26" t="n">
         <v>4.06</v>
       </c>
       <c r="D26" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="E26" t="n">
         <v>4.06</v>
       </c>
       <c r="F26" t="n">
-        <v>5000</v>
+        <v>81388.46679999999</v>
       </c>
       <c r="G26" t="n">
-        <v>4.073999999999992</v>
+        <v>-537668.3898658599</v>
       </c>
       <c r="H26" t="n">
-        <v>4.079833333333331</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="C27" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="D27" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="E27" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="F27" t="n">
-        <v>500</v>
+        <v>1527425.9767</v>
       </c>
       <c r="G27" t="n">
-        <v>4.077999999999992</v>
+        <v>-537668.3898658599</v>
       </c>
       <c r="H27" t="n">
-        <v>4.080499999999997</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C28" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="D28" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="E28" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="F28" t="n">
-        <v>3000</v>
+        <v>16696.4698</v>
       </c>
       <c r="G28" t="n">
-        <v>4.075999999999993</v>
+        <v>-537668.3898658599</v>
       </c>
       <c r="H28" t="n">
-        <v>4.080666666666664</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="C29" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="D29" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="E29" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="F29" t="n">
-        <v>20010</v>
+        <v>30414.6919</v>
       </c>
       <c r="G29" t="n">
-        <v>4.074666666666659</v>
+        <v>-568083.0817658599</v>
       </c>
       <c r="H29" t="n">
-        <v>4.080499999999997</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="C30" t="n">
-        <v>4.08</v>
+        <v>4.03</v>
       </c>
       <c r="D30" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="E30" t="n">
-        <v>4.08</v>
+        <v>4.03</v>
       </c>
       <c r="F30" t="n">
-        <v>9290.4411</v>
+        <v>364453.6636</v>
       </c>
       <c r="G30" t="n">
-        <v>4.075999999999993</v>
+        <v>-932536.7453658599</v>
       </c>
       <c r="H30" t="n">
-        <v>4.080333333333331</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="C31" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="D31" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="E31" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="F31" t="n">
-        <v>7000</v>
+        <v>101249.9753</v>
       </c>
       <c r="G31" t="n">
-        <v>4.075333333333326</v>
+        <v>-831286.7700658599</v>
       </c>
       <c r="H31" t="n">
-        <v>4.080333333333331</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="C32" t="n">
-        <v>4.06</v>
+        <v>4.12</v>
       </c>
       <c r="D32" t="n">
-        <v>4.06</v>
+        <v>4.12</v>
       </c>
       <c r="E32" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="F32" t="n">
-        <v>3345.6621</v>
+        <v>308548.184</v>
       </c>
       <c r="G32" t="n">
-        <v>4.074666666666659</v>
+        <v>-522738.5860658599</v>
       </c>
       <c r="H32" t="n">
-        <v>4.079833333333331</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="C33" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="D33" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="E33" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>24.6295</v>
       </c>
       <c r="G33" t="n">
-        <v>4.075333333333326</v>
+        <v>-522763.2155658599</v>
       </c>
       <c r="H33" t="n">
-        <v>4.079499999999998</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="C34" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="D34" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="E34" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="F34" t="n">
-        <v>128071.2608</v>
+        <v>4505.3545</v>
       </c>
       <c r="G34" t="n">
-        <v>4.074666666666659</v>
+        <v>-518257.8610658598</v>
       </c>
       <c r="H34" t="n">
-        <v>4.078499999999997</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="C35" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="D35" t="n">
         <v>4.07</v>
       </c>
       <c r="E35" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="F35" t="n">
-        <v>20000</v>
+        <v>82606</v>
       </c>
       <c r="G35" t="n">
-        <v>4.073333333333326</v>
+        <v>-600863.8610658599</v>
       </c>
       <c r="H35" t="n">
-        <v>4.077999999999998</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="C36" t="n">
-        <v>4.08</v>
+        <v>4.02</v>
       </c>
       <c r="D36" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="E36" t="n">
-        <v>4.08</v>
+        <v>4.02</v>
       </c>
       <c r="F36" t="n">
-        <v>2500</v>
+        <v>448792.6511</v>
       </c>
       <c r="G36" t="n">
-        <v>4.074666666666659</v>
+        <v>-1049656.51216586</v>
       </c>
       <c r="H36" t="n">
-        <v>4.078166666666664</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C37" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="D37" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="E37" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="F37" t="n">
-        <v>35000</v>
+        <v>134967.5665</v>
       </c>
       <c r="G37" t="n">
-        <v>4.075999999999993</v>
+        <v>-914688.9456658599</v>
       </c>
       <c r="H37" t="n">
-        <v>4.078499999999998</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C38" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="D38" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="E38" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="F38" t="n">
-        <v>2500</v>
+        <v>248.0726</v>
       </c>
       <c r="G38" t="n">
-        <v>4.073333333333326</v>
+        <v>-914937.0182658598</v>
       </c>
       <c r="H38" t="n">
-        <v>4.078166666666664</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="C39" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D39" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="E39" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F39" t="n">
-        <v>24.7518</v>
+        <v>66328.8177</v>
       </c>
       <c r="G39" t="n">
-        <v>4.069999999999992</v>
+        <v>-848608.2005658598</v>
       </c>
       <c r="H39" t="n">
-        <v>4.077333333333332</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="C40" t="n">
-        <v>4.04</v>
+        <v>4.1</v>
       </c>
       <c r="D40" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="E40" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="F40" t="n">
-        <v>14975.2482</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="n">
-        <v>4.068666666666659</v>
+        <v>-843608.2005658598</v>
       </c>
       <c r="H40" t="n">
-        <v>4.076333333333332</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C41" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="D41" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="E41" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G41" t="n">
-        <v>4.068666666666659</v>
+        <v>-853608.2005658598</v>
       </c>
       <c r="H41" t="n">
-        <v>4.075999999999998</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="C42" t="n">
-        <v>4.05</v>
+        <v>4.11</v>
       </c>
       <c r="D42" t="n">
-        <v>4.05</v>
+        <v>4.11</v>
       </c>
       <c r="E42" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="F42" t="n">
-        <v>7819.95</v>
+        <v>17471.2255</v>
       </c>
       <c r="G42" t="n">
-        <v>4.065333333333325</v>
+        <v>-836136.9750658597</v>
       </c>
       <c r="H42" t="n">
-        <v>4.075499999999998</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="C43" t="n">
-        <v>4.03</v>
+        <v>4.1</v>
       </c>
       <c r="D43" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="E43" t="n">
-        <v>4.03</v>
+        <v>4.1</v>
       </c>
       <c r="F43" t="n">
-        <v>20000</v>
+        <v>0.3087</v>
       </c>
       <c r="G43" t="n">
-        <v>4.061999999999992</v>
+        <v>-836137.2837658598</v>
       </c>
       <c r="H43" t="n">
-        <v>4.074999999999998</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+        <v>4.11</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4.11</v>
+      </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1907,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="C44" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D44" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="E44" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F44" t="n">
-        <v>208456.6917</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="n">
-        <v>4.059999999999992</v>
+        <v>-841137.2837658598</v>
       </c>
       <c r="H44" t="n">
-        <v>4.074333333333332</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1948,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="C45" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="D45" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="E45" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="F45" t="n">
-        <v>9975</v>
+        <v>72524</v>
       </c>
       <c r="G45" t="n">
-        <v>4.057999999999992</v>
+        <v>-768613.2837658598</v>
       </c>
       <c r="H45" t="n">
-        <v>4.073666666666665</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1989,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="C46" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="D46" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="E46" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="F46" t="n">
-        <v>130213.019</v>
+        <v>132725.6314</v>
       </c>
       <c r="G46" t="n">
-        <v>4.057333333333324</v>
+        <v>-768613.2837658598</v>
       </c>
       <c r="H46" t="n">
-        <v>4.072833333333332</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2024,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="C47" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="D47" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="E47" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="F47" t="n">
-        <v>190817.7092</v>
+        <v>1434.1523</v>
       </c>
       <c r="G47" t="n">
-        <v>4.055999999999992</v>
+        <v>-768613.2837658598</v>
       </c>
       <c r="H47" t="n">
-        <v>4.072499999999999</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2059,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="C48" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="D48" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="E48" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="F48" t="n">
-        <v>3489</v>
+        <v>8188</v>
       </c>
       <c r="G48" t="n">
-        <v>4.053333333333326</v>
+        <v>-768613.2837658598</v>
       </c>
       <c r="H48" t="n">
-        <v>4.071499999999999</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2094,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="C49" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="D49" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="E49" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="F49" t="n">
-        <v>247.5247</v>
+        <v>22992.1393</v>
       </c>
       <c r="G49" t="n">
-        <v>4.051999999999992</v>
+        <v>-768613.2837658598</v>
       </c>
       <c r="H49" t="n">
-        <v>4.069999999999999</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2129,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="C50" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="D50" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="E50" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="F50" t="n">
-        <v>2500</v>
+        <v>29602</v>
       </c>
       <c r="G50" t="n">
-        <v>4.051333333333327</v>
+        <v>-798215.2837658598</v>
       </c>
       <c r="H50" t="n">
-        <v>4.068999999999998</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2164,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="C51" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="D51" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="E51" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="F51" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G51" t="n">
-        <v>4.04866666666666</v>
+        <v>-788215.2837658598</v>
       </c>
       <c r="H51" t="n">
-        <v>4.067499999999998</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2199,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.03</v>
+        <v>4.06</v>
       </c>
       <c r="C52" t="n">
-        <v>4.03</v>
+        <v>4.1</v>
       </c>
       <c r="D52" t="n">
-        <v>4.03</v>
+        <v>4.1</v>
       </c>
       <c r="E52" t="n">
-        <v>4.03</v>
+        <v>4.06</v>
       </c>
       <c r="F52" t="n">
-        <v>12723.4851</v>
+        <v>6000</v>
       </c>
       <c r="G52" t="n">
-        <v>4.04466666666666</v>
+        <v>-782215.2837658598</v>
       </c>
       <c r="H52" t="n">
-        <v>4.065833333333332</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2234,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="C53" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="D53" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="E53" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="F53" t="n">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="G53" t="n">
-        <v>4.04466666666666</v>
+        <v>-782215.2837658598</v>
       </c>
       <c r="H53" t="n">
-        <v>4.064999999999999</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2269,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="C54" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D54" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="E54" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="G54" t="n">
-        <v>4.04466666666666</v>
+        <v>-789715.2837658598</v>
       </c>
       <c r="H54" t="n">
-        <v>4.063833333333331</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2304,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="C55" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="D55" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="E55" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="F55" t="n">
-        <v>2547.2239</v>
+        <v>5000</v>
       </c>
       <c r="G55" t="n">
-        <v>4.044666666666661</v>
+        <v>-789715.2837658598</v>
       </c>
       <c r="H55" t="n">
-        <v>4.062833333333332</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2339,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="C56" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="D56" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="E56" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="F56" t="n">
-        <v>3051.358</v>
+        <v>500</v>
       </c>
       <c r="G56" t="n">
-        <v>4.043999999999994</v>
+        <v>-789215.2837658598</v>
       </c>
       <c r="H56" t="n">
-        <v>4.061999999999999</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2374,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="C57" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="D57" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="E57" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="F57" t="n">
-        <v>1520.8073</v>
+        <v>3000</v>
       </c>
       <c r="G57" t="n">
-        <v>4.043999999999994</v>
+        <v>-792215.2837658598</v>
       </c>
       <c r="H57" t="n">
-        <v>4.061833333333332</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2409,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="C58" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="D58" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="E58" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="F58" t="n">
-        <v>79.1927</v>
+        <v>20010</v>
       </c>
       <c r="G58" t="n">
-        <v>4.045333333333327</v>
+        <v>-792215.2837658598</v>
       </c>
       <c r="H58" t="n">
-        <v>4.061666666666666</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2444,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="C59" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="D59" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="E59" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="F59" t="n">
-        <v>9558.4884</v>
+        <v>9290.4411</v>
       </c>
       <c r="G59" t="n">
-        <v>4.045333333333327</v>
+        <v>-792215.2837658598</v>
       </c>
       <c r="H59" t="n">
-        <v>4.061499999999999</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2479,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="C60" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D60" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="E60" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F60" t="n">
-        <v>30041.5116</v>
+        <v>7000</v>
       </c>
       <c r="G60" t="n">
-        <v>4.045333333333327</v>
+        <v>-799215.2837658598</v>
       </c>
       <c r="H60" t="n">
-        <v>4.061499999999999</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2683,33 +2517,30 @@
         <v>4.06</v>
       </c>
       <c r="C61" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="D61" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="E61" t="n">
         <v>4.06</v>
       </c>
       <c r="F61" t="n">
-        <v>66132.1118</v>
+        <v>3345.6621</v>
       </c>
       <c r="G61" t="n">
-        <v>4.047999999999994</v>
+        <v>-799215.2837658598</v>
       </c>
       <c r="H61" t="n">
-        <v>4.062499999999999</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2549,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="C62" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="D62" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="E62" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="F62" t="n">
-        <v>24061.5004</v>
+        <v>5000</v>
       </c>
       <c r="G62" t="n">
-        <v>4.051333333333328</v>
+        <v>-794215.2837658598</v>
       </c>
       <c r="H62" t="n">
-        <v>4.063166666666666</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2584,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="C63" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="D63" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="E63" t="n">
         <v>4.06</v>
       </c>
       <c r="F63" t="n">
-        <v>30424.6919</v>
+        <v>128071.2608</v>
       </c>
       <c r="G63" t="n">
-        <v>4.055333333333328</v>
+        <v>-922286.5445658598</v>
       </c>
       <c r="H63" t="n">
-        <v>4.062833333333332</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2797,33 +2622,30 @@
         <v>4.06</v>
       </c>
       <c r="C64" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="D64" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="E64" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="F64" t="n">
-        <v>1931.6959</v>
+        <v>20000</v>
       </c>
       <c r="G64" t="n">
-        <v>4.056666666666661</v>
+        <v>-942286.5445658598</v>
       </c>
       <c r="H64" t="n">
-        <v>4.063166666666666</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2835,33 +2657,30 @@
         <v>4.08</v>
       </c>
       <c r="C65" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="D65" t="n">
         <v>4.08</v>
       </c>
       <c r="E65" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="F65" t="n">
-        <v>57121.4911</v>
+        <v>2500</v>
       </c>
       <c r="G65" t="n">
-        <v>4.058666666666661</v>
+        <v>-939786.5445658598</v>
       </c>
       <c r="H65" t="n">
-        <v>4.062833333333332</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,7 +2689,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="C66" t="n">
         <v>4.09</v>
@@ -2879,27 +2698,24 @@
         <v>4.09</v>
       </c>
       <c r="E66" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="F66" t="n">
-        <v>10029.8769</v>
+        <v>35000</v>
       </c>
       <c r="G66" t="n">
-        <v>4.061999999999994</v>
+        <v>-904786.5445658598</v>
       </c>
       <c r="H66" t="n">
-        <v>4.063166666666666</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2724,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="C67" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="D67" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="E67" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F67" t="n">
-        <v>5009.9368</v>
+        <v>2500</v>
       </c>
       <c r="G67" t="n">
-        <v>4.064666666666661</v>
+        <v>-907286.5445658598</v>
       </c>
       <c r="H67" t="n">
-        <v>4.063999999999998</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2759,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="C68" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="D68" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="E68" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="F68" t="n">
-        <v>643.4087</v>
+        <v>24.7518</v>
       </c>
       <c r="G68" t="n">
-        <v>4.065999999999994</v>
+        <v>-907311.2963658598</v>
       </c>
       <c r="H68" t="n">
-        <v>4.064333333333332</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2794,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="C69" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="D69" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="E69" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="F69" t="n">
-        <v>20</v>
+        <v>14975.2482</v>
       </c>
       <c r="G69" t="n">
-        <v>4.068666666666661</v>
+        <v>-922286.5445658598</v>
       </c>
       <c r="H69" t="n">
-        <v>4.064999999999999</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2829,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C70" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="D70" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="E70" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="F70" t="n">
-        <v>4356.5913</v>
+        <v>5000</v>
       </c>
       <c r="G70" t="n">
-        <v>4.071333333333327</v>
+        <v>-917286.5445658598</v>
       </c>
       <c r="H70" t="n">
-        <v>4.065333333333332</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2864,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="C71" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="D71" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="E71" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="F71" t="n">
-        <v>18977.3955</v>
+        <v>7819.95</v>
       </c>
       <c r="G71" t="n">
-        <v>4.072666666666661</v>
+        <v>-925106.4945658598</v>
       </c>
       <c r="H71" t="n">
-        <v>4.064833333333332</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2899,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C72" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="D72" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="E72" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="F72" t="n">
-        <v>18006.1727</v>
+        <v>20000</v>
       </c>
       <c r="G72" t="n">
-        <v>4.072666666666661</v>
+        <v>-945106.4945658598</v>
       </c>
       <c r="H72" t="n">
-        <v>4.065</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2934,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="C73" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D73" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="E73" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="F73" t="n">
-        <v>8404.358200000001</v>
+        <v>208456.6917</v>
       </c>
       <c r="G73" t="n">
-        <v>4.071999999999995</v>
+        <v>-736649.8028658598</v>
       </c>
       <c r="H73" t="n">
-        <v>4.063833333333332</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3186,28 +2981,21 @@
         <v>4.05</v>
       </c>
       <c r="F74" t="n">
-        <v>19993.1956</v>
+        <v>9975</v>
       </c>
       <c r="G74" t="n">
-        <v>4.071999999999995</v>
+        <v>-736649.8028658598</v>
       </c>
       <c r="H74" t="n">
-        <v>4.062999999999999</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L74" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3228,32 +3016,25 @@
         <v>4.05</v>
       </c>
       <c r="F75" t="n">
-        <v>10289.8765</v>
+        <v>130213.019</v>
       </c>
       <c r="G75" t="n">
-        <v>4.071999999999995</v>
+        <v>-736649.8028658598</v>
       </c>
       <c r="H75" t="n">
-        <v>4.062833333333333</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="K75" t="n">
         <v>4.05</v>
       </c>
-      <c r="L75" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3274,32 +3055,27 @@
         <v>4.04</v>
       </c>
       <c r="F76" t="n">
-        <v>5440</v>
+        <v>190817.7092</v>
       </c>
       <c r="G76" t="n">
-        <v>4.068666666666662</v>
+        <v>-927467.5120658599</v>
       </c>
       <c r="H76" t="n">
-        <v>4.062333333333332</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
         <v>4.05</v>
       </c>
-      <c r="L76" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="M76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3320,24 +3096,27 @@
         <v>4.04</v>
       </c>
       <c r="F77" t="n">
-        <v>57063.7554</v>
+        <v>3489</v>
       </c>
       <c r="G77" t="n">
-        <v>4.065333333333329</v>
+        <v>-927467.5120658599</v>
       </c>
       <c r="H77" t="n">
-        <v>4.061833333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3346,40 +3125,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="C78" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="D78" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="E78" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="F78" t="n">
-        <v>7006.6176</v>
+        <v>247.5247</v>
       </c>
       <c r="G78" t="n">
-        <v>4.063999999999996</v>
+        <v>-927467.5120658599</v>
       </c>
       <c r="H78" t="n">
-        <v>4.061999999999999</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,42 +3160,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="C79" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="D79" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="E79" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="F79" t="n">
-        <v>66002.1115</v>
+        <v>2500</v>
       </c>
       <c r="G79" t="n">
-        <v>4.061999999999995</v>
+        <v>-927467.5120658599</v>
       </c>
       <c r="H79" t="n">
-        <v>4.061333333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3432,42 +3195,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="C80" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="D80" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="E80" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="F80" t="n">
-        <v>215613.1011</v>
+        <v>5000</v>
       </c>
       <c r="G80" t="n">
-        <v>4.059333333333329</v>
+        <v>-927467.5120658599</v>
       </c>
       <c r="H80" t="n">
-        <v>4.060666666666666</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,36 +3230,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="C81" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="D81" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="E81" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="F81" t="n">
-        <v>500</v>
+        <v>12723.4851</v>
       </c>
       <c r="G81" t="n">
-        <v>4.059333333333328</v>
+        <v>-940190.9971658599</v>
       </c>
       <c r="H81" t="n">
-        <v>4.061166666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3514,36 +3265,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="C82" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="D82" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="E82" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="F82" t="n">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="G82" t="n">
-        <v>4.061333333333327</v>
+        <v>-930190.9971658599</v>
       </c>
       <c r="H82" t="n">
-        <v>4.061666666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3552,36 +3300,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="C83" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="D83" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="E83" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="F83" t="n">
-        <v>77893.5845</v>
+        <v>5000</v>
       </c>
       <c r="G83" t="n">
-        <v>4.061999999999994</v>
+        <v>-935190.9971658599</v>
       </c>
       <c r="H83" t="n">
-        <v>4.0615</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+        <v>4.06</v>
+      </c>
+      <c r="K83" t="n">
+        <v>4.06</v>
+      </c>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3590,36 +3339,41 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="C84" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="D84" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="E84" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="F84" t="n">
-        <v>39</v>
+        <v>2547.2239</v>
       </c>
       <c r="G84" t="n">
-        <v>4.059999999999993</v>
+        <v>-937738.2210658599</v>
       </c>
       <c r="H84" t="n">
-        <v>4.060833333333333</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K84" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3628,36 +3382,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C85" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="D85" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="E85" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="F85" t="n">
-        <v>43641.4384</v>
+        <v>3051.358</v>
       </c>
       <c r="G85" t="n">
-        <v>4.058666666666661</v>
+        <v>-934686.8630658599</v>
       </c>
       <c r="H85" t="n">
-        <v>4.060833333333333</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K85" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3678,24 +3437,21 @@
         <v>4.05</v>
       </c>
       <c r="F86" t="n">
-        <v>36936.5646</v>
+        <v>1520.8073</v>
       </c>
       <c r="G86" t="n">
-        <v>4.057333333333327</v>
+        <v>-934686.8630658599</v>
       </c>
       <c r="H86" t="n">
-        <v>4.060666666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3716,24 +3472,25 @@
         <v>4.05</v>
       </c>
       <c r="F87" t="n">
-        <v>47763</v>
+        <v>79.1927</v>
       </c>
       <c r="G87" t="n">
-        <v>4.057333333333328</v>
+        <v>-934686.8630658599</v>
       </c>
       <c r="H87" t="n">
-        <v>4.059833333333334</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+        <v>4.05</v>
+      </c>
+      <c r="K87" t="n">
+        <v>4.05</v>
+      </c>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3745,39 +3502,36 @@
         <v>4.05</v>
       </c>
       <c r="C88" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="D88" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="E88" t="n">
         <v>4.05</v>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>9558.4884</v>
       </c>
       <c r="G88" t="n">
-        <v>4.060666666666661</v>
+        <v>-934686.8630658599</v>
       </c>
       <c r="H88" t="n">
-        <v>4.06</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>4.05</v>
       </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3786,40 +3540,41 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="C89" t="n">
-        <v>4.11</v>
+        <v>4.05</v>
       </c>
       <c r="D89" t="n">
-        <v>4.11</v>
+        <v>4.05</v>
       </c>
       <c r="E89" t="n">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="F89" t="n">
-        <v>2411968.4706</v>
+        <v>30041.5116</v>
       </c>
       <c r="G89" t="n">
-        <v>4.064666666666662</v>
+        <v>-934686.8630658599</v>
       </c>
       <c r="H89" t="n">
-        <v>4.0605</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K89" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,40 +3583,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C90" t="n">
         <v>4.09</v>
       </c>
-      <c r="C90" t="n">
-        <v>4.11</v>
-      </c>
       <c r="D90" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="E90" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="F90" t="n">
-        <v>82960.82919999999</v>
+        <v>66132.1118</v>
       </c>
       <c r="G90" t="n">
-        <v>4.068666666666662</v>
+        <v>-868554.7512658599</v>
       </c>
       <c r="H90" t="n">
-        <v>4.061000000000001</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3870,40 +3618,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="C91" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="D91" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="E91" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="F91" t="n">
-        <v>1000</v>
+        <v>24061.5004</v>
       </c>
       <c r="G91" t="n">
-        <v>4.073333333333329</v>
+        <v>-868554.7512658599</v>
       </c>
       <c r="H91" t="n">
-        <v>4.061833333333334</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,40 +3653,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="C92" t="n">
-        <v>4.11</v>
+        <v>4.1</v>
       </c>
       <c r="D92" t="n">
-        <v>4.11</v>
+        <v>4.1</v>
       </c>
       <c r="E92" t="n">
-        <v>4.11</v>
+        <v>4.06</v>
       </c>
       <c r="F92" t="n">
-        <v>1000</v>
+        <v>30424.6919</v>
       </c>
       <c r="G92" t="n">
-        <v>4.077999999999996</v>
+        <v>-838130.05936586</v>
       </c>
       <c r="H92" t="n">
-        <v>4.062666666666668</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3954,40 +3688,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.11</v>
+        <v>4.06</v>
       </c>
       <c r="C93" t="n">
-        <v>4.11</v>
+        <v>4.06</v>
       </c>
       <c r="D93" t="n">
-        <v>4.11</v>
+        <v>4.06</v>
       </c>
       <c r="E93" t="n">
-        <v>4.11</v>
+        <v>4.06</v>
       </c>
       <c r="F93" t="n">
-        <v>400</v>
+        <v>1931.6959</v>
       </c>
       <c r="G93" t="n">
-        <v>4.079999999999997</v>
+        <v>-840061.75526586</v>
       </c>
       <c r="H93" t="n">
-        <v>4.063166666666667</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3996,40 +3723,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.11</v>
+        <v>4.08</v>
       </c>
       <c r="C94" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="D94" t="n">
-        <v>4.11</v>
+        <v>4.08</v>
       </c>
       <c r="E94" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="F94" t="n">
-        <v>1000</v>
+        <v>57121.4911</v>
       </c>
       <c r="G94" t="n">
-        <v>4.085333333333329</v>
+        <v>-782940.26416586</v>
       </c>
       <c r="H94" t="n">
-        <v>4.064000000000001</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,40 +3758,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="C95" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="D95" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="E95" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="F95" t="n">
-        <v>1399.756</v>
+        <v>10029.8769</v>
       </c>
       <c r="G95" t="n">
-        <v>4.089999999999995</v>
+        <v>-772910.38726586</v>
       </c>
       <c r="H95" t="n">
-        <v>4.064833333333334</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4092,28 +3805,27 @@
         <v>4.07</v>
       </c>
       <c r="F96" t="n">
-        <v>13804.4226</v>
+        <v>5009.9368</v>
       </c>
       <c r="G96" t="n">
-        <v>4.088666666666662</v>
+        <v>-777920.32406586</v>
       </c>
       <c r="H96" t="n">
-        <v>4.064666666666667</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>4.09</v>
       </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4125,37 +3837,34 @@
         <v>4.08</v>
       </c>
       <c r="C97" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="D97" t="n">
         <v>4.08</v>
       </c>
       <c r="E97" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="F97" t="n">
-        <v>9100</v>
+        <v>643.4087</v>
       </c>
       <c r="G97" t="n">
-        <v>4.086666666666662</v>
+        <v>-777276.91536586</v>
       </c>
       <c r="H97" t="n">
-        <v>4.064333333333334</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4164,40 +3873,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="C98" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="D98" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="E98" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="F98" t="n">
-        <v>205721.6109</v>
+        <v>20</v>
       </c>
       <c r="G98" t="n">
-        <v>4.083999999999994</v>
+        <v>-777256.91536586</v>
       </c>
       <c r="H98" t="n">
-        <v>4.064166666666667</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4206,40 +3912,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="C99" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="D99" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="E99" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="F99" t="n">
-        <v>34852.9332</v>
+        <v>4356.5913</v>
       </c>
       <c r="G99" t="n">
-        <v>4.086666666666661</v>
+        <v>-781613.50666586</v>
       </c>
       <c r="H99" t="n">
-        <v>4.065</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
+      <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4248,40 +3951,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="C100" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="D100" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="E100" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="F100" t="n">
-        <v>7657.3529</v>
+        <v>18977.3955</v>
       </c>
       <c r="G100" t="n">
-        <v>4.087999999999994</v>
+        <v>-800590.9021658599</v>
       </c>
       <c r="H100" t="n">
-        <v>4.065666666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
+      <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4290,40 +3990,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C101" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="D101" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="E101" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="F101" t="n">
-        <v>5147.0668</v>
+        <v>18006.1727</v>
       </c>
       <c r="G101" t="n">
-        <v>4.089999999999994</v>
+        <v>-818597.0748658599</v>
       </c>
       <c r="H101" t="n">
-        <v>4.066000000000001</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
+      <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,40 +4029,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.1</v>
+        <v>4.04</v>
       </c>
       <c r="C102" t="n">
-        <v>4.1</v>
+        <v>4.04</v>
       </c>
       <c r="D102" t="n">
-        <v>4.1</v>
+        <v>4.04</v>
       </c>
       <c r="E102" t="n">
-        <v>4.1</v>
+        <v>4.04</v>
       </c>
       <c r="F102" t="n">
-        <v>6900</v>
+        <v>8404.358200000001</v>
       </c>
       <c r="G102" t="n">
-        <v>4.093333333333327</v>
+        <v>-827001.43306586</v>
       </c>
       <c r="H102" t="n">
-        <v>4.066833333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
+      <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4374,40 +4068,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="C103" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="D103" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="E103" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="F103" t="n">
-        <v>5117.3218</v>
+        <v>19993.1956</v>
       </c>
       <c r="G103" t="n">
-        <v>4.091999999999994</v>
+        <v>-807008.23746586</v>
       </c>
       <c r="H103" t="n">
-        <v>4.0675</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
+      <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4416,40 +4107,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C104" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="D104" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="E104" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="F104" t="n">
-        <v>70</v>
+        <v>10289.8765</v>
       </c>
       <c r="G104" t="n">
-        <v>4.08866666666666</v>
+        <v>-807008.23746586</v>
       </c>
       <c r="H104" t="n">
-        <v>4.067666666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
+      <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4458,40 +4146,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="C105" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="D105" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="E105" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="F105" t="n">
-        <v>90500</v>
+        <v>5440</v>
       </c>
       <c r="G105" t="n">
-        <v>4.085333333333327</v>
+        <v>-812448.23746586</v>
       </c>
       <c r="H105" t="n">
-        <v>4.067833333333334</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
+      <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4500,40 +4185,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="C106" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="D106" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="E106" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="F106" t="n">
-        <v>6950</v>
+        <v>57063.7554</v>
       </c>
       <c r="G106" t="n">
-        <v>4.081999999999995</v>
+        <v>-812448.23746586</v>
       </c>
       <c r="H106" t="n">
-        <v>4.068</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
+      <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,40 +4226,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="C107" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="D107" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="E107" t="n">
-        <v>4.02</v>
+        <v>4.08</v>
       </c>
       <c r="F107" t="n">
-        <v>220</v>
+        <v>7006.6176</v>
       </c>
       <c r="G107" t="n">
-        <v>4.077333333333328</v>
+        <v>-805441.61986586</v>
       </c>
       <c r="H107" t="n">
-        <v>4.068</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4584,40 +4265,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="C108" t="n">
-        <v>4.02</v>
+        <v>4.03</v>
       </c>
       <c r="D108" t="n">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="E108" t="n">
-        <v>4.02</v>
+        <v>4.03</v>
       </c>
       <c r="F108" t="n">
-        <v>9760</v>
+        <v>66002.1115</v>
       </c>
       <c r="G108" t="n">
-        <v>4.071333333333328</v>
+        <v>-871443.73136586</v>
       </c>
       <c r="H108" t="n">
-        <v>4.067666666666667</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
+      <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4626,40 +4306,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.08</v>
+        <v>4.03</v>
       </c>
       <c r="C109" t="n">
-        <v>4.08</v>
+        <v>4.03</v>
       </c>
       <c r="D109" t="n">
-        <v>4.08</v>
+        <v>4.03</v>
       </c>
       <c r="E109" t="n">
-        <v>4.08</v>
+        <v>4.03</v>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>215613.1011</v>
       </c>
       <c r="G109" t="n">
-        <v>4.069333333333328</v>
+        <v>-871443.73136586</v>
       </c>
       <c r="H109" t="n">
-        <v>4.068333333333333</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
+      <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,40 +4345,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="C110" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="D110" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="E110" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="F110" t="n">
-        <v>28.4313</v>
+        <v>500</v>
       </c>
       <c r="G110" t="n">
-        <v>4.067999999999994</v>
+        <v>-870943.73136586</v>
       </c>
       <c r="H110" t="n">
-        <v>4.069000000000001</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
+      <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,40 +4384,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="C111" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="D111" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="E111" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="F111" t="n">
-        <v>45</v>
+        <v>500</v>
       </c>
       <c r="G111" t="n">
-        <v>4.068666666666662</v>
+        <v>-870443.73136586</v>
       </c>
       <c r="H111" t="n">
-        <v>4.069666666666667</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
+      <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,40 +4423,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="C112" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="D112" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="E112" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="F112" t="n">
-        <v>4176.9041</v>
+        <v>77893.5845</v>
       </c>
       <c r="G112" t="n">
-        <v>4.068666666666662</v>
+        <v>-948337.31586586</v>
       </c>
       <c r="H112" t="n">
-        <v>4.070333333333334</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
+      <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4794,40 +4464,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="C113" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="D113" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="E113" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F113" t="n">
-        <v>32596.5601</v>
+        <v>39</v>
       </c>
       <c r="G113" t="n">
-        <v>4.069999999999995</v>
+        <v>-948376.31586586</v>
       </c>
       <c r="H113" t="n">
-        <v>4.070500000000001</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
+      <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4836,40 +4503,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="C114" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="D114" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="E114" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F114" t="n">
-        <v>13179.6068</v>
+        <v>43641.4384</v>
       </c>
       <c r="G114" t="n">
-        <v>4.067999999999994</v>
+        <v>-948376.31586586</v>
       </c>
       <c r="H114" t="n">
-        <v>4.070833333333334</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
+      <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4890,28 +4554,25 @@
         <v>4.05</v>
       </c>
       <c r="F115" t="n">
-        <v>219773.831</v>
+        <v>36936.5646</v>
       </c>
       <c r="G115" t="n">
-        <v>4.065999999999995</v>
+        <v>-985312.88046586</v>
       </c>
       <c r="H115" t="n">
-        <v>4.071000000000001</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
+      <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4920,40 +4581,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="C116" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D116" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="E116" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="F116" t="n">
-        <v>172469.6123</v>
+        <v>47763</v>
       </c>
       <c r="G116" t="n">
-        <v>4.063333333333329</v>
+        <v>-985312.88046586</v>
       </c>
       <c r="H116" t="n">
-        <v>4.070833333333334</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
+      <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,40 +4620,1168 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="C117" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="D117" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="E117" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="F117" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-983312.88046586</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2411968.4706</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1428655.59013414</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F119" t="n">
+        <v>82960.82919999999</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1428655.59013414</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1428655.59013414</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1428655.59013414</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F122" t="n">
+        <v>400</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1428655.59013414</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1428655.59013414</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1399.756</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1427255.83413414</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F125" t="n">
+        <v>13804.4226</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1413451.41153414</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F126" t="n">
+        <v>9100</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1413451.41153414</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F127" t="n">
+        <v>205721.6109</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1207729.80063414</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>34852.9332</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1242582.73383414</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F129" t="n">
+        <v>7657.3529</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1234925.38093414</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F130" t="n">
+        <v>5147.0668</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1234925.38093414</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>6900</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1241825.38093414</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5117.3218</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1236708.05913414</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F133" t="n">
+        <v>70</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1236638.05913414</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F134" t="n">
+        <v>90500</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1236638.05913414</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6950</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1236638.05913414</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="F136" t="n">
+        <v>220</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1236418.05913414</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="F137" t="n">
+        <v>9760</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1226658.05913414</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1226668.05913414</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F139" t="n">
+        <v>28.4313</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1226668.05913414</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F140" t="n">
+        <v>45</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1226668.05913414</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4176.9041</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1222491.15503414</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F142" t="n">
+        <v>32596.5601</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1222491.15503414</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F143" t="n">
+        <v>13179.6068</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1222491.15503414</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F144" t="n">
+        <v>219773.831</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1002717.32403414</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F145" t="n">
+        <v>172469.6123</v>
+      </c>
+      <c r="G145" t="n">
+        <v>830247.7117341402</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F146" t="n">
         <v>20</v>
       </c>
-      <c r="G117" t="n">
-        <v>4.061333333333328</v>
-      </c>
-      <c r="H117" t="n">
-        <v>4.071166666666667</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
+      <c r="G146" t="n">
+        <v>830267.7117341402</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N117" t="n">
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest XVG.xlsx
+++ b/BackTest/2019-10-19 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="C2" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="D2" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="E2" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F2" t="n">
-        <v>49695.2771</v>
+        <v>5000</v>
       </c>
       <c r="G2" t="n">
-        <v>-6545.913899999992</v>
+        <v>-841137.2837658598</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="C3" t="n">
-        <v>4.12</v>
+        <v>4.07</v>
       </c>
       <c r="D3" t="n">
-        <v>4.12</v>
+        <v>4.07</v>
       </c>
       <c r="E3" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>72524</v>
       </c>
       <c r="G3" t="n">
-        <v>-5545.913899999992</v>
+        <v>-768613.2837658598</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="C4" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="D4" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="E4" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="F4" t="n">
-        <v>11071</v>
+        <v>132725.6314</v>
       </c>
       <c r="G4" t="n">
-        <v>-16616.91389999999</v>
+        <v>-768613.2837658598</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,10 +558,10 @@
         <v>4.07</v>
       </c>
       <c r="F5" t="n">
-        <v>460000</v>
+        <v>1434.1523</v>
       </c>
       <c r="G5" t="n">
-        <v>-476616.9139</v>
+        <v>-768613.2837658598</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -585,16 +594,16 @@
         <v>4.07</v>
       </c>
       <c r="F6" t="n">
-        <v>25394.4914</v>
+        <v>8188</v>
       </c>
       <c r="G6" t="n">
-        <v>-476616.9139</v>
+        <v>-768613.2837658598</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="C7" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="D7" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="E7" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="F7" t="n">
-        <v>5000</v>
+        <v>22992.1393</v>
       </c>
       <c r="G7" t="n">
-        <v>-471616.9139</v>
+        <v>-768613.2837658598</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="C8" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="D8" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="E8" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="F8" t="n">
-        <v>160000</v>
+        <v>29602</v>
       </c>
       <c r="G8" t="n">
-        <v>-311616.9139</v>
+        <v>-798215.2837658598</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="C9" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="D9" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="E9" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="F9" t="n">
-        <v>26459.9414</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="n">
-        <v>-311616.9139</v>
+        <v>-788215.2837658598</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C10" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="D10" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="E10" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="F10" t="n">
-        <v>2834.4151</v>
+        <v>6000</v>
       </c>
       <c r="G10" t="n">
-        <v>-314451.329</v>
+        <v>-782215.2837658598</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="C11" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="D11" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="E11" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="F11" t="n">
-        <v>41558.8827</v>
+        <v>1500</v>
       </c>
       <c r="G11" t="n">
-        <v>-314451.329</v>
+        <v>-782215.2837658598</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -795,10 +810,10 @@
         <v>4.06</v>
       </c>
       <c r="F12" t="n">
-        <v>184599.4153</v>
+        <v>7500</v>
       </c>
       <c r="G12" t="n">
-        <v>-499050.7443</v>
+        <v>-789715.2837658598</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="C13" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="D13" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="E13" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G13" t="n">
-        <v>-499040.7443</v>
+        <v>-789715.2837658598</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="C14" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="D14" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="E14" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="F14" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G14" t="n">
-        <v>-499040.7443</v>
+        <v>-789215.2837658598</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="D15" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="E15" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="F15" t="n">
-        <v>105667.50363414</v>
+        <v>3000</v>
       </c>
       <c r="G15" t="n">
-        <v>-393373.24066586</v>
+        <v>-792215.2837658598</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="C16" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="D16" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="E16" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="F16" t="n">
-        <v>102909.5849</v>
+        <v>20010</v>
       </c>
       <c r="G16" t="n">
-        <v>-496282.82556586</v>
+        <v>-792215.2837658598</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="C17" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="D17" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="E17" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="F17" t="n">
-        <v>2500</v>
+        <v>9290.4411</v>
       </c>
       <c r="G17" t="n">
-        <v>-493782.82556586</v>
+        <v>-792215.2837658598</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.13</v>
+        <v>4.07</v>
       </c>
       <c r="C18" t="n">
-        <v>4.13</v>
+        <v>4.06</v>
       </c>
       <c r="D18" t="n">
-        <v>4.13</v>
+        <v>4.07</v>
       </c>
       <c r="E18" t="n">
-        <v>4.13</v>
+        <v>4.06</v>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>7000</v>
       </c>
       <c r="G18" t="n">
-        <v>-493767.82556586</v>
+        <v>-799215.2837658598</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="C19" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="D19" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="E19" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="F19" t="n">
-        <v>10000</v>
+        <v>3345.6621</v>
       </c>
       <c r="G19" t="n">
-        <v>-503767.82556586</v>
+        <v>-799215.2837658598</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.13</v>
+        <v>4.08</v>
       </c>
       <c r="C20" t="n">
-        <v>4.13</v>
+        <v>4.08</v>
       </c>
       <c r="D20" t="n">
-        <v>4.13</v>
+        <v>4.08</v>
       </c>
       <c r="E20" t="n">
-        <v>4.13</v>
+        <v>4.08</v>
       </c>
       <c r="F20" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G20" t="n">
-        <v>-503267.82556586</v>
+        <v>-794215.2837658598</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="C21" t="n">
-        <v>4.13</v>
+        <v>4.06</v>
       </c>
       <c r="D21" t="n">
-        <v>4.13</v>
+        <v>4.07</v>
       </c>
       <c r="E21" t="n">
-        <v>4.11</v>
+        <v>4.06</v>
       </c>
       <c r="F21" t="n">
-        <v>34749.6349</v>
+        <v>128071.2608</v>
       </c>
       <c r="G21" t="n">
-        <v>-503267.82556586</v>
+        <v>-922286.5445658598</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.12</v>
+        <v>4.06</v>
       </c>
       <c r="C22" t="n">
-        <v>4.11</v>
+        <v>4.05</v>
       </c>
       <c r="D22" t="n">
-        <v>4.12</v>
+        <v>4.07</v>
       </c>
       <c r="E22" t="n">
-        <v>4.11</v>
+        <v>4.05</v>
       </c>
       <c r="F22" t="n">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="G22" t="n">
-        <v>-506267.82556586</v>
+        <v>-942286.5445658598</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.11</v>
+        <v>4.08</v>
       </c>
       <c r="C23" t="n">
-        <v>4.12</v>
+        <v>4.08</v>
       </c>
       <c r="D23" t="n">
-        <v>4.13</v>
+        <v>4.08</v>
       </c>
       <c r="E23" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="F23" t="n">
-        <v>53000</v>
+        <v>2500</v>
       </c>
       <c r="G23" t="n">
-        <v>-453267.82556586</v>
+        <v>-939786.5445658598</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="C24" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="D24" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="E24" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="F24" t="n">
-        <v>3012.0975</v>
+        <v>35000</v>
       </c>
       <c r="G24" t="n">
-        <v>-456279.9230658599</v>
+        <v>-904786.5445658598</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="C25" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="D25" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="E25" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="F25" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G25" t="n">
-        <v>-456279.9230658599</v>
+        <v>-907286.5445658598</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="C26" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="D26" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="E26" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="F26" t="n">
-        <v>81388.46679999999</v>
+        <v>24.7518</v>
       </c>
       <c r="G26" t="n">
-        <v>-537668.3898658599</v>
+        <v>-907311.2963658598</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C27" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="D27" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="E27" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="F27" t="n">
-        <v>1527425.9767</v>
+        <v>14975.2482</v>
       </c>
       <c r="G27" t="n">
-        <v>-537668.3898658599</v>
+        <v>-922286.5445658598</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1355,10 +1386,10 @@
         <v>4.06</v>
       </c>
       <c r="F28" t="n">
-        <v>16696.4698</v>
+        <v>5000</v>
       </c>
       <c r="G28" t="n">
-        <v>-537668.3898658599</v>
+        <v>-917286.5445658598</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1390,10 +1422,10 @@
         <v>4.05</v>
       </c>
       <c r="F29" t="n">
-        <v>30414.6919</v>
+        <v>7819.95</v>
       </c>
       <c r="G29" t="n">
-        <v>-568083.0817658599</v>
+        <v>-925106.4945658598</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="C30" t="n">
         <v>4.03</v>
       </c>
       <c r="D30" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="E30" t="n">
         <v>4.03</v>
       </c>
       <c r="F30" t="n">
-        <v>364453.6636</v>
+        <v>20000</v>
       </c>
       <c r="G30" t="n">
-        <v>-932536.7453658599</v>
+        <v>-945106.4945658598</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="C31" t="n">
         <v>4.05</v>
       </c>
       <c r="D31" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="E31" t="n">
         <v>4.05</v>
       </c>
       <c r="F31" t="n">
-        <v>101249.9753</v>
+        <v>208456.6917</v>
       </c>
       <c r="G31" t="n">
-        <v>-831286.7700658599</v>
+        <v>-736649.8028658598</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="C32" t="n">
-        <v>4.12</v>
+        <v>4.05</v>
       </c>
       <c r="D32" t="n">
-        <v>4.12</v>
+        <v>4.05</v>
       </c>
       <c r="E32" t="n">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="F32" t="n">
-        <v>308548.184</v>
+        <v>9975</v>
       </c>
       <c r="G32" t="n">
-        <v>-522738.5860658599</v>
+        <v>-736649.8028658598</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="C33" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D33" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="E33" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="F33" t="n">
-        <v>24.6295</v>
+        <v>130213.019</v>
       </c>
       <c r="G33" t="n">
-        <v>-522763.2155658599</v>
+        <v>-736649.8028658598</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="C34" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="D34" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="E34" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="F34" t="n">
-        <v>4505.3545</v>
+        <v>190817.7092</v>
       </c>
       <c r="G34" t="n">
-        <v>-518257.8610658598</v>
+        <v>-927467.5120658599</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="C35" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="D35" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="E35" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="F35" t="n">
-        <v>82606</v>
+        <v>3489</v>
       </c>
       <c r="G35" t="n">
-        <v>-600863.8610658599</v>
+        <v>-927467.5120658599</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="C36" t="n">
-        <v>4.02</v>
+        <v>4.04</v>
       </c>
       <c r="D36" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="E36" t="n">
-        <v>4.02</v>
+        <v>4.04</v>
       </c>
       <c r="F36" t="n">
-        <v>448792.6511</v>
+        <v>247.5247</v>
       </c>
       <c r="G36" t="n">
-        <v>-1049656.51216586</v>
+        <v>-927467.5120658599</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="C37" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="D37" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="E37" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="F37" t="n">
-        <v>134967.5665</v>
+        <v>2500</v>
       </c>
       <c r="G37" t="n">
-        <v>-914688.9456658599</v>
+        <v>-927467.5120658599</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="C38" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="D38" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="E38" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="F38" t="n">
-        <v>248.0726</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="n">
-        <v>-914937.0182658598</v>
+        <v>-927467.5120658599</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,76 +1763,91 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="C39" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="D39" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="E39" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="F39" t="n">
-        <v>66328.8177</v>
+        <v>12723.4851</v>
       </c>
       <c r="G39" t="n">
-        <v>-848608.2005658598</v>
+        <v>-940190.9971658599</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.04</v>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="C40" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="D40" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="E40" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G40" t="n">
-        <v>-843608.2005658598</v>
+        <v>-930190.9971658599</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1801,54 +1857,63 @@
         <v>4.05</v>
       </c>
       <c r="C41" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D41" t="n">
         <v>4.05</v>
       </c>
       <c r="E41" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="F41" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="n">
-        <v>-853608.2005658598</v>
+        <v>-935190.9971658599</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="C42" t="n">
-        <v>4.11</v>
+        <v>4.04</v>
       </c>
       <c r="D42" t="n">
-        <v>4.11</v>
+        <v>4.04</v>
       </c>
       <c r="E42" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="F42" t="n">
-        <v>17471.2255</v>
+        <v>2547.2239</v>
       </c>
       <c r="G42" t="n">
-        <v>-836136.9750658597</v>
+        <v>-937738.2210658599</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1927,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="C43" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="D43" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="E43" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3087</v>
+        <v>3051.358</v>
       </c>
       <c r="G43" t="n">
-        <v>-836137.2837658598</v>
+        <v>-934686.8630658599</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -1892,47 +1958,50 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.11</v>
+        <v>4.04</v>
       </c>
       <c r="K43" t="n">
-        <v>4.11</v>
+        <v>4.04</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C44" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="D44" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="E44" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>1520.8073</v>
       </c>
       <c r="G44" t="n">
-        <v>-841137.2837658598</v>
+        <v>-934686.8630658599</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.05</v>
+      </c>
       <c r="K44" t="n">
-        <v>4.11</v>
+        <v>4.04</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -1942,38 +2011,41 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="C45" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="D45" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="E45" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="F45" t="n">
-        <v>72524</v>
+        <v>79.1927</v>
       </c>
       <c r="G45" t="n">
-        <v>-768613.2837658598</v>
+        <v>-934686.8630658599</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4.05</v>
+      </c>
       <c r="K45" t="n">
-        <v>4.11</v>
+        <v>4.04</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -1983,98 +2055,113 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="C46" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="D46" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="E46" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="F46" t="n">
-        <v>132725.6314</v>
+        <v>9558.4884</v>
       </c>
       <c r="G46" t="n">
-        <v>-768613.2837658598</v>
+        <v>-934686.8630658599</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4.05</v>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="C47" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="D47" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="E47" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="F47" t="n">
-        <v>1434.1523</v>
+        <v>30041.5116</v>
       </c>
       <c r="G47" t="n">
-        <v>-768613.2837658598</v>
+        <v>-934686.8630658599</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="C48" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="D48" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="E48" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F48" t="n">
-        <v>8188</v>
+        <v>66132.1118</v>
       </c>
       <c r="G48" t="n">
-        <v>-768613.2837658598</v>
+        <v>-868554.7512658599</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2083,33 +2170,40 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="C49" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="D49" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="E49" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="F49" t="n">
-        <v>22992.1393</v>
+        <v>24061.5004</v>
       </c>
       <c r="G49" t="n">
-        <v>-768613.2837658598</v>
+        <v>-868554.7512658599</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2123,28 +2217,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="C50" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="D50" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="E50" t="n">
         <v>4.06</v>
       </c>
       <c r="F50" t="n">
-        <v>29602</v>
+        <v>30424.6919</v>
       </c>
       <c r="G50" t="n">
-        <v>-798215.2837658598</v>
+        <v>-838130.05936586</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2158,28 +2253,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="C51" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="D51" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="E51" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F51" t="n">
-        <v>10000</v>
+        <v>1931.6959</v>
       </c>
       <c r="G51" t="n">
-        <v>-788215.2837658598</v>
+        <v>-840061.75526586</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2193,28 +2289,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="C52" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="D52" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="E52" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="F52" t="n">
-        <v>6000</v>
+        <v>57121.4911</v>
       </c>
       <c r="G52" t="n">
-        <v>-782215.2837658598</v>
+        <v>-782940.26416586</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2228,28 +2325,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="C53" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="D53" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="E53" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="F53" t="n">
-        <v>1500</v>
+        <v>10029.8769</v>
       </c>
       <c r="G53" t="n">
-        <v>-782215.2837658598</v>
+        <v>-772910.38726586</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2263,28 +2361,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="C54" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="D54" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="E54" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="F54" t="n">
-        <v>7500</v>
+        <v>5009.9368</v>
       </c>
       <c r="G54" t="n">
-        <v>-789715.2837658598</v>
+        <v>-777920.32406586</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2298,28 +2397,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="C55" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="D55" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="E55" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="F55" t="n">
-        <v>5000</v>
+        <v>643.4087</v>
       </c>
       <c r="G55" t="n">
-        <v>-789715.2837658598</v>
+        <v>-777276.91536586</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2333,28 +2433,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="C56" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="D56" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="E56" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="F56" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G56" t="n">
-        <v>-789215.2837658598</v>
+        <v>-777256.91536586</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2368,6 +2469,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2386,10 +2488,10 @@
         <v>4.08</v>
       </c>
       <c r="F57" t="n">
-        <v>3000</v>
+        <v>4356.5913</v>
       </c>
       <c r="G57" t="n">
-        <v>-792215.2837658598</v>
+        <v>-781613.50666586</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2403,28 +2505,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="C58" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="D58" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="E58" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="F58" t="n">
-        <v>20010</v>
+        <v>18977.3955</v>
       </c>
       <c r="G58" t="n">
-        <v>-792215.2837658598</v>
+        <v>-800590.9021658599</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2438,28 +2541,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C59" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="D59" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="E59" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="F59" t="n">
-        <v>9290.4411</v>
+        <v>18006.1727</v>
       </c>
       <c r="G59" t="n">
-        <v>-792215.2837658598</v>
+        <v>-818597.0748658599</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2473,28 +2577,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="C60" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="D60" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="E60" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="F60" t="n">
-        <v>7000</v>
+        <v>8404.358200000001</v>
       </c>
       <c r="G60" t="n">
-        <v>-799215.2837658598</v>
+        <v>-827001.43306586</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2508,28 +2613,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C61" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="D61" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="E61" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="F61" t="n">
-        <v>3345.6621</v>
+        <v>19993.1956</v>
       </c>
       <c r="G61" t="n">
-        <v>-799215.2837658598</v>
+        <v>-807008.23746586</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2543,28 +2649,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="C62" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="D62" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="E62" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="F62" t="n">
-        <v>5000</v>
+        <v>10289.8765</v>
       </c>
       <c r="G62" t="n">
-        <v>-794215.2837658598</v>
+        <v>-807008.23746586</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2578,28 +2685,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="C63" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="D63" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="E63" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="F63" t="n">
-        <v>128071.2608</v>
+        <v>5440</v>
       </c>
       <c r="G63" t="n">
-        <v>-922286.5445658598</v>
+        <v>-812448.23746586</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2613,28 +2721,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="C64" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="D64" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="E64" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="F64" t="n">
-        <v>20000</v>
+        <v>57063.7554</v>
       </c>
       <c r="G64" t="n">
-        <v>-942286.5445658598</v>
+        <v>-812448.23746586</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2648,6 +2757,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2666,10 +2776,10 @@
         <v>4.08</v>
       </c>
       <c r="F65" t="n">
-        <v>2500</v>
+        <v>7006.6176</v>
       </c>
       <c r="G65" t="n">
-        <v>-939786.5445658598</v>
+        <v>-805441.61986586</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2683,28 +2793,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.08</v>
+        <v>4.03</v>
       </c>
       <c r="C66" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="D66" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="E66" t="n">
-        <v>4.08</v>
+        <v>4.03</v>
       </c>
       <c r="F66" t="n">
-        <v>35000</v>
+        <v>66002.1115</v>
       </c>
       <c r="G66" t="n">
-        <v>-904786.5445658598</v>
+        <v>-871443.73136586</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2718,28 +2829,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="C67" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="D67" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="E67" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="F67" t="n">
-        <v>2500</v>
+        <v>215613.1011</v>
       </c>
       <c r="G67" t="n">
-        <v>-907286.5445658598</v>
+        <v>-871443.73136586</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2753,28 +2865,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="C68" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="D68" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="E68" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="F68" t="n">
-        <v>24.7518</v>
+        <v>500</v>
       </c>
       <c r="G68" t="n">
-        <v>-907311.2963658598</v>
+        <v>-870943.73136586</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2788,28 +2901,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="C69" t="n">
-        <v>4.04</v>
+        <v>4.1</v>
       </c>
       <c r="D69" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="E69" t="n">
-        <v>4.04</v>
+        <v>4.1</v>
       </c>
       <c r="F69" t="n">
-        <v>14975.2482</v>
+        <v>500</v>
       </c>
       <c r="G69" t="n">
-        <v>-922286.5445658598</v>
+        <v>-870443.73136586</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2823,28 +2937,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="C70" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="D70" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="E70" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="F70" t="n">
-        <v>5000</v>
+        <v>77893.5845</v>
       </c>
       <c r="G70" t="n">
-        <v>-917286.5445658598</v>
+        <v>-948337.31586586</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2858,28 +2973,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="C71" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D71" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="E71" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F71" t="n">
-        <v>7819.95</v>
+        <v>39</v>
       </c>
       <c r="G71" t="n">
-        <v>-925106.4945658598</v>
+        <v>-948376.31586586</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2893,28 +3009,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="C72" t="n">
-        <v>4.03</v>
+        <v>4.06</v>
       </c>
       <c r="D72" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="E72" t="n">
-        <v>4.03</v>
+        <v>4.06</v>
       </c>
       <c r="F72" t="n">
-        <v>20000</v>
+        <v>43641.4384</v>
       </c>
       <c r="G72" t="n">
-        <v>-945106.4945658598</v>
+        <v>-948376.31586586</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2928,6 +3045,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2946,10 +3064,10 @@
         <v>4.05</v>
       </c>
       <c r="F73" t="n">
-        <v>208456.6917</v>
+        <v>36936.5646</v>
       </c>
       <c r="G73" t="n">
-        <v>-736649.8028658598</v>
+        <v>-985312.88046586</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2963,6 +3081,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2981,10 +3100,10 @@
         <v>4.05</v>
       </c>
       <c r="F74" t="n">
-        <v>9975</v>
+        <v>47763</v>
       </c>
       <c r="G74" t="n">
-        <v>-736649.8028658598</v>
+        <v>-985312.88046586</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2998,6 +3117,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3007,36 +3127,33 @@
         <v>4.05</v>
       </c>
       <c r="C75" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="D75" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="E75" t="n">
         <v>4.05</v>
       </c>
       <c r="F75" t="n">
-        <v>130213.019</v>
+        <v>2000</v>
       </c>
       <c r="G75" t="n">
-        <v>-736649.8028658598</v>
+        <v>-983312.88046586</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K75" t="n">
-        <v>4.05</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3046,19 +3163,19 @@
         <v>4.04</v>
       </c>
       <c r="C76" t="n">
-        <v>4.04</v>
+        <v>4.11</v>
       </c>
       <c r="D76" t="n">
-        <v>4.04</v>
+        <v>4.11</v>
       </c>
       <c r="E76" t="n">
-        <v>4.04</v>
+        <v>4.02</v>
       </c>
       <c r="F76" t="n">
-        <v>190817.7092</v>
+        <v>2411968.4706</v>
       </c>
       <c r="G76" t="n">
-        <v>-927467.5120658599</v>
+        <v>1428655.59013414</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3067,39 +3184,34 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
       <c r="C77" t="n">
-        <v>4.04</v>
+        <v>4.11</v>
       </c>
       <c r="D77" t="n">
-        <v>4.04</v>
+        <v>4.11</v>
       </c>
       <c r="E77" t="n">
         <v>4.04</v>
       </c>
       <c r="F77" t="n">
-        <v>3489</v>
+        <v>82960.82919999999</v>
       </c>
       <c r="G77" t="n">
-        <v>-927467.5120658599</v>
+        <v>1428655.59013414</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3108,39 +3220,34 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.04</v>
+        <v>4.11</v>
       </c>
       <c r="C78" t="n">
-        <v>4.04</v>
+        <v>4.11</v>
       </c>
       <c r="D78" t="n">
-        <v>4.04</v>
+        <v>4.11</v>
       </c>
       <c r="E78" t="n">
-        <v>4.04</v>
+        <v>4.11</v>
       </c>
       <c r="F78" t="n">
-        <v>247.5247</v>
+        <v>1000</v>
       </c>
       <c r="G78" t="n">
-        <v>-927467.5120658599</v>
+        <v>1428655.59013414</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3154,28 +3261,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.04</v>
+        <v>4.11</v>
       </c>
       <c r="C79" t="n">
-        <v>4.04</v>
+        <v>4.11</v>
       </c>
       <c r="D79" t="n">
-        <v>4.04</v>
+        <v>4.11</v>
       </c>
       <c r="E79" t="n">
-        <v>4.04</v>
+        <v>4.11</v>
       </c>
       <c r="F79" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="G79" t="n">
-        <v>-927467.5120658599</v>
+        <v>1428655.59013414</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3189,28 +3297,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.04</v>
+        <v>4.11</v>
       </c>
       <c r="C80" t="n">
-        <v>4.04</v>
+        <v>4.11</v>
       </c>
       <c r="D80" t="n">
-        <v>4.04</v>
+        <v>4.11</v>
       </c>
       <c r="E80" t="n">
-        <v>4.04</v>
+        <v>4.11</v>
       </c>
       <c r="F80" t="n">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="G80" t="n">
-        <v>-927467.5120658599</v>
+        <v>1428655.59013414</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3224,28 +3333,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.03</v>
+        <v>4.11</v>
       </c>
       <c r="C81" t="n">
-        <v>4.03</v>
+        <v>4.11</v>
       </c>
       <c r="D81" t="n">
-        <v>4.03</v>
+        <v>4.11</v>
       </c>
       <c r="E81" t="n">
-        <v>4.03</v>
+        <v>4.11</v>
       </c>
       <c r="F81" t="n">
-        <v>12723.4851</v>
+        <v>1000</v>
       </c>
       <c r="G81" t="n">
-        <v>-940190.9971658599</v>
+        <v>1428655.59013414</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3259,28 +3369,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="C82" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="D82" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="E82" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="F82" t="n">
-        <v>10000</v>
+        <v>1399.756</v>
       </c>
       <c r="G82" t="n">
-        <v>-930190.9971658599</v>
+        <v>1427255.83413414</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3294,153 +3405,137 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="C83" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="D83" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="E83" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="F83" t="n">
-        <v>5000</v>
+        <v>13804.4226</v>
       </c>
       <c r="G83" t="n">
-        <v>-935190.9971658599</v>
+        <v>1413451.41153414</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K83" t="n">
-        <v>4.06</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="C84" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="D84" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="E84" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="F84" t="n">
-        <v>2547.2239</v>
+        <v>9100</v>
       </c>
       <c r="G84" t="n">
-        <v>-937738.2210658599</v>
+        <v>1413451.41153414</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K84" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="C85" t="n">
         <v>4.05</v>
       </c>
       <c r="D85" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="E85" t="n">
         <v>4.05</v>
       </c>
       <c r="F85" t="n">
-        <v>3051.358</v>
+        <v>205721.6109</v>
       </c>
       <c r="G85" t="n">
-        <v>-934686.8630658599</v>
+        <v>1207729.80063414</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K85" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="C86" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="D86" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="E86" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="F86" t="n">
-        <v>1520.8073</v>
+        <v>34852.9332</v>
       </c>
       <c r="G86" t="n">
-        <v>-934686.8630658599</v>
+        <v>1242582.73383414</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3454,67 +3549,65 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="C87" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="D87" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="E87" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="F87" t="n">
-        <v>79.1927</v>
+        <v>7657.3529</v>
       </c>
       <c r="G87" t="n">
-        <v>-934686.8630658599</v>
+        <v>1234925.38093414</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K87" t="n">
-        <v>4.05</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="C88" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="D88" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="E88" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="F88" t="n">
-        <v>9558.4884</v>
+        <v>5147.0668</v>
       </c>
       <c r="G88" t="n">
-        <v>-934686.8630658599</v>
+        <v>1234925.38093414</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3523,82 +3616,70 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="C89" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="D89" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="E89" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="F89" t="n">
-        <v>30041.5116</v>
+        <v>6900</v>
       </c>
       <c r="G89" t="n">
-        <v>-934686.8630658599</v>
+        <v>1241825.38093414</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K89" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="C90" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="D90" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="E90" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="F90" t="n">
-        <v>66132.1118</v>
+        <v>5117.3218</v>
       </c>
       <c r="G90" t="n">
-        <v>-868554.7512658599</v>
+        <v>1236708.05913414</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3612,34 +3693,35 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="C91" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="D91" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="E91" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="F91" t="n">
-        <v>24061.5004</v>
+        <v>70</v>
       </c>
       <c r="G91" t="n">
-        <v>-868554.7512658599</v>
+        <v>1236638.05913414</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3647,34 +3729,35 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="C92" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="D92" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="E92" t="n">
         <v>4.06</v>
       </c>
       <c r="F92" t="n">
-        <v>30424.6919</v>
+        <v>90500</v>
       </c>
       <c r="G92" t="n">
-        <v>-838130.05936586</v>
+        <v>1236638.05913414</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3682,6 +3765,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3700,16 +3784,16 @@
         <v>4.06</v>
       </c>
       <c r="F93" t="n">
-        <v>1931.6959</v>
+        <v>6950</v>
       </c>
       <c r="G93" t="n">
-        <v>-840061.75526586</v>
+        <v>1236638.05913414</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3717,34 +3801,35 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C94" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="D94" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="E94" t="n">
-        <v>4.07</v>
+        <v>4.02</v>
       </c>
       <c r="F94" t="n">
-        <v>57121.4911</v>
+        <v>220</v>
       </c>
       <c r="G94" t="n">
-        <v>-782940.26416586</v>
+        <v>1236418.05913414</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3752,34 +3837,35 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="C95" t="n">
-        <v>4.09</v>
+        <v>4.02</v>
       </c>
       <c r="D95" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="E95" t="n">
-        <v>4.09</v>
+        <v>4.02</v>
       </c>
       <c r="F95" t="n">
-        <v>10029.8769</v>
+        <v>9760</v>
       </c>
       <c r="G95" t="n">
-        <v>-772910.38726586</v>
+        <v>1226658.05913414</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3787,47 +3873,43 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="C96" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="D96" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="E96" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="F96" t="n">
-        <v>5009.9368</v>
+        <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>-777920.32406586</v>
+        <v>1226668.05913414</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>4.09</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3846,105 +3928,96 @@
         <v>4.08</v>
       </c>
       <c r="F97" t="n">
-        <v>643.4087</v>
+        <v>28.4313</v>
       </c>
       <c r="G97" t="n">
-        <v>-777276.91536586</v>
+        <v>1226668.05913414</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="C98" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="D98" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="E98" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G98" t="n">
-        <v>-777256.91536586</v>
+        <v>1226668.05913414</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="C99" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="D99" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="E99" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="F99" t="n">
-        <v>4356.5913</v>
+        <v>4176.9041</v>
       </c>
       <c r="G99" t="n">
-        <v>-781613.50666586</v>
+        <v>1222491.15503414</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3963,49 +4036,46 @@
         <v>4.07</v>
       </c>
       <c r="F100" t="n">
-        <v>18977.3955</v>
+        <v>32596.5601</v>
       </c>
       <c r="G100" t="n">
-        <v>-800590.9021658599</v>
+        <v>1222491.15503414</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="C101" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="D101" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="E101" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="F101" t="n">
-        <v>18006.1727</v>
+        <v>13179.6068</v>
       </c>
       <c r="G101" t="n">
-        <v>-818597.0748658599</v>
+        <v>1222491.15503414</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4015,36 +4085,33 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="C102" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D102" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="E102" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="F102" t="n">
-        <v>8404.358200000001</v>
+        <v>219773.831</v>
       </c>
       <c r="G102" t="n">
-        <v>-827001.43306586</v>
+        <v>1002717.32403414</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4054,36 +4121,33 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="C103" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="D103" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="E103" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="F103" t="n">
-        <v>19993.1956</v>
+        <v>172469.6123</v>
       </c>
       <c r="G103" t="n">
-        <v>-807008.23746586</v>
+        <v>830247.7117341402</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4093,36 +4157,33 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="C104" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="D104" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="E104" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="F104" t="n">
-        <v>10289.8765</v>
+        <v>20</v>
       </c>
       <c r="G104" t="n">
-        <v>-807008.23746586</v>
+        <v>830267.7117341402</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4132,1658 +4193,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C105" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D105" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E105" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F105" t="n">
-        <v>5440</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-812448.23746586</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C106" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D106" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E106" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F106" t="n">
-        <v>57063.7554</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-812448.23746586</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C107" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D107" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E107" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F107" t="n">
-        <v>7006.6176</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-805441.61986586</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="C108" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="D108" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="E108" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F108" t="n">
-        <v>66002.1115</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-871443.73136586</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="C109" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="D109" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="E109" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F109" t="n">
-        <v>215613.1011</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-871443.73136586</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="C110" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="D110" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="E110" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="F110" t="n">
-        <v>500</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-870943.73136586</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E111" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>500</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-870443.73136586</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="C112" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="D112" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E112" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="F112" t="n">
-        <v>77893.5845</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-948337.31586586</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="C113" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D113" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="E113" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F113" t="n">
-        <v>39</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-948376.31586586</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C114" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D114" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E114" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F114" t="n">
-        <v>43641.4384</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-948376.31586586</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C115" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D115" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E115" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F115" t="n">
-        <v>36936.5646</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-985312.88046586</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C116" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D116" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E116" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F116" t="n">
-        <v>47763</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-985312.88046586</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C117" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="D117" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="E117" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F117" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-983312.88046586</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C118" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="D118" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="E118" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2411968.4706</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1428655.59013414</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="C119" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="D119" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="E119" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F119" t="n">
-        <v>82960.82919999999</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1428655.59013414</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="C120" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="D120" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="E120" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1428655.59013414</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="C121" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="D121" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="E121" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1428655.59013414</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="C122" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="D122" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="E122" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="F122" t="n">
-        <v>400</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1428655.59013414</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="C123" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="D123" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="E123" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1428655.59013414</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C124" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D124" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E124" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1399.756</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1427255.83413414</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="C125" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D125" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="E125" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F125" t="n">
-        <v>13804.4226</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1413451.41153414</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C126" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D126" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E126" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F126" t="n">
-        <v>9100</v>
-      </c>
-      <c r="G126" t="n">
-        <v>1413451.41153414</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C127" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D127" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E127" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F127" t="n">
-        <v>205721.6109</v>
-      </c>
-      <c r="G127" t="n">
-        <v>1207729.80063414</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C128" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D128" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E128" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F128" t="n">
-        <v>34852.9332</v>
-      </c>
-      <c r="G128" t="n">
-        <v>1242582.73383414</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C129" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D129" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E129" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F129" t="n">
-        <v>7657.3529</v>
-      </c>
-      <c r="G129" t="n">
-        <v>1234925.38093414</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C130" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D130" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E130" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F130" t="n">
-        <v>5147.0668</v>
-      </c>
-      <c r="G130" t="n">
-        <v>1234925.38093414</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C131" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D131" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E131" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F131" t="n">
-        <v>6900</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1241825.38093414</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C132" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D132" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E132" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F132" t="n">
-        <v>5117.3218</v>
-      </c>
-      <c r="G132" t="n">
-        <v>1236708.05913414</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C133" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D133" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E133" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F133" t="n">
-        <v>70</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1236638.05913414</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C134" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D134" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E134" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F134" t="n">
-        <v>90500</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1236638.05913414</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C135" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D135" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E135" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F135" t="n">
-        <v>6950</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1236638.05913414</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C136" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D136" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E136" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="F136" t="n">
-        <v>220</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1236418.05913414</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C137" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="D137" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E137" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="F137" t="n">
-        <v>9760</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1226658.05913414</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C138" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D138" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E138" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F138" t="n">
-        <v>10</v>
-      </c>
-      <c r="G138" t="n">
-        <v>1226668.05913414</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C139" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D139" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E139" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F139" t="n">
-        <v>28.4313</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1226668.05913414</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C140" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D140" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E140" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F140" t="n">
-        <v>45</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1226668.05913414</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C141" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D141" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E141" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F141" t="n">
-        <v>4176.9041</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1222491.15503414</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C142" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D142" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E142" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F142" t="n">
-        <v>32596.5601</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1222491.15503414</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C143" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D143" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E143" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F143" t="n">
-        <v>13179.6068</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1222491.15503414</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C144" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D144" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E144" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F144" t="n">
-        <v>219773.831</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1002717.32403414</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C145" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D145" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E145" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F145" t="n">
-        <v>172469.6123</v>
-      </c>
-      <c r="G145" t="n">
-        <v>830247.7117341402</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C146" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D146" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E146" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F146" t="n">
-        <v>20</v>
-      </c>
-      <c r="G146" t="n">
-        <v>830267.7117341402</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
+      <c r="N104" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest XVG.xlsx
+++ b/BackTest/2019-10-19 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="C2" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="D2" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>42020</v>
       </c>
       <c r="G2" t="n">
-        <v>-841137.2837658598</v>
+        <v>-228965.7927</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.07</v>
+        <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="D3" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="E3" t="n">
-        <v>4.07</v>
+        <v>4.03</v>
       </c>
       <c r="F3" t="n">
-        <v>72524</v>
+        <v>25010</v>
       </c>
       <c r="G3" t="n">
-        <v>-768613.2837658598</v>
+        <v>-203955.7927</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="C4" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="D4" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="E4" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="F4" t="n">
-        <v>132725.6314</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>-768613.2837658598</v>
+        <v>-203945.7927</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="C5" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="D5" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="E5" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="F5" t="n">
-        <v>1434.1523</v>
+        <v>166334.7884</v>
       </c>
       <c r="G5" t="n">
-        <v>-768613.2837658598</v>
+        <v>-203945.7927</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="C6" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="D6" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="E6" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="F6" t="n">
-        <v>8188</v>
+        <v>438</v>
       </c>
       <c r="G6" t="n">
-        <v>-768613.2837658598</v>
+        <v>-203945.7927</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.07</v>
+        <v>4.14</v>
       </c>
       <c r="C7" t="n">
-        <v>4.07</v>
+        <v>4.14</v>
       </c>
       <c r="D7" t="n">
-        <v>4.07</v>
+        <v>4.14</v>
       </c>
       <c r="E7" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="F7" t="n">
-        <v>22992.1393</v>
+        <v>3460</v>
       </c>
       <c r="G7" t="n">
-        <v>-768613.2837658598</v>
+        <v>-200485.7927</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.07</v>
+        <v>4.14</v>
       </c>
       <c r="C8" t="n">
-        <v>4.06</v>
+        <v>4.14</v>
       </c>
       <c r="D8" t="n">
-        <v>4.08</v>
+        <v>4.14</v>
       </c>
       <c r="E8" t="n">
-        <v>4.06</v>
+        <v>4.14</v>
       </c>
       <c r="F8" t="n">
-        <v>29602</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>-798215.2837658598</v>
+        <v>-200485.7927</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="C9" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="D9" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="E9" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>11149.2079</v>
       </c>
       <c r="G9" t="n">
-        <v>-788215.2837658598</v>
+        <v>-211635.0006</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.06</v>
+        <v>4.11</v>
       </c>
       <c r="C10" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="D10" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="E10" t="n">
-        <v>4.06</v>
+        <v>4.11</v>
       </c>
       <c r="F10" t="n">
-        <v>6000</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>-782215.2837658598</v>
+        <v>-211625.0006</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="C11" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="D11" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="E11" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="F11" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G11" t="n">
-        <v>-782215.2837658598</v>
+        <v>-211625.0006</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="D12" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="E12" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="F12" t="n">
-        <v>7500</v>
+        <v>499</v>
       </c>
       <c r="G12" t="n">
-        <v>-789715.2837658598</v>
+        <v>-212124.0006</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.06</v>
+        <v>4.11</v>
       </c>
       <c r="C13" t="n">
-        <v>4.06</v>
+        <v>4.11</v>
       </c>
       <c r="D13" t="n">
-        <v>4.06</v>
+        <v>4.11</v>
       </c>
       <c r="E13" t="n">
-        <v>4.06</v>
+        <v>4.11</v>
       </c>
       <c r="F13" t="n">
-        <v>5000</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>-789715.2837658598</v>
+        <v>-212104.0006</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="C14" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="D14" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="E14" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="F14" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="G14" t="n">
-        <v>-789215.2837658598</v>
+        <v>-212104.0006</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.08</v>
+        <v>4.11</v>
       </c>
       <c r="C15" t="n">
-        <v>4.08</v>
+        <v>4.11</v>
       </c>
       <c r="D15" t="n">
-        <v>4.08</v>
+        <v>4.11</v>
       </c>
       <c r="E15" t="n">
-        <v>4.08</v>
+        <v>4.11</v>
       </c>
       <c r="F15" t="n">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>-792215.2837658598</v>
+        <v>-212104.0006</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="C16" t="n">
-        <v>4.08</v>
+        <v>4.11</v>
       </c>
       <c r="D16" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="E16" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="F16" t="n">
-        <v>20010</v>
+        <v>1000</v>
       </c>
       <c r="G16" t="n">
-        <v>-792215.2837658598</v>
+        <v>-212104.0006</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="D17" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="E17" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="F17" t="n">
-        <v>9290.4411</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>-792215.2837658598</v>
+        <v>-212105.0006</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="C18" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="D18" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="E18" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="F18" t="n">
-        <v>7000</v>
+        <v>2499</v>
       </c>
       <c r="G18" t="n">
-        <v>-799215.2837658598</v>
+        <v>-214604.0006</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="C19" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="D19" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="E19" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="F19" t="n">
-        <v>3345.6621</v>
+        <v>10000</v>
       </c>
       <c r="G19" t="n">
-        <v>-799215.2837658598</v>
+        <v>-224604.0006</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="C20" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="D20" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="E20" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="F20" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>-794215.2837658598</v>
+        <v>-224594.0006</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1125,19 +1125,19 @@
         <v>4.07</v>
       </c>
       <c r="C21" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="D21" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="E21" t="n">
         <v>4.06</v>
       </c>
       <c r="F21" t="n">
-        <v>128071.2608</v>
+        <v>10600</v>
       </c>
       <c r="G21" t="n">
-        <v>-922286.5445658598</v>
+        <v>-224594.0006</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="C22" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="D22" t="n">
         <v>4.07</v>
       </c>
       <c r="E22" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="F22" t="n">
-        <v>20000</v>
+        <v>300</v>
       </c>
       <c r="G22" t="n">
-        <v>-942286.5445658598</v>
+        <v>-224894.0006</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C23" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="D23" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="E23" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="F23" t="n">
-        <v>2500</v>
+        <v>24631.542</v>
       </c>
       <c r="G23" t="n">
-        <v>-939786.5445658598</v>
+        <v>-249525.5426</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="C24" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="D24" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="E24" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="F24" t="n">
-        <v>35000</v>
+        <v>200</v>
       </c>
       <c r="G24" t="n">
-        <v>-904786.5445658598</v>
+        <v>-249725.5426</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1278,10 +1278,10 @@
         <v>4.06</v>
       </c>
       <c r="F25" t="n">
-        <v>2500</v>
+        <v>137699.0454</v>
       </c>
       <c r="G25" t="n">
-        <v>-907286.5445658598</v>
+        <v>-112026.4972</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="D26" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="E26" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F26" t="n">
-        <v>24.7518</v>
+        <v>396623.297</v>
       </c>
       <c r="G26" t="n">
-        <v>-907311.2963658598</v>
+        <v>284596.7998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="C27" t="n">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
       <c r="D27" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="E27" t="n">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
       <c r="F27" t="n">
-        <v>14975.2482</v>
+        <v>1300</v>
       </c>
       <c r="G27" t="n">
-        <v>-922286.5445658598</v>
+        <v>285896.7998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="C28" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="D28" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="E28" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="G28" t="n">
-        <v>-917286.5445658598</v>
+        <v>285896.7998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="C29" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D29" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="E29" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F29" t="n">
-        <v>7819.95</v>
+        <v>342147.9908</v>
       </c>
       <c r="G29" t="n">
-        <v>-925106.4945658598</v>
+        <v>-56251.19099999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="C30" t="n">
-        <v>4.03</v>
+        <v>4.09</v>
       </c>
       <c r="D30" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="E30" t="n">
-        <v>4.03</v>
+        <v>4.09</v>
       </c>
       <c r="F30" t="n">
-        <v>20000</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>-945106.4945658598</v>
+        <v>-56241.19099999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="C31" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="D31" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="E31" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="F31" t="n">
-        <v>208456.6917</v>
+        <v>49695.2771</v>
       </c>
       <c r="G31" t="n">
-        <v>-736649.8028658598</v>
+        <v>-6545.913899999992</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.05</v>
+        <v>4.11</v>
       </c>
       <c r="C32" t="n">
-        <v>4.05</v>
+        <v>4.12</v>
       </c>
       <c r="D32" t="n">
-        <v>4.05</v>
+        <v>4.12</v>
       </c>
       <c r="E32" t="n">
-        <v>4.05</v>
+        <v>4.11</v>
       </c>
       <c r="F32" t="n">
-        <v>9975</v>
+        <v>1000</v>
       </c>
       <c r="G32" t="n">
-        <v>-736649.8028658598</v>
+        <v>-5545.913899999992</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="C33" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="D33" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="E33" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="F33" t="n">
-        <v>130213.019</v>
+        <v>11071</v>
       </c>
       <c r="G33" t="n">
-        <v>-736649.8028658598</v>
+        <v>-16616.91389999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="C34" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="D34" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="E34" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="F34" t="n">
-        <v>190817.7092</v>
+        <v>460000</v>
       </c>
       <c r="G34" t="n">
-        <v>-927467.5120658599</v>
+        <v>-476616.9139</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="C35" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="D35" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="E35" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="F35" t="n">
-        <v>3489</v>
+        <v>25394.4914</v>
       </c>
       <c r="G35" t="n">
-        <v>-927467.5120658599</v>
+        <v>-476616.9139</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="C36" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="D36" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="E36" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="F36" t="n">
-        <v>247.5247</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="n">
-        <v>-927467.5120658599</v>
+        <v>-471616.9139</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="C37" t="n">
-        <v>4.04</v>
+        <v>4.1</v>
       </c>
       <c r="D37" t="n">
-        <v>4.04</v>
+        <v>4.1</v>
       </c>
       <c r="E37" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="F37" t="n">
-        <v>2500</v>
+        <v>160000</v>
       </c>
       <c r="G37" t="n">
-        <v>-927467.5120658599</v>
+        <v>-311616.9139</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.04</v>
+        <v>4.1</v>
       </c>
       <c r="C38" t="n">
-        <v>4.04</v>
+        <v>4.1</v>
       </c>
       <c r="D38" t="n">
-        <v>4.04</v>
+        <v>4.1</v>
       </c>
       <c r="E38" t="n">
-        <v>4.04</v>
+        <v>4.1</v>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>26459.9414</v>
       </c>
       <c r="G38" t="n">
-        <v>-927467.5120658599</v>
+        <v>-311616.9139</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,35 +1770,31 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="C39" t="n">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="D39" t="n">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="E39" t="n">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="F39" t="n">
-        <v>12723.4851</v>
+        <v>2834.4151</v>
       </c>
       <c r="G39" t="n">
-        <v>-940190.9971658599</v>
+        <v>-314451.329</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4.04</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
@@ -1810,40 +1806,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="C40" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="D40" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="E40" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="F40" t="n">
-        <v>10000</v>
+        <v>41558.8827</v>
       </c>
       <c r="G40" t="n">
-        <v>-930190.9971658599</v>
+        <v>-314451.329</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="K40" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1854,40 +1842,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="C41" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D41" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="E41" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>184599.4153</v>
       </c>
       <c r="G41" t="n">
-        <v>-935190.9971658599</v>
+        <v>-499050.7443</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1898,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
       <c r="C42" t="n">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
       <c r="D42" t="n">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
       <c r="E42" t="n">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
       <c r="F42" t="n">
-        <v>2547.2239</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>-937738.2210658599</v>
+        <v>-499040.7443</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1934,35 +1914,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="C43" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="D43" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="E43" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="F43" t="n">
-        <v>3051.358</v>
+        <v>1000</v>
       </c>
       <c r="G43" t="n">
-        <v>-934686.8630658599</v>
+        <v>-499040.7443</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K43" t="n">
-        <v>4.04</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
@@ -1974,40 +1950,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="C44" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="D44" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="E44" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="F44" t="n">
-        <v>1520.8073</v>
+        <v>105667.50363414</v>
       </c>
       <c r="G44" t="n">
-        <v>-934686.8630658599</v>
+        <v>-393373.24066586</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K44" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2018,40 +1986,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="C45" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D45" t="n">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="E45" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F45" t="n">
-        <v>79.1927</v>
+        <v>102909.5849</v>
       </c>
       <c r="G45" t="n">
-        <v>-934686.8630658599</v>
+        <v>-496282.82556586</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2062,35 +2022,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="C46" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="D46" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="E46" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="F46" t="n">
-        <v>9558.4884</v>
+        <v>2500</v>
       </c>
       <c r="G46" t="n">
-        <v>-934686.8630658599</v>
+        <v>-493782.82556586</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K46" t="n">
-        <v>4.05</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
@@ -2102,40 +2058,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.05</v>
+        <v>4.13</v>
       </c>
       <c r="C47" t="n">
-        <v>4.05</v>
+        <v>4.13</v>
       </c>
       <c r="D47" t="n">
-        <v>4.05</v>
+        <v>4.13</v>
       </c>
       <c r="E47" t="n">
-        <v>4.05</v>
+        <v>4.13</v>
       </c>
       <c r="F47" t="n">
-        <v>30041.5116</v>
+        <v>15</v>
       </c>
       <c r="G47" t="n">
-        <v>-934686.8630658599</v>
+        <v>-493767.82556586</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2146,38 +2094,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="C48" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="D48" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="E48" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="F48" t="n">
-        <v>66132.1118</v>
+        <v>10000</v>
       </c>
       <c r="G48" t="n">
-        <v>-868554.7512658599</v>
+        <v>-503767.82556586</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2188,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.09</v>
+        <v>4.13</v>
       </c>
       <c r="C49" t="n">
-        <v>4.09</v>
+        <v>4.13</v>
       </c>
       <c r="D49" t="n">
-        <v>4.09</v>
+        <v>4.13</v>
       </c>
       <c r="E49" t="n">
-        <v>4.09</v>
+        <v>4.13</v>
       </c>
       <c r="F49" t="n">
-        <v>24061.5004</v>
+        <v>500</v>
       </c>
       <c r="G49" t="n">
-        <v>-868554.7512658599</v>
+        <v>-503267.82556586</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2224,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.09</v>
+        <v>4.11</v>
       </c>
       <c r="C50" t="n">
-        <v>4.1</v>
+        <v>4.13</v>
       </c>
       <c r="D50" t="n">
-        <v>4.1</v>
+        <v>4.13</v>
       </c>
       <c r="E50" t="n">
-        <v>4.06</v>
+        <v>4.11</v>
       </c>
       <c r="F50" t="n">
-        <v>30424.6919</v>
+        <v>34749.6349</v>
       </c>
       <c r="G50" t="n">
-        <v>-838130.05936586</v>
+        <v>-503267.82556586</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2260,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.06</v>
+        <v>4.12</v>
       </c>
       <c r="C51" t="n">
-        <v>4.06</v>
+        <v>4.11</v>
       </c>
       <c r="D51" t="n">
-        <v>4.06</v>
+        <v>4.12</v>
       </c>
       <c r="E51" t="n">
-        <v>4.06</v>
+        <v>4.11</v>
       </c>
       <c r="F51" t="n">
-        <v>1931.6959</v>
+        <v>3000</v>
       </c>
       <c r="G51" t="n">
-        <v>-840061.75526586</v>
+        <v>-506267.82556586</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2296,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.08</v>
+        <v>4.11</v>
       </c>
       <c r="C52" t="n">
-        <v>4.07</v>
+        <v>4.12</v>
       </c>
       <c r="D52" t="n">
-        <v>4.08</v>
+        <v>4.13</v>
       </c>
       <c r="E52" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="F52" t="n">
-        <v>57121.4911</v>
+        <v>53000</v>
       </c>
       <c r="G52" t="n">
-        <v>-782940.26416586</v>
+        <v>-453267.82556586</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2332,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="C53" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="D53" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="E53" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="F53" t="n">
-        <v>10029.8769</v>
+        <v>3012.0975</v>
       </c>
       <c r="G53" t="n">
-        <v>-772910.38726586</v>
+        <v>-456279.9230658599</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2368,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="C54" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="D54" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="E54" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="F54" t="n">
-        <v>5009.9368</v>
+        <v>500</v>
       </c>
       <c r="G54" t="n">
-        <v>-777920.32406586</v>
+        <v>-456279.9230658599</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2404,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="C55" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="D55" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="E55" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="F55" t="n">
-        <v>643.4087</v>
+        <v>81388.46679999999</v>
       </c>
       <c r="G55" t="n">
-        <v>-777276.91536586</v>
+        <v>-537668.3898658599</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2440,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="C56" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="D56" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="E56" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="F56" t="n">
-        <v>20</v>
+        <v>1527425.9767</v>
       </c>
       <c r="G56" t="n">
-        <v>-777256.91536586</v>
+        <v>-537668.3898658599</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2476,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C57" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="D57" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="E57" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="F57" t="n">
-        <v>4356.5913</v>
+        <v>16696.4698</v>
       </c>
       <c r="G57" t="n">
-        <v>-781613.50666586</v>
+        <v>-537668.3898658599</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2512,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="C58" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="D58" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="E58" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="F58" t="n">
-        <v>18977.3955</v>
+        <v>30414.6919</v>
       </c>
       <c r="G58" t="n">
-        <v>-800590.9021658599</v>
+        <v>-568083.0817658599</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2548,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="C59" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="D59" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="E59" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="F59" t="n">
-        <v>18006.1727</v>
+        <v>364453.6636</v>
       </c>
       <c r="G59" t="n">
-        <v>-818597.0748658599</v>
+        <v>-932536.7453658599</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2584,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="C60" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D60" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="E60" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="F60" t="n">
-        <v>8404.358200000001</v>
+        <v>101249.9753</v>
       </c>
       <c r="G60" t="n">
-        <v>-827001.43306586</v>
+        <v>-831286.7700658599</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2620,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="C61" t="n">
-        <v>4.05</v>
+        <v>4.12</v>
       </c>
       <c r="D61" t="n">
-        <v>4.05</v>
+        <v>4.12</v>
       </c>
       <c r="E61" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="F61" t="n">
-        <v>19993.1956</v>
+        <v>308548.184</v>
       </c>
       <c r="G61" t="n">
-        <v>-807008.23746586</v>
+        <v>-522738.5860658599</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2656,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="C62" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="D62" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="E62" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="F62" t="n">
-        <v>10289.8765</v>
+        <v>24.6295</v>
       </c>
       <c r="G62" t="n">
-        <v>-807008.23746586</v>
+        <v>-522763.2155658599</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2692,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
       <c r="C63" t="n">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
       <c r="D63" t="n">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
       <c r="E63" t="n">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
       <c r="F63" t="n">
-        <v>5440</v>
+        <v>4505.3545</v>
       </c>
       <c r="G63" t="n">
-        <v>-812448.23746586</v>
+        <v>-518257.8610658598</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2728,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="C64" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="D64" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="E64" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="F64" t="n">
-        <v>57063.7554</v>
+        <v>82606</v>
       </c>
       <c r="G64" t="n">
-        <v>-812448.23746586</v>
+        <v>-600863.8610658599</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2764,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="C65" t="n">
-        <v>4.08</v>
+        <v>4.02</v>
       </c>
       <c r="D65" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="E65" t="n">
-        <v>4.08</v>
+        <v>4.02</v>
       </c>
       <c r="F65" t="n">
-        <v>7006.6176</v>
+        <v>448792.6511</v>
       </c>
       <c r="G65" t="n">
-        <v>-805441.61986586</v>
+        <v>-1049656.51216586</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2800,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.03</v>
+        <v>4.06</v>
       </c>
       <c r="C66" t="n">
-        <v>4.03</v>
+        <v>4.06</v>
       </c>
       <c r="D66" t="n">
-        <v>4.03</v>
+        <v>4.06</v>
       </c>
       <c r="E66" t="n">
-        <v>4.03</v>
+        <v>4.06</v>
       </c>
       <c r="F66" t="n">
-        <v>66002.1115</v>
+        <v>134967.5665</v>
       </c>
       <c r="G66" t="n">
-        <v>-871443.73136586</v>
+        <v>-914688.9456658599</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2836,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="C67" t="n">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="D67" t="n">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="E67" t="n">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="F67" t="n">
-        <v>215613.1011</v>
+        <v>248.0726</v>
       </c>
       <c r="G67" t="n">
-        <v>-871443.73136586</v>
+        <v>-914937.0182658598</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2872,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="C68" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="D68" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="E68" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="F68" t="n">
-        <v>500</v>
+        <v>66328.8177</v>
       </c>
       <c r="G68" t="n">
-        <v>-870943.73136586</v>
+        <v>-848608.2005658598</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2908,7 +2850,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="C69" t="n">
         <v>4.1</v>
@@ -2917,13 +2859,13 @@
         <v>4.1</v>
       </c>
       <c r="E69" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="F69" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G69" t="n">
-        <v>-870443.73136586</v>
+        <v>-843608.2005658598</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2944,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="D70" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="E70" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="F70" t="n">
-        <v>77893.5845</v>
+        <v>10000</v>
       </c>
       <c r="G70" t="n">
-        <v>-948337.31586586</v>
+        <v>-853608.2005658598</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2980,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="C71" t="n">
-        <v>4.06</v>
+        <v>4.11</v>
       </c>
       <c r="D71" t="n">
-        <v>4.09</v>
+        <v>4.11</v>
       </c>
       <c r="E71" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="F71" t="n">
-        <v>39</v>
+        <v>17471.2255</v>
       </c>
       <c r="G71" t="n">
-        <v>-948376.31586586</v>
+        <v>-836136.9750658597</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3016,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="C72" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="D72" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="E72" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="F72" t="n">
-        <v>43641.4384</v>
+        <v>0.3087</v>
       </c>
       <c r="G72" t="n">
-        <v>-948376.31586586</v>
+        <v>-836137.2837658598</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3052,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="C73" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D73" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="E73" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F73" t="n">
-        <v>36936.5646</v>
+        <v>5000</v>
       </c>
       <c r="G73" t="n">
-        <v>-985312.88046586</v>
+        <v>-841137.2837658598</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3088,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="C74" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="D74" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="E74" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="F74" t="n">
-        <v>47763</v>
+        <v>72524</v>
       </c>
       <c r="G74" t="n">
-        <v>-985312.88046586</v>
+        <v>-768613.2837658598</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3124,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="C75" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="D75" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="E75" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="F75" t="n">
-        <v>2000</v>
+        <v>132725.6314</v>
       </c>
       <c r="G75" t="n">
-        <v>-983312.88046586</v>
+        <v>-768613.2837658598</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3160,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="C76" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="D76" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="E76" t="n">
-        <v>4.02</v>
+        <v>4.07</v>
       </c>
       <c r="F76" t="n">
-        <v>2411968.4706</v>
+        <v>1434.1523</v>
       </c>
       <c r="G76" t="n">
-        <v>1428655.59013414</v>
+        <v>-768613.2837658598</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3196,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="C77" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="D77" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="E77" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="F77" t="n">
-        <v>82960.82919999999</v>
+        <v>8188</v>
       </c>
       <c r="G77" t="n">
-        <v>1428655.59013414</v>
+        <v>-768613.2837658598</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3232,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="C78" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="D78" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="E78" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="F78" t="n">
-        <v>1000</v>
+        <v>22992.1393</v>
       </c>
       <c r="G78" t="n">
-        <v>1428655.59013414</v>
+        <v>-768613.2837658598</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3268,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="C79" t="n">
-        <v>4.11</v>
+        <v>4.06</v>
       </c>
       <c r="D79" t="n">
-        <v>4.11</v>
+        <v>4.08</v>
       </c>
       <c r="E79" t="n">
-        <v>4.11</v>
+        <v>4.06</v>
       </c>
       <c r="F79" t="n">
-        <v>1000</v>
+        <v>29602</v>
       </c>
       <c r="G79" t="n">
-        <v>1428655.59013414</v>
+        <v>-798215.2837658598</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3304,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="C80" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="D80" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="E80" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="F80" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="G80" t="n">
-        <v>1428655.59013414</v>
+        <v>-788215.2837658598</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3340,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.11</v>
+        <v>4.06</v>
       </c>
       <c r="C81" t="n">
-        <v>4.11</v>
+        <v>4.1</v>
       </c>
       <c r="D81" t="n">
-        <v>4.11</v>
+        <v>4.1</v>
       </c>
       <c r="E81" t="n">
-        <v>4.11</v>
+        <v>4.06</v>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="G81" t="n">
-        <v>1428655.59013414</v>
+        <v>-782215.2837658598</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3388,10 +3330,10 @@
         <v>4.1</v>
       </c>
       <c r="F82" t="n">
-        <v>1399.756</v>
+        <v>1500</v>
       </c>
       <c r="G82" t="n">
-        <v>1427255.83413414</v>
+        <v>-782215.2837658598</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3412,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="C83" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="D83" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="E83" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F83" t="n">
-        <v>13804.4226</v>
+        <v>7500</v>
       </c>
       <c r="G83" t="n">
-        <v>1413451.41153414</v>
+        <v>-789715.2837658598</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3448,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C84" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="D84" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="E84" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F84" t="n">
-        <v>9100</v>
+        <v>5000</v>
       </c>
       <c r="G84" t="n">
-        <v>1413451.41153414</v>
+        <v>-789715.2837658598</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3484,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="C85" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="D85" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="E85" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="F85" t="n">
-        <v>205721.6109</v>
+        <v>500</v>
       </c>
       <c r="G85" t="n">
-        <v>1207729.80063414</v>
+        <v>-789215.2837658598</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3520,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="C86" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="D86" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="E86" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="F86" t="n">
-        <v>34852.9332</v>
+        <v>3000</v>
       </c>
       <c r="G86" t="n">
-        <v>1242582.73383414</v>
+        <v>-792215.2837658598</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3556,7 +3498,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="C87" t="n">
         <v>4.08</v>
@@ -3568,16 +3510,16 @@
         <v>4.08</v>
       </c>
       <c r="F87" t="n">
-        <v>7657.3529</v>
+        <v>20010</v>
       </c>
       <c r="G87" t="n">
-        <v>1234925.38093414</v>
+        <v>-792215.2837658598</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3604,10 +3546,10 @@
         <v>4.08</v>
       </c>
       <c r="F88" t="n">
-        <v>5147.0668</v>
+        <v>9290.4411</v>
       </c>
       <c r="G88" t="n">
-        <v>1234925.38093414</v>
+        <v>-792215.2837658598</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3628,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="C89" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="D89" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="E89" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="F89" t="n">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="G89" t="n">
-        <v>1241825.38093414</v>
+        <v>-799215.2837658598</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3664,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="C90" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="D90" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="E90" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F90" t="n">
-        <v>5117.3218</v>
+        <v>3345.6621</v>
       </c>
       <c r="G90" t="n">
-        <v>1236708.05913414</v>
+        <v>-799215.2837658598</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3700,28 +3642,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="C91" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="D91" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="E91" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="F91" t="n">
-        <v>70</v>
+        <v>5000</v>
       </c>
       <c r="G91" t="n">
-        <v>1236638.05913414</v>
+        <v>-794215.2837658598</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3736,7 +3678,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="C92" t="n">
         <v>4.06</v>
@@ -3748,16 +3690,16 @@
         <v>4.06</v>
       </c>
       <c r="F92" t="n">
-        <v>90500</v>
+        <v>128071.2608</v>
       </c>
       <c r="G92" t="n">
-        <v>1236638.05913414</v>
+        <v>-922286.5445658598</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3775,25 +3717,25 @@
         <v>4.06</v>
       </c>
       <c r="C93" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="D93" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="E93" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="F93" t="n">
-        <v>6950</v>
+        <v>20000</v>
       </c>
       <c r="G93" t="n">
-        <v>1236638.05913414</v>
+        <v>-942286.5445658598</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3808,28 +3750,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="C94" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="D94" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="E94" t="n">
-        <v>4.02</v>
+        <v>4.08</v>
       </c>
       <c r="F94" t="n">
-        <v>220</v>
+        <v>2500</v>
       </c>
       <c r="G94" t="n">
-        <v>1236418.05913414</v>
+        <v>-939786.5445658598</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3844,28 +3786,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="C95" t="n">
-        <v>4.02</v>
+        <v>4.09</v>
       </c>
       <c r="D95" t="n">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
       <c r="E95" t="n">
-        <v>4.02</v>
+        <v>4.08</v>
       </c>
       <c r="F95" t="n">
-        <v>9760</v>
+        <v>35000</v>
       </c>
       <c r="G95" t="n">
-        <v>1226658.05913414</v>
+        <v>-904786.5445658598</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3880,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C96" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="D96" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="E96" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>2500</v>
       </c>
       <c r="G96" t="n">
-        <v>1226668.05913414</v>
+        <v>-907286.5445658598</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3916,28 +3858,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="C97" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="D97" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="E97" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="F97" t="n">
-        <v>28.4313</v>
+        <v>24.7518</v>
       </c>
       <c r="G97" t="n">
-        <v>1226668.05913414</v>
+        <v>-907311.2963658598</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3952,28 +3894,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="C98" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="D98" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="E98" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="F98" t="n">
-        <v>45</v>
+        <v>14975.2482</v>
       </c>
       <c r="G98" t="n">
-        <v>1226668.05913414</v>
+        <v>-922286.5445658598</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3988,28 +3930,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="C99" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="D99" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="E99" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F99" t="n">
-        <v>4176.9041</v>
+        <v>5000</v>
       </c>
       <c r="G99" t="n">
-        <v>1222491.15503414</v>
+        <v>-917286.5445658598</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4024,28 +3966,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="C100" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="D100" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="E100" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="F100" t="n">
-        <v>32596.5601</v>
+        <v>7819.95</v>
       </c>
       <c r="G100" t="n">
-        <v>1222491.15503414</v>
+        <v>-925106.4945658598</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4060,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="C101" t="n">
-        <v>4.07</v>
+        <v>4.03</v>
       </c>
       <c r="D101" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="E101" t="n">
-        <v>4.07</v>
+        <v>4.03</v>
       </c>
       <c r="F101" t="n">
-        <v>13179.6068</v>
+        <v>20000</v>
       </c>
       <c r="G101" t="n">
-        <v>1222491.15503414</v>
+        <v>-945106.4945658598</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4108,10 +4050,10 @@
         <v>4.05</v>
       </c>
       <c r="F102" t="n">
-        <v>219773.831</v>
+        <v>208456.6917</v>
       </c>
       <c r="G102" t="n">
-        <v>1002717.32403414</v>
+        <v>-736649.8028658598</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4132,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="C103" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D103" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="E103" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="F103" t="n">
-        <v>172469.6123</v>
+        <v>9975</v>
       </c>
       <c r="G103" t="n">
-        <v>830247.7117341402</v>
+        <v>-736649.8028658598</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4168,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="C104" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="D104" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="E104" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>130213.019</v>
       </c>
       <c r="G104" t="n">
-        <v>830267.7117341402</v>
+        <v>-736649.8028658598</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4199,6 +4141,2796 @@
       </c>
       <c r="N104" t="inlineStr"/>
     </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D105" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F105" t="n">
+        <v>190817.7092</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-927467.5120658599</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3489</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-927467.5120658599</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E107" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F107" t="n">
+        <v>247.5247</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-927467.5120658599</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-927467.5120658599</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F109" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-927467.5120658599</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F110" t="n">
+        <v>12723.4851</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-940190.9971658599</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K110" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-930190.9971658599</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-935190.9971658599</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2547.2239</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-937738.2210658599</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3051.358</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-934686.8630658599</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1520.8073</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-934686.8630658599</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F116" t="n">
+        <v>79.1927</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-934686.8630658599</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K116" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F117" t="n">
+        <v>9558.4884</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-934686.8630658599</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F118" t="n">
+        <v>30041.5116</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-934686.8630658599</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K118" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F119" t="n">
+        <v>66132.1118</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-868554.7512658599</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K119" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F120" t="n">
+        <v>24061.5004</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-868554.7512658599</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K120" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F121" t="n">
+        <v>30424.6919</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-838130.05936586</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1931.6959</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-840061.75526586</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F123" t="n">
+        <v>57121.4911</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-782940.26416586</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D124" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10029.8769</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-772910.38726586</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5009.9368</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-777920.32406586</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F126" t="n">
+        <v>643.4087</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-777276.91536586</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F127" t="n">
+        <v>20</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-777256.91536586</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4356.5913</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-781613.50666586</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F129" t="n">
+        <v>18977.3955</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-800590.9021658599</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F130" t="n">
+        <v>18006.1727</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-818597.0748658599</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F131" t="n">
+        <v>8404.358200000001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-827001.43306586</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K131" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F132" t="n">
+        <v>19993.1956</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-807008.23746586</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K132" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F133" t="n">
+        <v>10289.8765</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-807008.23746586</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K133" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5440</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-812448.23746586</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K134" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F135" t="n">
+        <v>57063.7554</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-812448.23746586</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K135" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F136" t="n">
+        <v>7006.6176</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-805441.61986586</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K136" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F137" t="n">
+        <v>66002.1115</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-871443.73136586</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F138" t="n">
+        <v>215613.1011</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-871443.73136586</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F139" t="n">
+        <v>500</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-870943.73136586</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="K139" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>500</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-870443.73136586</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F141" t="n">
+        <v>77893.5845</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-948337.31586586</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F142" t="n">
+        <v>39</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-948376.31586586</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F143" t="n">
+        <v>43641.4384</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-948376.31586586</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F144" t="n">
+        <v>36936.5646</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-985312.88046586</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F145" t="n">
+        <v>47763</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-985312.88046586</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-983312.88046586</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C147" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D147" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2411968.4706</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1428655.59013414</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D148" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F148" t="n">
+        <v>82960.82919999999</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1428655.59013414</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1428655.59013414</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C150" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D150" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1428655.59013414</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D151" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E151" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F151" t="n">
+        <v>400</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1428655.59013414</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C152" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D152" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E152" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1428655.59013414</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1399.756</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1427255.83413414</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C154" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D154" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E154" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F154" t="n">
+        <v>13804.4226</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1413451.41153414</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C155" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D155" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E155" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F155" t="n">
+        <v>9100</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1413451.41153414</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C156" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D156" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F156" t="n">
+        <v>205721.6109</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1207729.80063414</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>34852.9332</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1242582.73383414</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F158" t="n">
+        <v>7657.3529</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1234925.38093414</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C159" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D159" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5147.0668</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1234925.38093414</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>6900</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1241825.38093414</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C161" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D161" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5117.3218</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1236708.05913414</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C162" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D162" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F162" t="n">
+        <v>70</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1236638.05913414</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D163" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E163" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F163" t="n">
+        <v>90500</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1236638.05913414</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C164" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D164" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E164" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F164" t="n">
+        <v>6950</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1236638.05913414</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C165" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E165" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="F165" t="n">
+        <v>220</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1236418.05913414</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C166" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="D166" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="F166" t="n">
+        <v>9760</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1226658.05913414</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D167" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F167" t="n">
+        <v>10</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1226668.05913414</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C168" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D168" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E168" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F168" t="n">
+        <v>28.4313</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1226668.05913414</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F169" t="n">
+        <v>45</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1226668.05913414</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D170" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E170" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4176.9041</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1222491.15503414</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C171" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D171" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E171" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F171" t="n">
+        <v>32596.5601</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1222491.15503414</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C172" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D172" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E172" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F172" t="n">
+        <v>13179.6068</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1222491.15503414</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D173" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F173" t="n">
+        <v>219773.831</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1002717.32403414</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C174" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D174" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F174" t="n">
+        <v>172469.6123</v>
+      </c>
+      <c r="G174" t="n">
+        <v>830247.7117341402</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C175" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D175" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E175" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F175" t="n">
+        <v>20</v>
+      </c>
+      <c r="G175" t="n">
+        <v>830267.7117341402</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-19 BackTest XVG.xlsx
+++ b/BackTest/2019-10-19 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-211635.0006</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-211625.0006</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-211625.0006</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-314451.329</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,22 +4015,15 @@
         <v>-940190.9971658599</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K110" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4386,1344 +4050,1213 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-935190.9971658599</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
         <v>4.04</v>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="C113" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2547.2239</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-937738.2210658599</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3051.358</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-934686.8630658599</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1520.8073</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-934686.8630658599</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F116" t="n">
+        <v>79.1927</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-934686.8630658599</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+      <c r="I116" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J116" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F117" t="n">
+        <v>9558.4884</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-934686.8630658599</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C112" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D112" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E112" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F112" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-935190.9971658599</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F118" t="n">
+        <v>30041.5116</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-934686.8630658599</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J118" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C113" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D113" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E113" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F113" t="n">
-        <v>2547.2239</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-937738.2210658599</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C114" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D114" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E114" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F114" t="n">
-        <v>3051.358</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-934686.8630658599</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C115" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D115" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E115" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1520.8073</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-934686.8630658599</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C116" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D116" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E116" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F116" t="n">
-        <v>79.1927</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-934686.8630658599</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K116" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C117" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D117" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E117" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F117" t="n">
-        <v>9558.4884</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-934686.8630658599</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F119" t="n">
+        <v>66132.1118</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-868554.7512658599</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+      <c r="I119" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J119" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F120" t="n">
+        <v>24061.5004</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-868554.7512658599</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C118" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D118" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E118" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F118" t="n">
-        <v>30041.5116</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-934686.8630658599</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K118" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F121" t="n">
+        <v>30424.6919</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-838130.05936586</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C119" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="D119" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="E119" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F119" t="n">
-        <v>66132.1118</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-868554.7512658599</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K119" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="C120" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="D120" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="E120" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="F120" t="n">
-        <v>24061.5004</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-868554.7512658599</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="K120" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1931.6959</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-840061.75526586</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F123" t="n">
+        <v>57121.4911</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-782940.26416586</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D124" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10029.8769</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-772910.38726586</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5009.9368</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-777920.32406586</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F126" t="n">
+        <v>643.4087</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-777276.91536586</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F127" t="n">
+        <v>20</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-777256.91536586</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4356.5913</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-781613.50666586</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F129" t="n">
+        <v>18977.3955</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-800590.9021658599</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F130" t="n">
+        <v>18006.1727</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-818597.0748658599</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F131" t="n">
+        <v>8404.358200000001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-827001.43306586</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F132" t="n">
+        <v>19993.1956</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-807008.23746586</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F133" t="n">
+        <v>10289.8765</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-807008.23746586</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J133" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5440</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-812448.23746586</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="C121" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D121" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E121" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F121" t="n">
-        <v>30424.6919</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-838130.05936586</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F135" t="n">
+        <v>57063.7554</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-812448.23746586</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C122" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D122" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E122" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1931.6959</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-840061.75526586</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C123" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D123" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E123" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F123" t="n">
-        <v>57121.4911</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-782940.26416586</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="C124" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="D124" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="E124" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="F124" t="n">
-        <v>10029.8769</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-772910.38726586</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="C125" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D125" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="E125" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F125" t="n">
-        <v>5009.9368</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-777920.32406586</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C126" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D126" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E126" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F126" t="n">
-        <v>643.4087</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-777276.91536586</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="C127" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="D127" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="E127" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="F127" t="n">
-        <v>20</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-777256.91536586</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C128" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D128" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E128" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F128" t="n">
-        <v>4356.5913</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-781613.50666586</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C129" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D129" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E129" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F129" t="n">
-        <v>18977.3955</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-800590.9021658599</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C130" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D130" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E130" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F130" t="n">
-        <v>18006.1727</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-818597.0748658599</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F136" t="n">
+        <v>7006.6176</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-805441.61986586</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+      <c r="I136" t="n">
         <v>4.04</v>
       </c>
-      <c r="C131" t="n">
+      <c r="J136" t="n">
         <v>4.04</v>
       </c>
-      <c r="D131" t="n">
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F137" t="n">
+        <v>66002.1115</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-871443.73136586</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
         <v>4.04</v>
       </c>
-      <c r="E131" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F131" t="n">
-        <v>8404.358200000001</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-827001.43306586</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K131" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C132" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D132" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E132" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F132" t="n">
-        <v>19993.1956</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-807008.23746586</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K132" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="K137" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C133" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D133" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E133" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F133" t="n">
-        <v>10289.8765</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-807008.23746586</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K133" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F138" t="n">
+        <v>215613.1011</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-871443.73136586</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C134" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D134" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E134" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F134" t="n">
-        <v>5440</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-812448.23746586</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K134" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C135" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D135" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E135" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F135" t="n">
-        <v>57063.7554</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-812448.23746586</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K135" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F139" t="n">
+        <v>500</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-870943.73136586</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>500</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-870443.73136586</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F141" t="n">
+        <v>77893.5845</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-948337.31586586</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F142" t="n">
+        <v>39</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-948376.31586586</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F143" t="n">
+        <v>43641.4384</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-948376.31586586</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F144" t="n">
+        <v>36936.5646</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-985312.88046586</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+      <c r="I144" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J144" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F145" t="n">
+        <v>47763</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-985312.88046586</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J145" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C136" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D136" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E136" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F136" t="n">
-        <v>7006.6176</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-805441.61986586</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K136" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="C137" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="D137" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="E137" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F137" t="n">
-        <v>66002.1115</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-871443.73136586</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="C138" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="D138" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="E138" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F138" t="n">
-        <v>215613.1011</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-871443.73136586</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="C139" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="D139" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="E139" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="F139" t="n">
-        <v>500</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-870943.73136586</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="K139" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C140" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E140" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>500</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-870443.73136586</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="C141" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="D141" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E141" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="F141" t="n">
-        <v>77893.5845</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-948337.31586586</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="C142" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D142" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="E142" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F142" t="n">
-        <v>39</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-948376.31586586</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C143" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D143" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E143" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F143" t="n">
-        <v>43641.4384</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-948376.31586586</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C144" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D144" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E144" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F144" t="n">
-        <v>36936.5646</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-985312.88046586</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C145" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D145" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E145" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F145" t="n">
-        <v>47763</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-985312.88046586</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5748,24 +5281,23 @@
         <v>-983312.88046586</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="J146" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
+        <v>4.06</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5790,24 +5322,23 @@
         <v>1428655.59013414</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>4.09</v>
       </c>
       <c r="J147" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+        <v>4.06</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5834,20 +5365,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5874,20 +5404,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5914,20 +5443,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5954,20 +5482,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5994,20 +5521,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6034,20 +5560,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6074,20 +5599,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6114,20 +5638,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6154,20 +5677,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6194,20 +5716,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6234,20 +5755,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6274,20 +5794,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6314,20 +5833,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6354,20 +5872,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6394,20 +5911,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6434,20 +5950,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6474,20 +5989,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6514,20 +6028,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6554,20 +6067,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6592,24 +6104,21 @@
         <v>1226668.05913414</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+        <v>4.06</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6636,20 +6145,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6676,20 +6184,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6716,20 +6223,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6756,20 +6262,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6796,20 +6301,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6836,20 +6340,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6876,20 +6379,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6916,22 +6418,21 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest XVG.xlsx
+++ b/BackTest/2019-10-19 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>-200485.7927</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-211635.0006</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-211625.0006</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-211625.0006</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-212124.0006</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-224594.0006</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-56251.19099999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-314451.329</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -4213,14 +4213,10 @@
         <v>-934686.8630658599</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J116" t="n">
-        <v>4.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
@@ -4253,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4289,19 +4279,11 @@
         <v>-934686.8630658599</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J118" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4330,14 +4312,10 @@
         <v>-868554.7512658599</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J119" t="n">
-        <v>4.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
@@ -4370,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4409,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4742,10 +4708,14 @@
         <v>-827001.43306586</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J131" t="n">
+        <v>4.05</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
@@ -4775,11 +4745,19 @@
         <v>-807008.23746586</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="J132" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4808,15 +4786,17 @@
         <v>-807008.23746586</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>4.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
         <v>4.05</v>
       </c>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4845,17 +4825,15 @@
         <v>-812448.23746586</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>4.05</v>
+      </c>
       <c r="J134" t="n">
         <v>4.05</v>
       </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4884,9 +4862,11 @@
         <v>-812448.23746586</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>4.04</v>
+      </c>
       <c r="J135" t="n">
         <v>4.05</v>
       </c>
@@ -4923,15 +4903,19 @@
         <v>-805441.61986586</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>4.04</v>
       </c>
       <c r="J136" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+        <v>4.05</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4963,152 +4947,156 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K137" t="inlineStr">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F138" t="n">
+        <v>215613.1011</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-871443.73136586</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F139" t="n">
+        <v>500</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-870943.73136586</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="J139" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>500</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-870443.73136586</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F141" t="n">
+        <v>77893.5845</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-948337.31586586</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
         <v>4.03</v>
       </c>
-      <c r="C138" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="D138" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="E138" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F138" t="n">
-        <v>215613.1011</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-871443.73136586</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K138" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="C139" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="D139" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="E139" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="F139" t="n">
-        <v>500</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-870943.73136586</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C140" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E140" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>500</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-870443.73136586</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="C141" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="D141" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E141" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="F141" t="n">
-        <v>77893.5845</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-948337.31586586</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5203,7 +5191,7 @@
         <v>-985312.88046586</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>4.06</v>
@@ -5240,7 +5228,7 @@
         <v>-985312.88046586</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>4.05</v>
@@ -5281,7 +5269,7 @@
         <v>-983312.88046586</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>4.05</v>
@@ -5322,7 +5310,7 @@
         <v>1428655.59013414</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>4.09</v>
@@ -6433,6 +6421,6 @@
       <c r="M175" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest XVG.xlsx
+++ b/BackTest/2019-10-19 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>-200485.7927</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-211635.0006</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-211625.0006</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-211625.0006</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-212124.0006</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-224594.0006</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-56251.19099999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-768613.2837658598</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-768613.2837658598</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-768613.2837658598</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-768613.2837658598</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-942286.5445658598</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-939786.5445658598</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4708,14 +4708,10 @@
         <v>-827001.43306586</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J131" t="n">
-        <v>4.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
@@ -4745,19 +4741,11 @@
         <v>-807008.23746586</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="J132" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4789,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4825,14 +4807,10 @@
         <v>-812448.23746586</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J134" t="n">
-        <v>4.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
@@ -4868,13 +4846,9 @@
         <v>4.04</v>
       </c>
       <c r="J135" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>4.04</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4903,13 +4877,11 @@
         <v>-805441.61986586</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
         <v>4.04</v>
-      </c>
-      <c r="J136" t="n">
-        <v>4.05</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -4947,8 +4919,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4977,10 +4955,14 @@
         <v>-871443.73136586</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="J138" t="n">
+        <v>4.03</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
@@ -5018,7 +5000,11 @@
       <c r="J139" t="n">
         <v>4.03</v>
       </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5089,14 +5075,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5191,14 +5171,10 @@
         <v>-985312.88046586</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J144" t="n">
-        <v>4.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5228,19 +5204,11 @@
         <v>-985312.88046586</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J145" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5269,19 +5237,11 @@
         <v>-983312.88046586</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J146" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5310,19 +5270,11 @@
         <v>1428655.59013414</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="J147" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5354,14 +5306,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5393,14 +5339,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5432,14 +5372,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5471,14 +5405,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5510,14 +5438,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5549,14 +5471,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5588,14 +5504,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5627,14 +5537,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5666,14 +5570,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5705,14 +5603,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5744,14 +5636,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5783,14 +5669,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5822,14 +5702,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5861,14 +5735,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5900,14 +5768,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5939,14 +5801,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5978,14 +5834,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6017,14 +5867,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6053,17 +5897,11 @@
         <v>1226658.05913414</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6092,17 +5930,11 @@
         <v>1226668.05913414</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6131,17 +5963,11 @@
         <v>1226668.05913414</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6170,17 +5996,11 @@
         <v>1226668.05913414</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6212,14 +6032,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6251,14 +6065,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6290,14 +6098,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6329,14 +6131,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6368,14 +6164,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6407,20 +6197,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
       <c r="M175" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest XVG.xlsx
+++ b/BackTest/2019-10-19 BackTest XVG.xlsx
@@ -682,7 +682,7 @@
         <v>-211635.0006</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-211625.0006</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-16616.91389999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-506267.82556586</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-537668.3898658599</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-768613.2837658598</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-768613.2837658598</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-768613.2837658598</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-768613.2837658598</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-942286.5445658598</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-939786.5445658598</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4048,10 +4048,14 @@
         <v>-930190.9971658599</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="J111" t="n">
+        <v>4.03</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4084,8 +4088,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4127,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4213,10 +4229,14 @@
         <v>-934686.8630658599</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J116" t="n">
+        <v>4.05</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
@@ -4249,8 +4269,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4305,19 @@
         <v>-934686.8630658599</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J118" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,10 +4346,14 @@
         <v>-868554.7512658599</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J119" t="n">
+        <v>4.05</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
@@ -4348,8 +4386,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4425,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4741,10 +4791,14 @@
         <v>-807008.23746586</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="J132" t="n">
+        <v>4.04</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
@@ -4774,11 +4828,19 @@
         <v>-807008.23746586</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J133" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +4869,19 @@
         <v>-812448.23746586</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4877,9 +4947,11 @@
         <v>-805441.61986586</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>4.04</v>
+      </c>
       <c r="J136" t="n">
         <v>4.04</v>
       </c>
@@ -4955,14 +5027,10 @@
         <v>-871443.73136586</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="J138" t="n">
-        <v>4.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
@@ -4992,19 +5060,11 @@
         <v>-870943.73136586</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="J139" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5036,14 +5096,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5072,7 +5126,7 @@
         <v>-948337.31586586</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5336,7 +5390,7 @@
         <v>1428655.59013414</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5369,7 +5423,7 @@
         <v>1428655.59013414</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5897,7 +5951,7 @@
         <v>1226658.05913414</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5930,7 +5984,7 @@
         <v>1226668.05913414</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5963,7 +6017,7 @@
         <v>1226668.05913414</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5996,7 +6050,7 @@
         <v>1226668.05913414</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest XVG.xlsx
+++ b/BackTest/2019-10-19 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>42020</v>
       </c>
       <c r="G2" t="n">
-        <v>-228965.7927</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,21 @@
         <v>25010</v>
       </c>
       <c r="G3" t="n">
-        <v>-203955.7927</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.03</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +509,19 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>-203945.7927</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +543,19 @@
         <v>166334.7884</v>
       </c>
       <c r="G5" t="n">
-        <v>-203945.7927</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +577,19 @@
         <v>438</v>
       </c>
       <c r="G6" t="n">
-        <v>-203945.7927</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +611,19 @@
         <v>3460</v>
       </c>
       <c r="G7" t="n">
-        <v>-200485.7927</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +645,19 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>-200485.7927</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +679,19 @@
         <v>11149.2079</v>
       </c>
       <c r="G9" t="n">
-        <v>-211635.0006</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +713,19 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>-211625.0006</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +747,19 @@
         <v>500</v>
       </c>
       <c r="G11" t="n">
-        <v>-211625.0006</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +781,19 @@
         <v>499</v>
       </c>
       <c r="G12" t="n">
-        <v>-212124.0006</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +815,19 @@
         <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>-212104.0006</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +849,19 @@
         <v>40</v>
       </c>
       <c r="G14" t="n">
-        <v>-212104.0006</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +883,19 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>-212104.0006</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +917,19 @@
         <v>1000</v>
       </c>
       <c r="G16" t="n">
-        <v>-212104.0006</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +951,19 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>-212105.0006</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +985,19 @@
         <v>2499</v>
       </c>
       <c r="G18" t="n">
-        <v>-214604.0006</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1019,19 @@
         <v>10000</v>
       </c>
       <c r="G19" t="n">
-        <v>-224604.0006</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1053,19 @@
         <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>-224594.0006</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1087,19 @@
         <v>10600</v>
       </c>
       <c r="G21" t="n">
-        <v>-224594.0006</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1121,19 @@
         <v>300</v>
       </c>
       <c r="G22" t="n">
-        <v>-224894.0006</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1155,19 @@
         <v>24631.542</v>
       </c>
       <c r="G23" t="n">
-        <v>-249525.5426</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1189,19 @@
         <v>200</v>
       </c>
       <c r="G24" t="n">
-        <v>-249725.5426</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1223,19 @@
         <v>137699.0454</v>
       </c>
       <c r="G25" t="n">
-        <v>-112026.4972</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1257,19 @@
         <v>396623.297</v>
       </c>
       <c r="G26" t="n">
-        <v>284596.7998</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1291,19 @@
         <v>1300</v>
       </c>
       <c r="G27" t="n">
-        <v>285896.7998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1325,19 @@
         <v>1000</v>
       </c>
       <c r="G28" t="n">
-        <v>285896.7998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1359,19 @@
         <v>342147.9908</v>
       </c>
       <c r="G29" t="n">
-        <v>-56251.19099999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1393,19 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>-56241.19099999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1427,19 @@
         <v>49695.2771</v>
       </c>
       <c r="G31" t="n">
-        <v>-6545.913899999992</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1461,19 @@
         <v>1000</v>
       </c>
       <c r="G32" t="n">
-        <v>-5545.913899999992</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1495,19 @@
         <v>11071</v>
       </c>
       <c r="G33" t="n">
-        <v>-16616.91389999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1529,19 @@
         <v>460000</v>
       </c>
       <c r="G34" t="n">
-        <v>-476616.9139</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1563,19 @@
         <v>25394.4914</v>
       </c>
       <c r="G35" t="n">
-        <v>-476616.9139</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1597,19 @@
         <v>5000</v>
       </c>
       <c r="G36" t="n">
-        <v>-471616.9139</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1631,19 @@
         <v>160000</v>
       </c>
       <c r="G37" t="n">
-        <v>-311616.9139</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1665,19 @@
         <v>26459.9414</v>
       </c>
       <c r="G38" t="n">
-        <v>-311616.9139</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1699,19 @@
         <v>2834.4151</v>
       </c>
       <c r="G39" t="n">
-        <v>-314451.329</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1733,19 @@
         <v>41558.8827</v>
       </c>
       <c r="G40" t="n">
-        <v>-314451.329</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1767,19 @@
         <v>184599.4153</v>
       </c>
       <c r="G41" t="n">
-        <v>-499050.7443</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1801,19 @@
         <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>-499040.7443</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1835,19 @@
         <v>1000</v>
       </c>
       <c r="G43" t="n">
-        <v>-499040.7443</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1869,19 @@
         <v>105667.50363414</v>
       </c>
       <c r="G44" t="n">
-        <v>-393373.24066586</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1903,19 @@
         <v>102909.5849</v>
       </c>
       <c r="G45" t="n">
-        <v>-496282.82556586</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1937,19 @@
         <v>2500</v>
       </c>
       <c r="G46" t="n">
-        <v>-493782.82556586</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1971,19 @@
         <v>15</v>
       </c>
       <c r="G47" t="n">
-        <v>-493767.82556586</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2005,19 @@
         <v>10000</v>
       </c>
       <c r="G48" t="n">
-        <v>-503767.82556586</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2039,19 @@
         <v>500</v>
       </c>
       <c r="G49" t="n">
-        <v>-503267.82556586</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2073,19 @@
         <v>34749.6349</v>
       </c>
       <c r="G50" t="n">
-        <v>-503267.82556586</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2107,19 @@
         <v>3000</v>
       </c>
       <c r="G51" t="n">
-        <v>-506267.82556586</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2141,19 @@
         <v>53000</v>
       </c>
       <c r="G52" t="n">
-        <v>-453267.82556586</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2175,19 @@
         <v>3012.0975</v>
       </c>
       <c r="G53" t="n">
-        <v>-456279.9230658599</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2209,19 @@
         <v>500</v>
       </c>
       <c r="G54" t="n">
-        <v>-456279.9230658599</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2243,19 @@
         <v>81388.46679999999</v>
       </c>
       <c r="G55" t="n">
-        <v>-537668.3898658599</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2277,19 @@
         <v>1527425.9767</v>
       </c>
       <c r="G56" t="n">
-        <v>-537668.3898658599</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2311,19 @@
         <v>16696.4698</v>
       </c>
       <c r="G57" t="n">
-        <v>-537668.3898658599</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2345,19 @@
         <v>30414.6919</v>
       </c>
       <c r="G58" t="n">
-        <v>-568083.0817658599</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2379,19 @@
         <v>364453.6636</v>
       </c>
       <c r="G59" t="n">
-        <v>-932536.7453658599</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2413,19 @@
         <v>101249.9753</v>
       </c>
       <c r="G60" t="n">
-        <v>-831286.7700658599</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2447,19 @@
         <v>308548.184</v>
       </c>
       <c r="G61" t="n">
-        <v>-522738.5860658599</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2481,19 @@
         <v>24.6295</v>
       </c>
       <c r="G62" t="n">
-        <v>-522763.2155658599</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2515,19 @@
         <v>4505.3545</v>
       </c>
       <c r="G63" t="n">
-        <v>-518257.8610658598</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2549,19 @@
         <v>82606</v>
       </c>
       <c r="G64" t="n">
-        <v>-600863.8610658599</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2583,19 @@
         <v>448792.6511</v>
       </c>
       <c r="G65" t="n">
-        <v>-1049656.51216586</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2617,19 @@
         <v>134967.5665</v>
       </c>
       <c r="G66" t="n">
-        <v>-914688.9456658599</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2651,19 @@
         <v>248.0726</v>
       </c>
       <c r="G67" t="n">
-        <v>-914937.0182658598</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2685,19 @@
         <v>66328.8177</v>
       </c>
       <c r="G68" t="n">
-        <v>-848608.2005658598</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2719,19 @@
         <v>5000</v>
       </c>
       <c r="G69" t="n">
-        <v>-843608.2005658598</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2753,19 @@
         <v>10000</v>
       </c>
       <c r="G70" t="n">
-        <v>-853608.2005658598</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2787,19 @@
         <v>17471.2255</v>
       </c>
       <c r="G71" t="n">
-        <v>-836136.9750658597</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2821,19 @@
         <v>0.3087</v>
       </c>
       <c r="G72" t="n">
-        <v>-836137.2837658598</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2855,19 @@
         <v>5000</v>
       </c>
       <c r="G73" t="n">
-        <v>-841137.2837658598</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2889,19 @@
         <v>72524</v>
       </c>
       <c r="G74" t="n">
-        <v>-768613.2837658598</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2923,19 @@
         <v>132725.6314</v>
       </c>
       <c r="G75" t="n">
-        <v>-768613.2837658598</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2957,19 @@
         <v>1434.1523</v>
       </c>
       <c r="G76" t="n">
-        <v>-768613.2837658598</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2991,19 @@
         <v>8188</v>
       </c>
       <c r="G77" t="n">
-        <v>-768613.2837658598</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3025,19 @@
         <v>22992.1393</v>
       </c>
       <c r="G78" t="n">
-        <v>-768613.2837658598</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3059,19 @@
         <v>29602</v>
       </c>
       <c r="G79" t="n">
-        <v>-798215.2837658598</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3093,19 @@
         <v>10000</v>
       </c>
       <c r="G80" t="n">
-        <v>-788215.2837658598</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3127,19 @@
         <v>6000</v>
       </c>
       <c r="G81" t="n">
-        <v>-782215.2837658598</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3161,19 @@
         <v>1500</v>
       </c>
       <c r="G82" t="n">
-        <v>-782215.2837658598</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3195,19 @@
         <v>7500</v>
       </c>
       <c r="G83" t="n">
-        <v>-789715.2837658598</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3229,19 @@
         <v>5000</v>
       </c>
       <c r="G84" t="n">
-        <v>-789715.2837658598</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3263,19 @@
         <v>500</v>
       </c>
       <c r="G85" t="n">
-        <v>-789215.2837658598</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3297,19 @@
         <v>3000</v>
       </c>
       <c r="G86" t="n">
-        <v>-792215.2837658598</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3331,19 @@
         <v>20010</v>
       </c>
       <c r="G87" t="n">
-        <v>-792215.2837658598</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3365,19 @@
         <v>9290.4411</v>
       </c>
       <c r="G88" t="n">
-        <v>-792215.2837658598</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3399,19 @@
         <v>7000</v>
       </c>
       <c r="G89" t="n">
-        <v>-799215.2837658598</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3433,19 @@
         <v>3345.6621</v>
       </c>
       <c r="G90" t="n">
-        <v>-799215.2837658598</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3467,19 @@
         <v>5000</v>
       </c>
       <c r="G91" t="n">
-        <v>-794215.2837658598</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3501,19 @@
         <v>128071.2608</v>
       </c>
       <c r="G92" t="n">
-        <v>-922286.5445658598</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3535,19 @@
         <v>20000</v>
       </c>
       <c r="G93" t="n">
-        <v>-942286.5445658598</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3569,19 @@
         <v>2500</v>
       </c>
       <c r="G94" t="n">
-        <v>-939786.5445658598</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3603,19 @@
         <v>35000</v>
       </c>
       <c r="G95" t="n">
-        <v>-904786.5445658598</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3637,19 @@
         <v>2500</v>
       </c>
       <c r="G96" t="n">
-        <v>-907286.5445658598</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3671,19 @@
         <v>24.7518</v>
       </c>
       <c r="G97" t="n">
-        <v>-907311.2963658598</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3705,19 @@
         <v>14975.2482</v>
       </c>
       <c r="G98" t="n">
-        <v>-922286.5445658598</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3739,19 @@
         <v>5000</v>
       </c>
       <c r="G99" t="n">
-        <v>-917286.5445658598</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3773,19 @@
         <v>7819.95</v>
       </c>
       <c r="G100" t="n">
-        <v>-925106.4945658598</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3807,19 @@
         <v>20000</v>
       </c>
       <c r="G101" t="n">
-        <v>-945106.4945658598</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3841,19 @@
         <v>208456.6917</v>
       </c>
       <c r="G102" t="n">
-        <v>-736649.8028658598</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3875,19 @@
         <v>9975</v>
       </c>
       <c r="G103" t="n">
-        <v>-736649.8028658598</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3909,19 @@
         <v>130213.019</v>
       </c>
       <c r="G104" t="n">
-        <v>-736649.8028658598</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3943,19 @@
         <v>190817.7092</v>
       </c>
       <c r="G105" t="n">
-        <v>-927467.5120658599</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3977,19 @@
         <v>3489</v>
       </c>
       <c r="G106" t="n">
-        <v>-927467.5120658599</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +4011,19 @@
         <v>247.5247</v>
       </c>
       <c r="G107" t="n">
-        <v>-927467.5120658599</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4045,19 @@
         <v>2500</v>
       </c>
       <c r="G108" t="n">
-        <v>-927467.5120658599</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4079,19 @@
         <v>5000</v>
       </c>
       <c r="G109" t="n">
-        <v>-927467.5120658599</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4113,19 @@
         <v>12723.4851</v>
       </c>
       <c r="G110" t="n">
-        <v>-940190.9971658599</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,22 +4147,19 @@
         <v>10000</v>
       </c>
       <c r="G111" t="n">
-        <v>-930190.9971658599</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="J111" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4082,24 +4181,19 @@
         <v>5000</v>
       </c>
       <c r="G112" t="n">
-        <v>-935190.9971658599</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4121,24 +4215,19 @@
         <v>2547.2239</v>
       </c>
       <c r="G113" t="n">
-        <v>-937738.2210658599</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4160,18 +4249,19 @@
         <v>3051.358</v>
       </c>
       <c r="G114" t="n">
-        <v>-934686.8630658599</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4193,18 +4283,19 @@
         <v>1520.8073</v>
       </c>
       <c r="G115" t="n">
-        <v>-934686.8630658599</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4226,22 +4317,19 @@
         <v>79.1927</v>
       </c>
       <c r="G116" t="n">
-        <v>-934686.8630658599</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J116" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4263,24 +4351,19 @@
         <v>9558.4884</v>
       </c>
       <c r="G117" t="n">
-        <v>-934686.8630658599</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4302,26 +4385,19 @@
         <v>30041.5116</v>
       </c>
       <c r="G118" t="n">
-        <v>-934686.8630658599</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J118" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4343,22 +4419,19 @@
         <v>66132.1118</v>
       </c>
       <c r="G119" t="n">
-        <v>-868554.7512658599</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J119" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4380,24 +4453,19 @@
         <v>24061.5004</v>
       </c>
       <c r="G120" t="n">
-        <v>-868554.7512658599</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4419,24 +4487,19 @@
         <v>30424.6919</v>
       </c>
       <c r="G121" t="n">
-        <v>-838130.05936586</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4458,18 +4521,19 @@
         <v>1931.6959</v>
       </c>
       <c r="G122" t="n">
-        <v>-840061.75526586</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4491,18 +4555,19 @@
         <v>57121.4911</v>
       </c>
       <c r="G123" t="n">
-        <v>-782940.26416586</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4524,18 +4589,19 @@
         <v>10029.8769</v>
       </c>
       <c r="G124" t="n">
-        <v>-772910.38726586</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4557,18 +4623,19 @@
         <v>5009.9368</v>
       </c>
       <c r="G125" t="n">
-        <v>-777920.32406586</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4590,18 +4657,19 @@
         <v>643.4087</v>
       </c>
       <c r="G126" t="n">
-        <v>-777276.91536586</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4623,18 +4691,19 @@
         <v>20</v>
       </c>
       <c r="G127" t="n">
-        <v>-777256.91536586</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4656,18 +4725,19 @@
         <v>4356.5913</v>
       </c>
       <c r="G128" t="n">
-        <v>-781613.50666586</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4689,18 +4759,19 @@
         <v>18977.3955</v>
       </c>
       <c r="G129" t="n">
-        <v>-800590.9021658599</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4722,18 +4793,19 @@
         <v>18006.1727</v>
       </c>
       <c r="G130" t="n">
-        <v>-818597.0748658599</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4755,18 +4827,19 @@
         <v>8404.358200000001</v>
       </c>
       <c r="G131" t="n">
-        <v>-827001.43306586</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4788,22 +4861,21 @@
         <v>19993.1956</v>
       </c>
       <c r="G132" t="n">
-        <v>-807008.23746586</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
         <v>4.04</v>
       </c>
-      <c r="J132" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4825,26 +4897,21 @@
         <v>10289.8765</v>
       </c>
       <c r="G133" t="n">
-        <v>-807008.23746586</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J133" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>4.05</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4866,26 +4933,19 @@
         <v>5440</v>
       </c>
       <c r="G134" t="n">
-        <v>-812448.23746586</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J134" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4907,22 +4967,21 @@
         <v>57063.7554</v>
       </c>
       <c r="G135" t="n">
-        <v>-812448.23746586</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
         <v>4.04</v>
       </c>
-      <c r="J135" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4944,26 +5003,19 @@
         <v>7006.6176</v>
       </c>
       <c r="G136" t="n">
-        <v>-805441.61986586</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="J136" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4985,24 +5037,19 @@
         <v>66002.1115</v>
       </c>
       <c r="G137" t="n">
-        <v>-871443.73136586</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5024,18 +5071,19 @@
         <v>215613.1011</v>
       </c>
       <c r="G138" t="n">
-        <v>-871443.73136586</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5057,18 +5105,21 @@
         <v>500</v>
       </c>
       <c r="G139" t="n">
-        <v>-870943.73136586</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>4.03</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5090,18 +5141,19 @@
         <v>500</v>
       </c>
       <c r="G140" t="n">
-        <v>-870443.73136586</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5123,18 +5175,19 @@
         <v>77893.5845</v>
       </c>
       <c r="G141" t="n">
-        <v>-948337.31586586</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5156,18 +5209,19 @@
         <v>39</v>
       </c>
       <c r="G142" t="n">
-        <v>-948376.31586586</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5189,18 +5243,19 @@
         <v>43641.4384</v>
       </c>
       <c r="G143" t="n">
-        <v>-948376.31586586</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5222,18 +5277,19 @@
         <v>36936.5646</v>
       </c>
       <c r="G144" t="n">
-        <v>-985312.88046586</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5255,18 +5311,19 @@
         <v>47763</v>
       </c>
       <c r="G145" t="n">
-        <v>-985312.88046586</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5288,18 +5345,19 @@
         <v>2000</v>
       </c>
       <c r="G146" t="n">
-        <v>-983312.88046586</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5321,18 +5379,19 @@
         <v>2411968.4706</v>
       </c>
       <c r="G147" t="n">
-        <v>1428655.59013414</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5354,18 +5413,19 @@
         <v>82960.82919999999</v>
       </c>
       <c r="G148" t="n">
-        <v>1428655.59013414</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5387,18 +5447,19 @@
         <v>1000</v>
       </c>
       <c r="G149" t="n">
-        <v>1428655.59013414</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5420,18 +5481,19 @@
         <v>1000</v>
       </c>
       <c r="G150" t="n">
-        <v>1428655.59013414</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5453,18 +5515,19 @@
         <v>400</v>
       </c>
       <c r="G151" t="n">
-        <v>1428655.59013414</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5486,18 +5549,19 @@
         <v>1000</v>
       </c>
       <c r="G152" t="n">
-        <v>1428655.59013414</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5519,18 +5583,19 @@
         <v>1399.756</v>
       </c>
       <c r="G153" t="n">
-        <v>1427255.83413414</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5552,18 +5617,19 @@
         <v>13804.4226</v>
       </c>
       <c r="G154" t="n">
-        <v>1413451.41153414</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5585,18 +5651,19 @@
         <v>9100</v>
       </c>
       <c r="G155" t="n">
-        <v>1413451.41153414</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5618,18 +5685,19 @@
         <v>205721.6109</v>
       </c>
       <c r="G156" t="n">
-        <v>1207729.80063414</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5651,18 +5719,19 @@
         <v>34852.9332</v>
       </c>
       <c r="G157" t="n">
-        <v>1242582.73383414</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5684,18 +5753,19 @@
         <v>7657.3529</v>
       </c>
       <c r="G158" t="n">
-        <v>1234925.38093414</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5717,18 +5787,19 @@
         <v>5147.0668</v>
       </c>
       <c r="G159" t="n">
-        <v>1234925.38093414</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5750,18 +5821,19 @@
         <v>6900</v>
       </c>
       <c r="G160" t="n">
-        <v>1241825.38093414</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5783,18 +5855,19 @@
         <v>5117.3218</v>
       </c>
       <c r="G161" t="n">
-        <v>1236708.05913414</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5816,18 +5889,19 @@
         <v>70</v>
       </c>
       <c r="G162" t="n">
-        <v>1236638.05913414</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5849,18 +5923,19 @@
         <v>90500</v>
       </c>
       <c r="G163" t="n">
-        <v>1236638.05913414</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5882,18 +5957,19 @@
         <v>6950</v>
       </c>
       <c r="G164" t="n">
-        <v>1236638.05913414</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5915,18 +5991,19 @@
         <v>220</v>
       </c>
       <c r="G165" t="n">
-        <v>1236418.05913414</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5948,18 +6025,19 @@
         <v>9760</v>
       </c>
       <c r="G166" t="n">
-        <v>1226658.05913414</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5981,18 +6059,19 @@
         <v>10</v>
       </c>
       <c r="G167" t="n">
-        <v>1226668.05913414</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6014,18 +6093,19 @@
         <v>28.4313</v>
       </c>
       <c r="G168" t="n">
-        <v>1226668.05913414</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6047,18 +6127,19 @@
         <v>45</v>
       </c>
       <c r="G169" t="n">
-        <v>1226668.05913414</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6080,18 +6161,19 @@
         <v>4176.9041</v>
       </c>
       <c r="G170" t="n">
-        <v>1222491.15503414</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6113,18 +6195,19 @@
         <v>32596.5601</v>
       </c>
       <c r="G171" t="n">
-        <v>1222491.15503414</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6146,18 +6229,19 @@
         <v>13179.6068</v>
       </c>
       <c r="G172" t="n">
-        <v>1222491.15503414</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6179,18 +6263,19 @@
         <v>219773.831</v>
       </c>
       <c r="G173" t="n">
-        <v>1002717.32403414</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6212,18 +6297,19 @@
         <v>172469.6123</v>
       </c>
       <c r="G174" t="n">
-        <v>830247.7117341402</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6245,18 +6331,19 @@
         <v>20</v>
       </c>
       <c r="G175" t="n">
-        <v>830267.7117341402</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
